--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -346,14 +346,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>南御夫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>噬日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>塞伯罗斯</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -542,6 +534,14 @@
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1118,17 +1118,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -1138,14 +1138,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1156,17 +1156,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -1176,14 +1176,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1298,76 +1298,76 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="U2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="W2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1658,28 +1658,28 @@
         <v>67</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>70</v>
@@ -1699,67 +1699,67 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
+      <c r="S2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
         <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" t="s">
-        <v>140</v>
       </c>
       <c r="U2" t="s">
         <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -1779,10 +1779,10 @@
         <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>77</v>
@@ -1800,28 +1800,28 @@
         <v>81</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="Q3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="S3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>82</v>
@@ -2132,8 +2132,8 @@
       <c r="A9" s="3">
         <v>12102</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>93</v>
+      <c r="B9" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C9" s="3">
         <v>281</v>
@@ -2166,13 +2166,13 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>1301012</v>
+        <v>1301006</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>1302012</v>
+        <v>1302006</v>
       </c>
       <c r="P9" s="3">
         <v>1</v>
@@ -2192,7 +2192,7 @@
         <v>12201</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3">
         <v>281</v>
@@ -2250,8 +2250,8 @@
       <c r="A11" s="3">
         <v>12202</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>94</v>
+      <c r="B11" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C11" s="3">
         <v>281</v>
@@ -2284,7 +2284,7 @@
         <v>200</v>
       </c>
       <c r="M11" s="3">
-        <v>1303018</v>
+        <v>1303003</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>21101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3">
         <v>1203</v>
@@ -2369,7 +2369,7 @@
         <v>21102</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="3">
         <v>1203</v>
@@ -2428,7 +2428,7 @@
         <v>21103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3">
         <v>1058</v>
@@ -2487,7 +2487,7 @@
         <v>21201</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3">
         <v>1203</v>
@@ -2554,7 +2554,7 @@
         <v>21202</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3">
         <v>1203</v>
@@ -2617,7 +2617,7 @@
         <v>21203</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3">
         <v>1058</v>
@@ -2684,7 +2684,7 @@
         <v>22101</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3">
         <v>1058</v>
@@ -2743,7 +2743,7 @@
         <v>22102</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3">
         <v>1203</v>
@@ -2802,7 +2802,7 @@
         <v>22103</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3">
         <v>1058</v>
@@ -2861,7 +2861,7 @@
         <v>22201</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="3">
         <v>1058</v>
@@ -2924,7 +2924,7 @@
         <v>22202</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3">
         <v>1203</v>
@@ -2987,7 +2987,7 @@
         <v>22203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="3">
         <v>1058</v>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -4,24 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="教学关卡" sheetId="26" r:id="rId2"/>
-    <sheet name="教学卡牌" sheetId="27" r:id="rId3"/>
+    <sheet name="教学关卡" sheetId="28" r:id="rId2"/>
+    <sheet name="教学关卡怪组" sheetId="26" r:id="rId3"/>
+    <sheet name="教学卡牌" sheetId="27" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="217">
   <si>
     <t>sheet名</t>
   </si>
@@ -509,39 +516,299 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡类型1-寄灵人2-守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_cfcyb_1101001</t>
+  </si>
+  <si>
+    <t>head_cxl_1101002</t>
+  </si>
+  <si>
+    <t>head_xc_1102002</t>
+  </si>
+  <si>
+    <t>head_tly_1102004</t>
+  </si>
+  <si>
+    <t>head_hekp_1101008</t>
+  </si>
+  <si>
+    <t>head_hltn_1101006</t>
+  </si>
+  <si>
+    <t>head_sbls_1102013</t>
+  </si>
+  <si>
+    <t>head_dw_1102003</t>
+  </si>
+  <si>
+    <t>head_zdcyb_1101007</t>
+  </si>
+  <si>
+    <t>head_lyc_1101005</t>
+  </si>
+  <si>
+    <t>head_zdxl_1101003</t>
+  </si>
+  <si>
+    <t>head_xhd_1102012</t>
+  </si>
+  <si>
+    <t>head_gy_1102001</t>
+  </si>
+  <si>
+    <t>head_lxy_1102005</t>
+  </si>
+  <si>
+    <t>head_blsm_1101009</t>
+  </si>
+  <si>
+    <t>head_xkl_1101004</t>
+  </si>
+  <si>
+    <t>head_slm_1102014</t>
+  </si>
+  <si>
+    <t>head_xy_1102006</t>
+  </si>
+  <si>
+    <t>head_tstn_1102007</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>BossImg</t>
+  </si>
+  <si>
+    <t>LastId</t>
+  </si>
+  <si>
+    <t>NeedLevel</t>
+  </si>
+  <si>
+    <t>FirstFinger</t>
+  </si>
+  <si>
+    <t>SceneName</t>
+  </si>
+  <si>
+    <t>MapPosId</t>
+  </si>
+  <si>
+    <t>唯一键</t>
+  </si>
+  <si>
+    <t>关卡名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>Boss原画</t>
+  </si>
+  <si>
+    <t>上一关id</t>
+  </si>
+  <si>
+    <t>等级限制</t>
+  </si>
+  <si>
+    <t>先手 1我方 2敌方</t>
+  </si>
+  <si>
+    <t>场景名字</t>
+  </si>
+  <si>
+    <t>地图坐标ID</t>
+  </si>
+  <si>
+    <t>关卡1</t>
+  </si>
+  <si>
+    <t>我是测试关卡1</t>
+  </si>
+  <si>
+    <t>draw_gy_1102001</t>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-1</t>
+  </si>
+  <si>
+    <t>关卡2</t>
+  </si>
+  <si>
+    <t>我是测试关卡2</t>
+  </si>
+  <si>
+    <t>draw_xc_1102002</t>
+  </si>
+  <si>
+    <t>关卡3</t>
+  </si>
+  <si>
+    <t>我是测试关卡3</t>
+  </si>
+  <si>
+    <t>draw_dw_1102003</t>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关卡怪组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[2].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具数量1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具数量2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>teach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_level.lua</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>teach_level.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>教学关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红莲·缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
+    <t>DrillLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1343,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1385,7 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>126</v>
@@ -1138,7 +1405,7 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -1191,6 +1458,44 @@
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1203,6 +1508,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="23.125" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1400001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="3">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1400002</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="3">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1400001</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1400003</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="3">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1400002</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -1298,76 +1894,76 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.2">
@@ -1599,12 +2195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1618,9 +2214,10 @@
     <col min="17" max="18" width="12.375" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
     <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="24" max="24" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +2287,14 @@
       <c r="W1" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1699,70 +2302,76 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" t="s">
         <v>136</v>
       </c>
-      <c r="F2" t="s">
+      <c r="R2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
         <v>137</v>
-      </c>
-      <c r="N2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>137</v>
-      </c>
-      <c r="R2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T2" t="s">
-        <v>138</v>
       </c>
       <c r="U2" t="s">
         <v>87</v>
       </c>
       <c r="V2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" t="s">
         <v>139</v>
       </c>
-      <c r="W2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1832,8 +2441,14 @@
       <c r="W3" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>11101</v>
       </c>
@@ -1847,7 +2462,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="3">
-        <v>773</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1891,8 +2506,14 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>11102</v>
       </c>
@@ -1906,7 +2527,7 @@
         <v>80</v>
       </c>
       <c r="E5" s="3">
-        <v>703</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1950,8 +2571,14 @@
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>11201</v>
       </c>
@@ -1965,7 +2592,7 @@
         <v>99</v>
       </c>
       <c r="E6" s="3">
-        <v>662</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2009,8 +2636,14 @@
       <c r="W6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>11202</v>
       </c>
@@ -2024,7 +2657,7 @@
         <v>90</v>
       </c>
       <c r="E7" s="3">
-        <v>602</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3">
         <v>0.1</v>
@@ -2068,8 +2701,14 @@
       <c r="W7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>12101</v>
       </c>
@@ -2083,7 +2722,7 @@
         <v>90</v>
       </c>
       <c r="E8" s="3">
-        <v>602</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -2127,13 +2766,19 @@
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>12102</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3">
         <v>281</v>
@@ -2142,7 +2787,7 @@
         <v>90</v>
       </c>
       <c r="E9" s="3">
-        <v>602</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2186,8 +2831,14 @@
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>12201</v>
       </c>
@@ -2201,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="3">
-        <v>602</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2245,13 +2896,19 @@
       <c r="W10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>12202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="3">
         <v>281</v>
@@ -2260,7 +2917,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="3">
-        <v>602</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2304,8 +2961,14 @@
       <c r="W11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>21101</v>
       </c>
@@ -2363,8 +3026,14 @@
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>21102</v>
       </c>
@@ -2422,8 +3091,14 @@
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>21103</v>
       </c>
@@ -2481,8 +3156,14 @@
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>21201</v>
       </c>
@@ -2548,8 +3229,14 @@
       <c r="W15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>21202</v>
       </c>
@@ -2611,8 +3298,14 @@
       <c r="W16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>21203</v>
       </c>
@@ -2678,8 +3371,14 @@
       <c r="W17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>22101</v>
       </c>
@@ -2737,8 +3436,14 @@
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>22102</v>
       </c>
@@ -2796,8 +3501,14 @@
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>22103</v>
       </c>
@@ -2855,8 +3566,14 @@
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>22201</v>
       </c>
@@ -2918,8 +3635,14 @@
       <c r="W21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>22202</v>
       </c>
@@ -2981,8 +3704,14 @@
       <c r="W22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22203</v>
       </c>
@@ -3043,6 +3772,12 @@
       </c>
       <c r="W23" s="3">
         <v>1</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1D079-3728-4290-B297-003786E79B2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="教学关卡怪组" sheetId="26" r:id="rId3"/>
     <sheet name="教学卡牌" sheetId="27" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="208">
   <si>
     <t>sheet名</t>
   </si>
@@ -185,42 +186,6 @@
     <t>敌方阵位3守护灵</t>
   </si>
   <si>
-    <t>我方第一回合红色水晶回复</t>
-  </si>
-  <si>
-    <t>我方第一回合黄色水晶回复</t>
-  </si>
-  <si>
-    <t>我方第一回合蓝色水晶回复</t>
-  </si>
-  <si>
-    <t>我方第二回合红色水晶回复</t>
-  </si>
-  <si>
-    <t>我方第二回合黄色水晶回复</t>
-  </si>
-  <si>
-    <t>我方第二回合蓝色水晶回复</t>
-  </si>
-  <si>
-    <t>敌方第一回合红色水晶回复</t>
-  </si>
-  <si>
-    <t>敌方第一回合黄色水晶回复</t>
-  </si>
-  <si>
-    <t>敌方第一回合蓝色水晶回复</t>
-  </si>
-  <si>
-    <t>敌方第二回合红色水晶回复</t>
-  </si>
-  <si>
-    <t>敌方第二回合黄色水晶回复</t>
-  </si>
-  <si>
-    <t>敌方第二回合蓝色水晶回复</t>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -333,26 +298,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>常服曹焱兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>曹玄亮</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>许褚</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>黑尔·坎普</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>塞伯罗斯</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -361,26 +314,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刘羽禅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗夏玲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>北落师门</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -389,18 +322,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>红莲·缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>石灵明</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -540,14 +461,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>红莲·缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -566,48 +479,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>head_cfcyb_1101001</t>
-  </si>
-  <si>
     <t>head_cxl_1101002</t>
   </si>
   <si>
     <t>head_xc_1102002</t>
   </si>
   <si>
-    <t>head_tly_1102004</t>
-  </si>
-  <si>
-    <t>head_hekp_1101008</t>
-  </si>
-  <si>
-    <t>head_hltn_1101006</t>
-  </si>
-  <si>
     <t>head_sbls_1102013</t>
   </si>
   <si>
-    <t>head_dw_1102003</t>
-  </si>
-  <si>
     <t>head_zdcyb_1101007</t>
   </si>
   <si>
-    <t>head_lyc_1101005</t>
-  </si>
-  <si>
-    <t>head_zdxl_1101003</t>
-  </si>
-  <si>
-    <t>head_xhd_1102012</t>
-  </si>
-  <si>
-    <t>head_gy_1102001</t>
-  </si>
-  <si>
-    <t>head_lxy_1102005</t>
-  </si>
-  <si>
     <t>head_blsm_1101009</t>
   </si>
   <si>
@@ -615,12 +498,6 @@
   </si>
   <si>
     <t>head_slm_1102014</t>
-  </si>
-  <si>
-    <t>head_xy_1102006</t>
-  </si>
-  <si>
-    <t>head_tstn_1102007</t>
   </si>
   <si>
     <t>Name</t>
@@ -811,11 +688,109 @@
     <t>教学关卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>吕仙宫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方第1回合红色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方第1回合黄色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方第1回合蓝色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方第2回合红色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方第2回合黄色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方第2回合蓝色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方第1回合红色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方第1回合黄色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方第1回合蓝色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方第2回合红色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方第2回合黄色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方第2回合蓝色水晶回复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalOur[3].r</t>
+  </si>
+  <si>
+    <t>CrystalOur[3].y</t>
+  </si>
+  <si>
+    <t>CrystalOur[3].b</t>
+  </si>
+  <si>
+    <t>我方第3回合红色水晶回复</t>
+  </si>
+  <si>
+    <t>我方第3回合黄色水晶回复</t>
+  </si>
+  <si>
+    <t>我方第3回合蓝色水晶回复</t>
+  </si>
+  <si>
+    <t>CrystalEnemy[3].r</t>
+  </si>
+  <si>
+    <t>CrystalEnemy[3].y</t>
+  </si>
+  <si>
+    <t>CrystalEnemy[3].b</t>
+  </si>
+  <si>
+    <t>敌方第3回合红色水晶回复</t>
+  </si>
+  <si>
+    <t>敌方第3回合黄色水晶回复</t>
+  </si>
+  <si>
+    <t>敌方第3回合蓝色水晶回复</t>
+  </si>
+  <si>
+    <t>阎风吒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_yfz_1101011</t>
+  </si>
+  <si>
+    <t>head_lxg_1101014</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1050,19 +1025,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1339,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1385,17 +1360,17 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="b">
@@ -1405,14 +1380,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1423,17 +1398,17 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -1443,14 +1418,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1461,17 +1436,17 @@
     </row>
     <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="b">
@@ -1481,14 +1456,14 @@
     </row>
     <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1508,11 +1483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1529,134 +1504,134 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -1664,28 +1639,28 @@
         <v>1400001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3">
         <v>1000</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="H4" s="3">
         <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -1697,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1708,28 +1683,28 @@
         <v>1400002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="F5" s="3">
         <v>1000</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="H5" s="3">
         <v>25</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="J5" s="3">
         <v>1400001</v>
@@ -1741,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
@@ -1752,28 +1727,28 @@
         <v>1400003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="F6" s="3">
         <v>1000</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="H6" s="3">
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="J6" s="3">
         <v>1400002</v>
@@ -1785,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="N6" s="3">
         <v>3</v>
@@ -1799,20 +1774,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="25" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="28" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -1871,102 +1858,138 @@
         <v>25</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="AC1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="R2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="S2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="T2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="W2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="X2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="s">
-        <v>134</v>
+        <v>111</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2007,43 +2030,61 @@
         <v>44</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>56</v>
+        <v>189</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2051,142 +2092,85 @@
         <v>11101</v>
       </c>
       <c r="C4" s="3">
-        <v>11201</v>
+        <v>11104</v>
       </c>
       <c r="D4" s="3">
         <v>11102</v>
       </c>
       <c r="E4" s="3">
-        <v>11202</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>11105</v>
+      </c>
+      <c r="F4" s="3">
+        <v>11103</v>
+      </c>
+      <c r="G4" s="3">
+        <v>11106</v>
+      </c>
       <c r="H4" s="3">
-        <v>12101</v>
-      </c>
-      <c r="I4" s="3">
-        <v>12201</v>
-      </c>
+        <v>11107</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3">
-        <v>12102</v>
-      </c>
-      <c r="K4" s="3">
-        <v>12202</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>11108</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>11109</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>3</v>
       </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
       <c r="R4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
         <v>3</v>
       </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
       <c r="X4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>21101</v>
-      </c>
-      <c r="C5" s="3">
-        <v>21201</v>
-      </c>
-      <c r="D5" s="3">
-        <v>21102</v>
-      </c>
-      <c r="E5" s="3">
-        <v>21202</v>
-      </c>
-      <c r="F5" s="3">
-        <v>21103</v>
-      </c>
-      <c r="G5" s="3">
-        <v>21203</v>
-      </c>
-      <c r="H5" s="3">
-        <v>22101</v>
-      </c>
-      <c r="I5" s="3">
-        <v>22201</v>
-      </c>
-      <c r="J5" s="3">
-        <v>22102</v>
-      </c>
-      <c r="K5" s="3">
-        <v>22202</v>
-      </c>
-      <c r="L5" s="3">
-        <v>22103</v>
-      </c>
-      <c r="M5" s="3">
-        <v>22203</v>
-      </c>
-      <c r="N5" s="3">
-        <v>5</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2</v>
-      </c>
-      <c r="P5" s="3">
         <v>3</v>
       </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>4</v>
-      </c>
-      <c r="S5" s="3">
-        <v>6</v>
-      </c>
-      <c r="T5" s="3">
-        <v>5</v>
-      </c>
-      <c r="U5" s="3">
-        <v>2</v>
-      </c>
-      <c r="V5" s="3">
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
         <v>3</v>
       </c>
-      <c r="W5" s="3">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>6</v>
+      <c r="AB4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2196,11 +2180,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2222,247 +2209,247 @@
         <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="Y1" s="5" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="N2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="O2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="R2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="S2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="T2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="W2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="X2" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>11101</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>88</v>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C4" s="3">
-        <v>199</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -2486,13 +2473,13 @@
         <v>200</v>
       </c>
       <c r="M4" s="3">
-        <v>1301001</v>
+        <v>2001001</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>1302001</v>
+        <v>2001002</v>
       </c>
       <c r="P4" s="3">
         <v>1</v>
@@ -2505,9 +2492,11 @@
         <v>0</v>
       </c>
       <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="W4" s="3">
+        <v>999</v>
+      </c>
       <c r="X4" s="3" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="Y4" s="3">
         <v>1</v>
@@ -2517,17 +2506,17 @@
       <c r="A5" s="3">
         <v>11102</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C5" s="3">
-        <v>181</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -2551,13 +2540,13 @@
         <v>200</v>
       </c>
       <c r="M5" s="3">
-        <v>1301002</v>
+        <v>2002001</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
       </c>
       <c r="O5" s="3">
-        <v>1302002</v>
+        <v>2002002</v>
       </c>
       <c r="P5" s="3">
         <v>1</v>
@@ -2570,9 +2559,11 @@
         <v>0</v>
       </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="W5" s="3">
+        <v>999</v>
+      </c>
       <c r="X5" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="Y5" s="3">
         <v>1</v>
@@ -2580,19 +2571,19 @@
     </row>
     <row r="6" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>11201</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>11103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C6" s="3">
-        <v>309</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="3">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2607,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -2616,7 +2607,7 @@
         <v>200</v>
       </c>
       <c r="M6" s="3">
-        <v>1303002</v>
+        <v>2003001</v>
       </c>
       <c r="N6" s="3">
         <v>1</v>
@@ -2628,39 +2619,37 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="3">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V6" s="3"/>
       <c r="W6" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="Y6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>11202</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>11104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="3">
-        <v>281</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2681,28 +2670,32 @@
         <v>200</v>
       </c>
       <c r="M7" s="3">
-        <v>1303004</v>
+        <v>2004001</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="3">
+        <v>2005002</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3">
         <v>2</v>
       </c>
       <c r="V7" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W7" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="Y7" s="3">
         <v>2</v>
@@ -2710,19 +2703,19 @@
     </row>
     <row r="8" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>12101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>11105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="3">
-        <v>281</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -2737,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -2746,48 +2739,56 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>1301008</v>
+        <v>2005001</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="3">
-        <v>1302008</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
+        <v>2005002</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2005003</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
       <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>6</v>
+      </c>
+      <c r="W8" s="3">
+        <v>999</v>
+      </c>
       <c r="X8" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="Y8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>12102</v>
+        <v>11106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
-        <v>281</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2811,48 +2812,48 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>1301006</v>
+        <v>1303014</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
       </c>
-      <c r="O9" s="3">
-        <v>1302006</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="V9" s="3">
+        <v>6</v>
+      </c>
+      <c r="W9" s="3">
+        <v>999</v>
+      </c>
       <c r="X9" s="3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="Y9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>12201</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>11107</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C10" s="3">
-        <v>281</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>8800</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2876,7 +2877,7 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>1303013</v>
+        <v>2006001</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -2888,36 +2889,34 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3">
-        <v>2</v>
-      </c>
-      <c r="V10" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V10" s="3"/>
       <c r="W10" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="Y10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>12202</v>
+        <v>11108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3">
-        <v>281</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2941,7 +2940,7 @@
         <v>200</v>
       </c>
       <c r="M11" s="3">
-        <v>1303003</v>
+        <v>2007001</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -2953,36 +2952,34 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3">
-        <v>3</v>
-      </c>
-      <c r="V11" s="3">
         <v>2</v>
       </c>
+      <c r="V11" s="3"/>
       <c r="W11" s="3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="Y11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>21101</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>11109</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C12" s="3">
-        <v>1203</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="3">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>2171</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -3003,781 +3000,32 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>700</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1301007</v>
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>2008001</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
       </c>
-      <c r="O12" s="3">
-        <v>1302007</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="W12" s="3">
+        <v>999</v>
+      </c>
       <c r="X12" s="3" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="Y12" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>21102</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1203</v>
-      </c>
-      <c r="D13" s="3">
-        <v>396</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2171</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>700</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1301005</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1302005</v>
-      </c>
-      <c r="P13" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>21103</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1058</v>
-      </c>
-      <c r="D14" s="3">
-        <v>349</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1911</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>700</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1301003</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1302003</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>21201</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1203</v>
-      </c>
-      <c r="D15" s="3">
-        <v>396</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2171</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="L15" s="3">
-        <v>700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1303012</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3">
-        <v>1304002</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1304003</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1</v>
-      </c>
-      <c r="V15" s="3">
-        <v>2</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>21202</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1203</v>
-      </c>
-      <c r="D16" s="3">
-        <v>396</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2171</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>700</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1303001</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3">
-        <v>1304006</v>
-      </c>
-      <c r="R16" s="3">
-        <v>2</v>
-      </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3">
-        <v>2</v>
-      </c>
-      <c r="V16" s="3">
-        <v>2</v>
-      </c>
-      <c r="W16" s="3">
-        <v>1</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>21203</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1058</v>
-      </c>
-      <c r="D17" s="3">
-        <v>349</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1911</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1303005</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3">
-        <v>1304009</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1304011</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>22101</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1058</v>
-      </c>
-      <c r="D18" s="3">
-        <v>349</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1911</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>700</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1301009</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1302009</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>22102</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1203</v>
-      </c>
-      <c r="D19" s="3">
-        <v>396</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2171</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>700</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1301004</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1302004</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>22103</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1058</v>
-      </c>
-      <c r="D20" s="3">
-        <v>349</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1911</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1301006</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1302006</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>22201</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1058</v>
-      </c>
-      <c r="D21" s="3">
-        <v>349</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1911</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1303014</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3">
-        <v>1304001</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3">
-        <v>1</v>
-      </c>
-      <c r="V21" s="3">
-        <v>2</v>
-      </c>
-      <c r="W21" s="3">
-        <v>1</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>22202</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1203</v>
-      </c>
-      <c r="D22" s="3">
-        <v>396</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2171</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1303006</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3">
-        <v>1304014</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3">
-        <v>2</v>
-      </c>
-      <c r="V22" s="3">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
-        <v>1</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22203</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1058</v>
-      </c>
-      <c r="D23" s="3">
-        <v>349</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1911</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1303007</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3">
-        <v>1304016</v>
-      </c>
-      <c r="R23" s="3">
-        <v>2</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3">
-        <v>3</v>
-      </c>
-      <c r="V23" s="3">
-        <v>2</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1D079-3728-4290-B297-003786E79B2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37941A50-D5A4-4C59-8112-C74F4C43DBD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2109,15 +2109,21 @@
       <c r="H4" s="3">
         <v>11107</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
       <c r="J4" s="3">
         <v>11108</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
       <c r="L4" s="3">
         <v>11109</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
       <c r="N4" s="3">
         <v>3</v>
       </c>
@@ -2183,11 +2189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2583,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2853,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>8800</v>
+        <v>7000</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -3031,5 +3037,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374CEE5F-FAC3-44C7-8E0F-F28EB00CA688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,12 +19,20 @@
     <sheet name="教学关卡怪组" sheetId="26" r:id="rId4"/>
     <sheet name="教学卡牌" sheetId="27" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="271">
   <si>
     <t>sheet名</t>
   </si>
@@ -73,6 +87,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>teach</t>
@@ -82,6 +97,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>_level.lua</t>
@@ -130,9 +146,6 @@
     <t>ui_dtex_Jixunying_001</t>
   </si>
   <si>
-    <t>基础策略训练</t>
-  </si>
-  <si>
     <t>ui_dtex_Jixunying_002</t>
   </si>
   <si>
@@ -229,9 +242,6 @@
     <t>地图坐标ID</t>
   </si>
   <si>
-    <t>基本操作训练1</t>
-  </si>
-  <si>
     <t>金币</t>
   </si>
   <si>
@@ -244,30 +254,12 @@
     <t>Map_luoshajiedao_1-1</t>
   </si>
   <si>
-    <t>基本操作训练2</t>
-  </si>
-  <si>
     <t>draw_xc_1102002</t>
   </si>
   <si>
-    <t>基本操作训练3</t>
-  </si>
-  <si>
     <t>draw_dw_1102003</t>
   </si>
   <si>
-    <t>基础策略训练1</t>
-  </si>
-  <si>
-    <t>基础策略训练2</t>
-  </si>
-  <si>
-    <t>基础策略训练3</t>
-  </si>
-  <si>
-    <t>进阶策略训练1</t>
-  </si>
-  <si>
     <t>进阶策略训练2</t>
   </si>
   <si>
@@ -634,18 +626,12 @@
     <t>战斗夏玲技能2</t>
   </si>
   <si>
-    <t>head_cxl_1101002</t>
-  </si>
-  <si>
     <t>李轩辕</t>
   </si>
   <si>
     <t>李轩辕技能(教学)</t>
   </si>
   <si>
-    <t>head_zdcyb_1101007</t>
-  </si>
-  <si>
     <t>许褚</t>
   </si>
   <si>
@@ -658,29 +644,294 @@
     <t>塞伯罗斯</t>
   </si>
   <si>
+    <t>怒斩(教学)</t>
+  </si>
+  <si>
+    <t>黄昏之殇(教学)</t>
+  </si>
+  <si>
+    <t>head_sbls_1102013</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>塞伯罗斯技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>怒斩(教学)</t>
-  </si>
-  <si>
-    <t>黄昏之殇(教学)</t>
-  </si>
-  <si>
-    <t>head_sbls_1102013</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁断之刃(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺魂(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>断罪(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_cfcyb_1101001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_yj_1102015</t>
+  </si>
+  <si>
+    <t>head_slm_1102014</t>
+  </si>
+  <si>
+    <t>head_xkl_1101004</t>
+  </si>
+  <si>
+    <t>head_xy_1102006</t>
+  </si>
+  <si>
+    <t>head_lxy_1102005</t>
+  </si>
+  <si>
+    <t>head_xc_1102002</t>
+  </si>
+  <si>
+    <t>head_zdxl_1101003</t>
+  </si>
+  <si>
+    <t>水晶获取教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶削减教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用削减水晶能力拖延敌方召唤，快速击杀其寄灵人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能快速获取水晶来击败敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>断罪(教学)</t>
+  </si>
+  <si>
+    <t>许褚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背水一战(教学)</t>
+  </si>
+  <si>
+    <t>嗜血(教学)</t>
+  </si>
+  <si>
+    <t>当某个敌人威胁过大时，尝试集中某个角色行动优先击杀该敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中行动教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩戴了追击技能的角色能打出更高的爆发</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动顺序教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理安排行动顺序很重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散行动教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时需要先清理杂鱼，再集中攻击一个目标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶溢出教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过水晶溢出机制可以获得大量水晶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼魄(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动模式训练</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,176 +944,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -870,6 +974,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -878,6 +983,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -885,11 +991,35 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,7 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,193 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,18 +1070,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1155,104 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1263,289 +1114,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="60" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="60" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="60" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="13" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="14">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="好" xfId="13" builtinId="26"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1803,19 +1502,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1826,7 +1525,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1571,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1589,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="54" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +1609,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="55.5" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1928,7 +1627,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="35.25" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1948,7 +1647,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="35.25" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1966,7 +1665,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="35.25" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1984,32 +1683,31 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +1721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2037,7 +1735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2051,7 +1749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2065,54 +1763,54 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
+      <c r="B5" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="9" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="19.625" customWidth="1"/>
     <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
@@ -2121,7 +1819,7 @@
     <col min="15" max="15" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:15">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2129,48 +1827,48 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -2182,31 +1880,31 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
@@ -2215,62 +1913,62 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:15">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:15">
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1400001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2279,19 +1977,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3">
         <v>1000</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3">
         <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -2303,42 +2001,42 @@
         <v>1</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:15">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1400002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="3">
         <v>1000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" s="3">
         <v>25</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3">
         <v>1400001</v>
@@ -2350,45 +2048,45 @@
         <v>1</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:15">
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1400003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3">
         <v>1000</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I6" s="3">
         <v>25</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K6" s="3">
-        <v>1400002</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
@@ -2397,45 +2095,45 @@
         <v>2</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:15">
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1400004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="11">
+        <v>256</v>
+      </c>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3">
         <v>1000</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I7" s="3">
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
+        <v>1400003</v>
       </c>
       <c r="L7" s="3">
         <v>1</v>
@@ -2444,42 +2142,42 @@
         <v>1</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:15">
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1400005</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="11">
+        <v>262</v>
+      </c>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3">
         <v>1000</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3">
         <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K8" s="3">
         <v>1400004</v>
@@ -2491,42 +2189,42 @@
         <v>1</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:15">
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1400006</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="11">
+        <v>264</v>
+      </c>
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="3">
         <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K9" s="3">
         <v>1400005</v>
@@ -2538,45 +2236,45 @@
         <v>2</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:15">
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1400007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3</v>
+        <v>266</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
       </c>
       <c r="E10" s="12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="3">
         <v>1000</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I10" s="3">
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>1400006</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
@@ -2585,21 +2283,21 @@
         <v>1</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:15">
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1400008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D11" s="11">
         <v>3</v>
@@ -2608,19 +2306,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3">
         <v>1000</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3">
         <v>25</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" s="3">
         <v>1400007</v>
@@ -2632,21 +2330,21 @@
         <v>1</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:15">
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1400009</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D12" s="11">
         <v>3</v>
@@ -2655,19 +2353,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3">
         <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K12" s="3">
         <v>1400008</v>
@@ -2679,29 +2377,28 @@
         <v>2</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O12" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AE4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -2719,292 +2416,292 @@
     <col min="14" max="28" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:31">
+    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="60" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" t="s">
-        <v>109</v>
-      </c>
-      <c r="T2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" t="s">
-        <v>109</v>
-      </c>
-      <c r="X2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" ht="60" spans="1:31">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="O3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="P3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="R3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="S3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="T3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="U3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="V3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="X3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Y3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="Z3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="AB3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="AC3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="AD3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="AE3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:31">
+    </row>
+    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3018,7 +2715,7 @@
         <v>11103</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>11104</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -3033,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>11104</v>
+        <v>11105</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -3045,40 +2742,40 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
         <v>3</v>
       </c>
-      <c r="U4" s="3">
-        <v>3</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
       <c r="W4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="3">
         <v>0</v>
@@ -3087,38 +2784,609 @@
         <v>3</v>
       </c>
       <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11201</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11202</v>
+      </c>
+      <c r="D5" s="3">
+        <v>11203</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11204</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>11205</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11206</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>2</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
         <v>3</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="AD4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
+      <c r="B6" s="3">
+        <v>11301</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>11302</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>11303</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>11304</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>11305</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>11306</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>9</v>
+      </c>
+      <c r="R6" s="3">
+        <v>9</v>
+      </c>
+      <c r="S6" s="3">
+        <v>9</v>
+      </c>
+      <c r="T6" s="3">
+        <v>9</v>
+      </c>
+      <c r="U6" s="3">
+        <v>9</v>
+      </c>
+      <c r="V6" s="3">
+        <v>9</v>
+      </c>
+      <c r="W6" s="3">
+        <v>9</v>
+      </c>
+      <c r="X6" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11401</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>11402</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>11403</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>6</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>6</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>9</v>
+      </c>
+      <c r="X7" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11501</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11502</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11503</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11504</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11505</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>11506</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>6</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>6</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>9</v>
+      </c>
+      <c r="X8" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11601</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>11602</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11603</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11604</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11605</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>11606</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>9</v>
+      </c>
+      <c r="X9" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11701</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11702</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11703</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>9</v>
+      </c>
+      <c r="X10" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="F12" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
@@ -3129,558 +3397,2786 @@
     <col min="16" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="17" width="20.5" customWidth="1"/>
     <col min="18" max="18" width="14.875" customWidth="1"/>
-    <col min="19" max="20" width="12.375" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.375" customWidth="1"/>
     <col min="21" max="21" width="15.625" customWidth="1"/>
     <col min="22" max="22" width="13.25" customWidth="1"/>
     <col min="26" max="26" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:27">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" t="s">
         <v>160</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="H3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" t="s">
-        <v>168</v>
-      </c>
-      <c r="P2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>168</v>
-      </c>
-      <c r="R2" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" t="s">
-        <v>109</v>
-      </c>
-      <c r="U2" t="s">
-        <v>168</v>
-      </c>
-      <c r="V2" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="I3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:27">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="T3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>11101</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:27">
-      <c r="A4" s="3">
-        <v>11101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>1000</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
         <v>200</v>
       </c>
-      <c r="M4" s="5" t="str">
+      <c r="M4" s="4" t="str">
         <f>B4&amp;"普攻"</f>
         <v>战斗夏玲普攻</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" s="4">
+        <v>10</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>11102</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>200</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <f t="shared" ref="M5:M23" si="0">B5&amp;"普攻"</f>
+        <v>李轩辕普攻</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="4">
+        <v>10</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="R4" s="3">
-        <v>10</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3">
+      <c r="T5" s="4">
+        <v>10</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V5" s="4">
+        <v>10</v>
+      </c>
+      <c r="W5" s="4">
+        <v>3</v>
+      </c>
+      <c r="X5" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="4">
         <v>5</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:27">
-      <c r="A5" s="3">
-        <v>11102</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="Z5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>11103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
         <v>200</v>
       </c>
-      <c r="C5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="M6" s="4" t="str">
+        <f>B6&amp;"普攻"</f>
+        <v>常服曹焱兵普攻</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="P6" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="R6" s="4">
+        <v>10</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>11104</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
         <v>200</v>
       </c>
-      <c r="M5" s="5" t="str">
-        <f t="shared" ref="M5:M7" si="0">B5&amp;"普攻"</f>
-        <v>李轩辕普攻</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="P5" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:27">
-      <c r="A6" s="3">
-        <v>11103</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>200</v>
-      </c>
-      <c r="M6" s="5" t="str">
+      <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>许褚普攻</v>
       </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="4">
+        <v>10</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" s="4">
+        <v>10</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V7" s="4">
+        <v>10</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>11105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>200</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N8" s="4">
+        <v>10</v>
+      </c>
+      <c r="W8" s="4">
+        <v>2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>11201</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>200</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>常服曹焱兵普攻</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P9" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R9" s="4">
+        <v>10</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>11202</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>200</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>于禁普攻</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" s="4">
+        <v>10</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="T10" s="4">
+        <v>10</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V10" s="4">
+        <v>10</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>11203</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>200</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>北落师门普攻</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="R11" s="4">
+        <v>10</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11204</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>200</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>石灵明普攻</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P12" s="4">
+        <v>10</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" s="4">
+        <v>10</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V12" s="4">
+        <v>10</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11205</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3">
+      <c r="C13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>14000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>200</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>项昆仑普攻</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P13" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="R13" s="4">
+        <v>10</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
         <v>5</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z13" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>11206</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:27">
-      <c r="A7" s="3">
-        <v>11104</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="C14" s="4">
         <v>10000</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
         <v>200</v>
       </c>
-      <c r="M7" s="5" t="str">
+      <c r="M14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>项羽普攻</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="4">
+        <v>10</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="T14" s="4">
+        <v>10</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="V14" s="4">
+        <v>10</v>
+      </c>
+      <c r="W14" s="4">
+        <v>2</v>
+      </c>
+      <c r="X14" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>11301</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>200</v>
+      </c>
+      <c r="M15" s="16" t="str">
+        <f t="shared" ref="M15" si="1">B15&amp;"普攻"</f>
+        <v>典韦普攻</v>
+      </c>
+      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="P15" s="17">
+        <v>10</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>11302</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>200</v>
+      </c>
+      <c r="M16" s="16" t="str">
+        <f>B16&amp;"普攻"</f>
+        <v>项羽普攻</v>
+      </c>
+      <c r="N16" s="14">
+        <v>1</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="17">
+        <v>10</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T16">
+        <v>10</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>11303</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>200</v>
+      </c>
+      <c r="M17" s="16" t="str">
+        <f t="shared" ref="M17:M20" si="2">B17&amp;"普攻"</f>
+        <v>李轩辕普攻</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="14">
+        <v>10</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="T17" s="4">
+        <v>10</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V17" s="4">
+        <v>10</v>
+      </c>
+      <c r="W17" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>11304</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>200</v>
+      </c>
+      <c r="M18" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>阎风吒普攻</v>
+      </c>
+      <c r="N18" s="14">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="P18" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="W18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>11305</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>8000</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>200</v>
+      </c>
+      <c r="M19" s="16" t="str">
+        <f>B19&amp;"普攻"</f>
+        <v>塞伯罗斯普攻</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="P19" s="17">
+        <v>10</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T19">
+        <v>10</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V19">
+        <v>10</v>
+      </c>
+      <c r="W19" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>11306</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>200</v>
+      </c>
+      <c r="M20" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>刘羽禅普攻</v>
+      </c>
+      <c r="N20" s="14">
+        <v>1</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="W20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>11401</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>200</v>
+      </c>
+      <c r="M21" s="16" t="str">
+        <f>B21&amp;"普攻"</f>
+        <v>许褚普攻</v>
+      </c>
+      <c r="N21" s="14">
+        <v>1</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="P21" s="17">
+        <v>10</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>11402</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>200</v>
+      </c>
+      <c r="M22" s="16" t="str">
+        <f>B22&amp;"普攻"</f>
+        <v>许褚普攻</v>
+      </c>
+      <c r="N22" s="14">
+        <v>1</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="17">
+        <v>10</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T22">
+        <v>10</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V22">
+        <v>10</v>
+      </c>
+      <c r="W22" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>11403</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23">
+        <v>5000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>200</v>
+      </c>
+      <c r="M23" s="16" t="str">
         <f t="shared" si="0"/>
         <v>塞伯罗斯普攻</v>
       </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="P7" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="T7" s="3">
-        <v>10</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="V7" s="3">
-        <v>10</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="N23" s="14">
+        <v>1</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="P23" s="17">
+        <v>10</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V23">
+        <v>10</v>
+      </c>
+      <c r="W23" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>11501</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>200</v>
+      </c>
+      <c r="M24" s="16" t="str">
+        <f>B24&amp;"普攻"</f>
+        <v>烈风螳螂普攻</v>
+      </c>
+      <c r="N24" s="14">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="P24" s="17">
+        <v>10</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="W24" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>11502</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>200</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f t="shared" ref="M25" si="3">B25&amp;"普攻"</f>
+        <v>石灵明普攻</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="P25" s="4">
+        <v>10</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="T25" s="4">
+        <v>10</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="V25" s="4">
+        <v>10</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA25" s="4">
         <v>2</v>
       </c>
-      <c r="X7" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="3">
+    </row>
+    <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>11503</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>200</v>
+      </c>
+      <c r="M26" s="16" t="str">
+        <f>B26&amp;"普攻"</f>
+        <v>李轩辕普攻</v>
+      </c>
+      <c r="N26" s="14">
+        <v>1</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="P26" s="17">
+        <v>10</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="W26" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="4">
         <v>5</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA7" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>11504</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>200</v>
+      </c>
+      <c r="M27" s="16" t="str">
+        <f t="shared" ref="M27" si="4">B27&amp;"普攻"</f>
+        <v>阎风吒普攻</v>
+      </c>
+      <c r="N27" s="14">
+        <v>1</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="P27" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="W27" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>11505</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>200</v>
+      </c>
+      <c r="M28" s="16" t="str">
+        <f>B28&amp;"普攻"</f>
+        <v>塞伯罗斯普攻</v>
+      </c>
+      <c r="N28" s="14">
+        <v>1</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="P28" s="17">
+        <v>10</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T28">
+        <v>10</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V28">
+        <v>10</v>
+      </c>
+      <c r="W28" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>11506</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>200</v>
+      </c>
+      <c r="M29" s="16" t="str">
+        <f t="shared" ref="M29" si="5">B29&amp;"普攻"</f>
+        <v>刘羽禅普攻</v>
+      </c>
+      <c r="N29" s="14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="W29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>11601</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>200</v>
+      </c>
+      <c r="M30" s="16" t="str">
+        <f>B30&amp;"普攻"</f>
+        <v>烈风螳螂普攻</v>
+      </c>
+      <c r="N30" s="14">
+        <v>1</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="P30" s="17">
+        <v>10</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="W30" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>11602</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>200</v>
+      </c>
+      <c r="M31" s="16" t="str">
+        <f>B31&amp;"普攻"</f>
+        <v>李轩辕普攻</v>
+      </c>
+      <c r="N31" s="14">
+        <v>1</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="P31" s="17">
+        <v>10</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="W31" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>11603</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>200</v>
+      </c>
+      <c r="M32" s="16" t="str">
+        <f t="shared" ref="M32" si="6">B32&amp;"普攻"</f>
+        <v>典韦普攻</v>
+      </c>
+      <c r="N32" s="14">
+        <v>1</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="P32" s="17">
+        <v>10</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T32">
+        <v>10</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+      <c r="W32" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>11604</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>200</v>
+      </c>
+      <c r="M33" s="16" t="str">
+        <f t="shared" ref="M33" si="7">B33&amp;"普攻"</f>
+        <v>阎风吒普攻</v>
+      </c>
+      <c r="N33" s="14">
+        <v>1</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="P33" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="W33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>11605</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>200</v>
+      </c>
+      <c r="M34" s="16" t="str">
+        <f>B34&amp;"普攻"</f>
+        <v>塞伯罗斯普攻</v>
+      </c>
+      <c r="N34" s="14">
+        <v>1</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="P34" s="17">
+        <v>10</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>11606</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>200</v>
+      </c>
+      <c r="M35" s="16" t="str">
+        <f t="shared" ref="M35:M36" si="8">B35&amp;"普攻"</f>
+        <v>刘羽禅普攻</v>
+      </c>
+      <c r="N35" s="14">
+        <v>1</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="P35" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="W35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>11701</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>200</v>
+      </c>
+      <c r="M36" s="16" t="str">
+        <f t="shared" si="8"/>
+        <v>典韦普攻</v>
+      </c>
+      <c r="N36" s="14">
+        <v>1</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" s="17">
+        <v>10</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V36">
+        <v>10</v>
+      </c>
+      <c r="W36" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>11702</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>200</v>
+      </c>
+      <c r="M37" s="16" t="str">
+        <f t="shared" ref="M37" si="9">B37&amp;"普攻"</f>
+        <v>张郃普攻</v>
+      </c>
+      <c r="N37" s="14">
+        <v>1</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="P37" s="14">
+        <v>10</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="T37" s="4">
+        <v>10</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V37" s="4">
+        <v>10</v>
+      </c>
+      <c r="W37" s="14">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>11703</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>200</v>
+      </c>
+      <c r="M38" s="16" t="str">
+        <f>B38&amp;"普攻"</f>
+        <v>项羽普攻</v>
+      </c>
+      <c r="N38" s="14">
+        <v>1</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="P38" s="17">
+        <v>10</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T38">
+        <v>10</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+      <c r="W38" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA38" s="14">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374CEE5F-FAC3-44C7-8E0F-F28EB00CA688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04463E-F2F6-4288-B137-6EFC3D6AB539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="339">
   <si>
     <t>sheet名</t>
   </si>
@@ -251,21 +251,12 @@
     <t>draw_gy_1102001</t>
   </si>
   <si>
-    <t>Map_luoshajiedao_1-1</t>
-  </si>
-  <si>
     <t>draw_xc_1102002</t>
   </si>
   <si>
     <t>draw_dw_1102003</t>
   </si>
   <si>
-    <t>进阶策略训练2</t>
-  </si>
-  <si>
-    <t>进阶策略训练3</t>
-  </si>
-  <si>
     <t>Our[1].jlr</t>
   </si>
   <si>
@@ -617,87 +608,533 @@
     <t>卡类型1-寄灵人2-守护灵</t>
   </si>
   <si>
-    <t>战斗夏玲</t>
-  </si>
-  <si>
-    <t>战斗夏玲技能1</t>
-  </si>
-  <si>
-    <t>战斗夏玲技能2</t>
-  </si>
-  <si>
     <t>李轩辕</t>
   </si>
   <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>许褚技能(教学)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>怒斩(教学)</t>
+  </si>
+  <si>
+    <t>黄昏之殇(教学)</t>
+  </si>
+  <si>
+    <t>head_sbls_1102013</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁断之刃(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>断罪(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_slm_1102014</t>
+  </si>
+  <si>
+    <t>head_xkl_1101004</t>
+  </si>
+  <si>
+    <t>head_xy_1102006</t>
+  </si>
+  <si>
+    <t>head_lxy_1102005</t>
+  </si>
+  <si>
+    <t>head_xc_1102002</t>
+  </si>
+  <si>
+    <t>水晶获取教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶削减教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用削减水晶能力拖延敌方召唤，快速击杀其寄灵人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能快速获取水晶来击败敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>李轩辕技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>断罪(教学)</t>
   </si>
   <si>
     <t>许褚</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>许褚技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背水一战(教学)</t>
+  </si>
+  <si>
+    <t>嗜血(教学)</t>
+  </si>
+  <si>
+    <t>当某个敌人威胁过大时，尝试集中某个角色行动优先击杀该敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中行动教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动顺序教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理安排行动顺序很重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张郃技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼魄(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动模式训练</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>避难与驱散</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼魄(教学)</t>
+  </si>
+  <si>
+    <t>禁断之刃(教学)</t>
+  </si>
+  <si>
+    <t>救赎(教学)</t>
+  </si>
+  <si>
+    <t>惩戒(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏之殇(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定技能可以斩杀处于不死状态中的项羽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑技能1(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒技能1(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅技能1(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑技能2(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎风吒技能2(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘羽禅技能2(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_cfcyb_1101001</t>
+  </si>
+  <si>
+    <t>head_dw_1102003</t>
+  </si>
+  <si>
+    <t>head_yfz_1101011</t>
+  </si>
+  <si>
+    <t>head_lyc_1101005</t>
+  </si>
+  <si>
+    <t>head_lftl_1102021</t>
+  </si>
+  <si>
+    <t>head_zh_1102010</t>
+  </si>
+  <si>
+    <t>head_tstn_1102007</t>
+  </si>
+  <si>
+    <t>head_fl_1102017</t>
+  </si>
+  <si>
+    <t>head_zf_1102011</t>
+  </si>
+  <si>
+    <t>head_xhd_1102012</t>
+  </si>
+  <si>
+    <t>李轩辕普攻(教学)</t>
+  </si>
+  <si>
+    <t>张郃普攻(教学)</t>
+  </si>
+  <si>
+    <t>塞伯罗斯普攻(教学)</t>
+  </si>
+  <si>
+    <t>增幅(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害抵抗(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合测试1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合测试2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>试着自己通关吧！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合训练</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出效率教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时需要先清理杂鱼，再集中高伤害技能攻击一个目标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门技能1(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>北落师门技能2(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>head_blsm_1101009</t>
   </si>
   <si>
-    <t>塞伯罗斯</t>
-  </si>
-  <si>
-    <t>怒斩(教学)</t>
-  </si>
-  <si>
-    <t>黄昏之殇(教学)</t>
-  </si>
-  <si>
-    <t>head_sbls_1102013</t>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>于禁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>北落师门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灵明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项昆仑</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>于禁技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>北落师门技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>北落师门技能2</t>
+    <t>夏侯惇技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuideTXT[1]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuideTXT[2]</t>
+  </si>
+  <si>
+    <t>GuideTXT[3]</t>
+  </si>
+  <si>
+    <t>引导文本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发追击技能意味着只使用1个行动位就释放了2个甚至3个技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-2</t>
+  </si>
+  <si>
+    <t>角色的&lt;color=#df4c4c&gt;普通攻击&lt;/color&gt;使用后可以立即获得水晶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;守护灵&lt;/color&gt;拥有远远强于&lt;color=#df4c4c&gt;寄灵人&lt;/color&gt;的战斗能力</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时战斗能力强的敌方角色需要被&lt;color=#df4c4c&gt;优先击杀&lt;/color&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲黑板了，&lt;color=#df4c4c&gt;本关没有提示！&lt;/color&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击达到&lt;color=#df4c4c&gt;一定次数&lt;/color&gt;才能打破敌人身上的护盾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在合适的时机&lt;color=#df4c4c&gt;削减敌人水晶&lt;/color&gt;，可以有效延缓敌人召唤守护灵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意观察敌人血量，合理安排&lt;color=#df4c4c&gt;技能释放顺序&lt;/color&gt;，会让通关变得更简单</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力的技能不要浪费在不重要的敌人上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;奥义&lt;/color&gt;通常能造成更高伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>避难状态中的敌人不受到任何直接伤害类的攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;合理使用&lt;/color&gt;技能可以获得&lt;color=#df4c4c&gt;额外的水晶&lt;/color&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过水晶诅咒机制可以获得大量水晶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶诅咒教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_cxl_1101002</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_zdcyb_1101007</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_lxg_1101014</t>
+  </si>
+  <si>
+    <t>新手战斗曹玄亮技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗曹玄亮技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗战斗曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗战斗曹焱兵技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗北落师门技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗塞伯罗斯技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗许褚技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗插槽1追击</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -705,225 +1142,41 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>项昆仑技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项昆仑技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>惩戒(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒斩(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁断之刃(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺魂(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>断罪(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_cfcyb_1101001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_yj_1102015</t>
-  </si>
-  <si>
-    <t>head_slm_1102014</t>
-  </si>
-  <si>
-    <t>head_xkl_1101004</t>
-  </si>
-  <si>
-    <t>head_xy_1102006</t>
-  </si>
-  <si>
-    <t>head_lxy_1102005</t>
-  </si>
-  <si>
-    <t>head_xc_1102002</t>
-  </si>
-  <si>
-    <t>head_zdxl_1101003</t>
-  </si>
-  <si>
-    <t>水晶获取教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶削减教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用削减水晶能力拖延敌方召唤，快速击杀其寄灵人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用技能快速获取水晶来击败敌人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘羽禅</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘羽禅技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘羽禅技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>断罪(教学)</t>
-  </si>
-  <si>
-    <t>许褚</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>背水一战(教学)</t>
-  </si>
-  <si>
-    <t>嗜血(教学)</t>
-  </si>
-  <si>
-    <t>当某个敌人威胁过大时，尝试集中某个角色行动优先击杀该敌人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中行动教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>追击教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩戴了追击技能的角色能打出更高的爆发</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动顺序教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>合理安排行动顺序很重要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>分散行动教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时需要先清理杂鱼，再集中攻击一个目标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶溢出教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过水晶溢出机制可以获得大量水晶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张郃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张郃技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼魄(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动模式训练</t>
+    <t>新手战斗阎风吒技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗项昆仑技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手战斗吕仙宫技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮普攻</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵普攻</t>
+  </si>
+  <si>
+    <t>北落师门普攻</t>
+  </si>
+  <si>
+    <t>塞伯罗斯普攻</t>
+  </si>
+  <si>
+    <t>许褚普攻</t>
+  </si>
+  <si>
+    <t>石灵明普攻</t>
+  </si>
+  <si>
+    <t>新手战斗插槽2追击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_gy_1102001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +1184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,16 +1263,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,13 +1319,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1114,28 +1354,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1165,11 +1385,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,27 +1425,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="13" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="好" xfId="13" builtinId="26"/>
     <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
@@ -1695,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1728,8 +1941,8 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
+      <c r="C2" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1767,8 +1980,8 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>270</v>
+      <c r="B5" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -1788,6 +2001,20 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1799,27 +2026,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="55.625" customWidth="1"/>
-    <col min="4" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="23.125" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
+    <col min="4" max="4" width="50.875" customWidth="1"/>
+    <col min="5" max="5" width="48.75" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="23.125" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1830,43 +2063,52 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1876,44 +2118,53 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
       </c>
       <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1924,478 +2175,640 @@
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1400001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="3">
+      <c r="J4" s="3">
         <v>1000</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>25</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>66</v>
+      <c r="N4" s="3">
+        <v>0</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R4" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1400002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+        <v>206</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J5" s="3">
         <v>1000</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
         <v>25</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="M5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="3">
         <v>1400001</v>
       </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R5" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1400003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="4">
+        <v>221</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="3">
+      <c r="J6" s="3">
         <v>1000</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="3">
+      <c r="L6" s="3">
         <v>25</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>66</v>
+      <c r="M6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R6" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1400004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="4">
+        <v>296</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="H7" s="12">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="3">
+      <c r="J7" s="3">
         <v>1000</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="3">
+      <c r="L7" s="3">
         <v>25</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>1400003</v>
       </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R7" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1400005</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="4">
+        <v>227</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>25</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="3">
         <v>1400004</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R8" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1400006</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="4">
+        <v>285</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="H9" s="12">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>25</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="3">
         <v>1400005</v>
       </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R9" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1400007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
+        <v>309</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>25</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="3">
-        <v>1400006</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>66</v>
+      <c r="N10" s="3">
+        <v>1400002</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R10" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1400008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="11">
+        <v>307</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
         <v>3</v>
       </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="12">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="3">
+      <c r="J11" s="3">
         <v>1000</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="3">
+      <c r="L11" s="3">
         <v>25</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1400007</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
       <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R11" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1400009</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="11">
+        <v>252</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="12">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>25</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="3">
         <v>1400008</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="O12" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R12" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1400010</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="3">
+        <v>25</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R13" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1400011</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12">
+        <v>11</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="3">
+        <v>25</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1400010</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="R14" s="3">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2421,94 +2834,94 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -2516,94 +2929,94 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="V2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="X2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AA2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AD2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AE2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="60" x14ac:dyDescent="0.2">
@@ -2611,94 +3024,94 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -2706,16 +3119,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
+        <v>11103</v>
+      </c>
+      <c r="C4" s="3">
+        <v>11104</v>
+      </c>
+      <c r="D4" s="3">
         <v>11101</v>
       </c>
-      <c r="C4" s="3">
-        <v>11102</v>
-      </c>
-      <c r="D4" s="3">
-        <v>11103</v>
-      </c>
       <c r="E4" s="3">
-        <v>11104</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -2742,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
@@ -2751,13 +3164,13 @@
         <v>3</v>
       </c>
       <c r="Q4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
         <v>1</v>
@@ -2804,32 +3217,32 @@
         <v>11201</v>
       </c>
       <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>11202</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>11203</v>
       </c>
-      <c r="E5" s="3">
+      <c r="K5" s="3">
         <v>11204</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>11205</v>
-      </c>
-      <c r="K5" s="3">
-        <v>11206</v>
-      </c>
       <c r="L5" s="3">
         <v>0</v>
       </c>
@@ -2837,58 +3250,58 @@
         <v>0</v>
       </c>
       <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
         <v>2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3</v>
+      </c>
+      <c r="S5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>2</v>
-      </c>
-      <c r="R5" s="3">
-        <v>2</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1</v>
-      </c>
       <c r="T5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U5" s="3">
         <v>2</v>
       </c>
       <c r="V5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="3">
         <v>3</v>
       </c>
       <c r="X5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -2908,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>11303</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -2926,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>11306</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -3036,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
         <v>0</v>
@@ -3045,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3">
         <v>0</v>
@@ -3098,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>11503</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -3116,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>11506</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -3217,31 +3630,31 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O9" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W9" s="3">
         <v>9</v>
@@ -3282,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>11702</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>11702</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -3318,56 +3731,528 @@
         <v>1</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>11802</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>11803</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11805</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>11806</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5</v>
+      </c>
+      <c r="S11" s="3">
+        <v>5</v>
+      </c>
+      <c r="T11" s="3">
+        <v>5</v>
+      </c>
+      <c r="U11" s="3">
+        <v>5</v>
+      </c>
+      <c r="V11" s="3">
+        <v>5</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="X10" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>9</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>9</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>9</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="F12" s="18"/>
+      <c r="B12" s="3">
+        <v>11901</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>11902</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11903</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>11904</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6</v>
+      </c>
+      <c r="P12" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6</v>
+      </c>
+      <c r="R12" s="3">
+        <v>6</v>
+      </c>
+      <c r="S12" s="3">
+        <v>6</v>
+      </c>
+      <c r="T12" s="3">
+        <v>6</v>
+      </c>
+      <c r="U12" s="3">
+        <v>6</v>
+      </c>
+      <c r="V12" s="3">
+        <v>6</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>12003</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>5</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>5</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>12101</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12102</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12103</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12104</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>12105</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6</v>
+      </c>
+      <c r="P14" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+      <c r="R14" s="3">
+        <v>6</v>
+      </c>
+      <c r="S14" s="3">
+        <v>6</v>
+      </c>
+      <c r="T14" s="3">
+        <v>6</v>
+      </c>
+      <c r="U14" s="3">
+        <v>6</v>
+      </c>
+      <c r="V14" s="3">
+        <v>6</v>
+      </c>
+      <c r="W14" s="3">
+        <v>6</v>
+      </c>
+      <c r="X14" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11004</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11002</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11005</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11003</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>11007</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11008</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>11009</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>3</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3377,13 +4262,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3391,15 +4276,15 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
+    <col min="13" max="13" width="22.875" customWidth="1"/>
     <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="20.125" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.875" customWidth="1"/>
-    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="12.375" customWidth="1"/>
-    <col min="21" max="21" width="15.625" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
     <col min="22" max="22" width="13.25" customWidth="1"/>
     <col min="26" max="26" width="21.875" customWidth="1"/>
   </cols>
@@ -3409,82 +4294,82 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -3492,79 +4377,79 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W2" t="s">
         <v>47</v>
       </c>
       <c r="X2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AA2" t="s">
         <v>47</v>
@@ -3575,82 +4460,82 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -3658,10 +4543,10 @@
         <v>11101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>188</v>
+        <v>286</v>
       </c>
       <c r="C4" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3691,20 +4576,20 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="str">
-        <f>B4&amp;"普攻"</f>
-        <v>战斗夏玲普攻</v>
+        <f>B4&amp;"普攻(教学)"</f>
+        <v>北落师门普攻(教学)</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="P4" s="4">
         <v>10</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="R4" s="4">
         <v>10</v>
@@ -3716,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="AA4" s="4">
         <v>1</v>
@@ -3727,7 +4612,7 @@
         <v>11102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4">
         <v>1000</v>
@@ -3736,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -3760,26 +4645,26 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="str">
-        <f t="shared" ref="M5:M23" si="0">B5&amp;"普攻"</f>
-        <v>李轩辕普攻</v>
+        <f t="shared" ref="M5:M39" si="0">B5&amp;"普攻(教学)"</f>
+        <v>李轩辕普攻(教学)</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="P5" s="4">
         <v>10</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="T5" s="4">
         <v>10</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="V5" s="4">
         <v>10</v>
@@ -3794,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="AA5" s="4">
         <v>2</v>
@@ -3805,10 +4690,10 @@
         <v>11103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C6" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3838,20 +4723,20 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f>B6&amp;"普攻"</f>
-        <v>常服曹焱兵普攻</v>
+        <f t="shared" si="0"/>
+        <v>常服曹焱兵普攻(教学)</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="P6" s="4">
         <v>10</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="R6" s="4">
         <v>10</v>
@@ -3863,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="AA6" s="4">
         <v>1</v>
@@ -3874,7 +4759,7 @@
         <v>11104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C7" s="4">
         <v>3000</v>
@@ -3883,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -3908,25 +4793,25 @@
       </c>
       <c r="M7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>许褚普攻</v>
+        <v>许褚普攻(教学)</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P7" s="4">
         <v>10</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="T7" s="4">
         <v>10</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V7" s="4">
         <v>10</v>
@@ -3941,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="AA7" s="4">
         <v>2</v>
@@ -3952,7 +4837,7 @@
         <v>11105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C8" s="4">
         <v>3000</v>
@@ -3961,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -3984,10 +4869,17 @@
       <c r="L8" s="4">
         <v>200</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>208</v>
+      <c r="M8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>塞伯罗斯普攻(教学)</v>
       </c>
       <c r="N8" s="4">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P8" s="4">
         <v>10</v>
       </c>
       <c r="W8" s="4">
@@ -3999,11 +4891,11 @@
       <c r="Y8" s="4">
         <v>5</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>199</v>
+      <c r="Z8" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="AA8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4011,10 +4903,10 @@
         <v>11201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C9" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -4045,21 +4937,15 @@
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>常服曹焱兵普攻</v>
+        <v>常服曹焱兵普攻(教学)</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="P9" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="R9" s="4">
         <v>10</v>
       </c>
       <c r="W9" s="4">
@@ -4068,8 +4954,8 @@
       <c r="Y9" s="4">
         <v>5</v>
       </c>
-      <c r="Z9" s="4" t="s">
-        <v>221</v>
+      <c r="Z9" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="AA9" s="4">
         <v>1</v>
@@ -4080,10 +4966,10 @@
         <v>11202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="C10" s="4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -4114,40 +5000,34 @@
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>于禁普攻</v>
+        <v>石灵明普攻(教学)</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="P10" s="4">
         <v>10</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="T10" s="4">
         <v>10</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="V10" s="4">
-        <v>10</v>
-      </c>
       <c r="W10" s="4">
         <v>1</v>
       </c>
       <c r="X10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="4">
         <v>5</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AA10" s="4">
         <v>2</v>
@@ -4158,7 +5038,7 @@
         <v>11203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C11" s="4">
         <v>1000</v>
@@ -4167,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -4192,19 +5072,19 @@
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>北落师门普攻</v>
+        <v>项昆仑普攻(教学)</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="P11" s="4">
         <v>10</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="R11" s="4">
         <v>10</v>
@@ -4216,7 +5096,7 @@
         <v>5</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AA11" s="4">
         <v>1</v>
@@ -4227,16 +5107,16 @@
         <v>11204</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C12" s="4">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -4261,25 +5141,25 @@
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>石灵明普攻</v>
+        <v>项羽普攻(教学)</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P12" s="4">
         <v>10</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="T12" s="4">
         <v>10</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="V12" s="4">
         <v>10</v>
@@ -4288,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="X12" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y12" s="4">
         <v>5</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="AA12" s="4">
         <v>2</v>
@@ -4302,19 +5182,19 @@
     </row>
     <row r="13" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>11205</v>
+        <v>11301</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C13" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -4339,51 +5219,57 @@
       </c>
       <c r="M13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>项昆仑普攻</v>
+        <v>典韦普攻(教学)</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P13" s="4">
         <v>10</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T13" s="4">
+        <v>10</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V13" s="4">
         <v>10</v>
       </c>
       <c r="W13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="4">
         <v>5</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="AA13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>11206</v>
+        <v>11302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="C14" s="4">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -4407,60 +5293,60 @@
         <v>200</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>项羽普攻</v>
+        <f t="shared" ref="M14" si="1">B14&amp;"普攻(教学)"</f>
+        <v>石灵明普攻(教学)</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="P14" s="4">
         <v>10</v>
       </c>
       <c r="S14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="T14" s="4">
+        <v>10</v>
+      </c>
+      <c r="U14" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="T14" s="4">
-        <v>10</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="V14" s="4">
         <v>10</v>
       </c>
       <c r="W14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="4">
         <v>5</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="AA14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>11301</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>11303</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="4">
         <v>2000</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="4">
         <v>5000</v>
       </c>
       <c r="F15" s="4">
@@ -4484,59 +5370,59 @@
       <c r="L15" s="4">
         <v>200</v>
       </c>
-      <c r="M15" s="16" t="str">
-        <f t="shared" ref="M15" si="1">B15&amp;"普攻"</f>
-        <v>典韦普攻</v>
-      </c>
-      <c r="N15" s="14">
-        <v>1</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="P15" s="17">
+      <c r="M15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>李轩辕普攻(教学)</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P15" s="4">
         <v>10</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T15">
+        <v>189</v>
+      </c>
+      <c r="T15" s="4">
         <v>10</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V15">
-        <v>10</v>
-      </c>
-      <c r="W15" s="14">
-        <v>2</v>
+        <v>250</v>
+      </c>
+      <c r="V15" s="4">
+        <v>10</v>
+      </c>
+      <c r="W15" s="4">
+        <v>3</v>
       </c>
       <c r="Y15" s="4">
         <v>5</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>11302</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16">
+        <v>201</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>11304</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="4">
         <v>2000</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="14">
-        <v>5000</v>
+      <c r="E16" s="4">
+        <v>1000</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -4559,59 +5445,53 @@
       <c r="L16" s="4">
         <v>200</v>
       </c>
-      <c r="M16" s="16" t="str">
-        <f>B16&amp;"普攻"</f>
-        <v>项羽普攻</v>
-      </c>
-      <c r="N16" s="14">
-        <v>1</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="P16" s="17">
-        <v>10</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T16">
-        <v>10</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V16">
-        <v>10</v>
-      </c>
-      <c r="W16" s="14">
-        <v>1</v>
+      <c r="M16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>阎风吒普攻(教学)</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="R16" s="4">
+        <v>10</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
         <v>5</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>11303</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17">
-        <v>2000</v>
+        <v>267</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>11305</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10000</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="14">
-        <v>5000</v>
+      <c r="E17" s="4">
+        <v>17000</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -4634,21 +5514,21 @@
       <c r="L17" s="4">
         <v>200</v>
       </c>
-      <c r="M17" s="16" t="str">
-        <f t="shared" ref="M17:M20" si="2">B17&amp;"普攻"</f>
-        <v>李轩辕普攻</v>
-      </c>
-      <c r="N17" s="14">
-        <v>1</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="P17" s="14">
+      <c r="M17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>塞伯罗斯普攻(教学)</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="4">
         <v>10</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="T17" s="4">
         <v>10</v>
@@ -4659,33 +5539,33 @@
       <c r="V17" s="4">
         <v>10</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="4">
         <v>3</v>
       </c>
       <c r="Y17" s="4">
         <v>5</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>11304</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18">
+        <v>191</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>11306</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="4">
         <v>2000</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="4">
         <v>1000</v>
       </c>
       <c r="F18" s="4">
@@ -4709,53 +5589,53 @@
       <c r="L18" s="4">
         <v>200</v>
       </c>
-      <c r="M18" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>阎风吒普攻</v>
-      </c>
-      <c r="N18" s="14">
-        <v>1</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="P18" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
-      <c r="W18" s="14">
+      <c r="M18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>刘羽禅普攻(教学)</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P18" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="R18" s="4">
+        <v>10</v>
+      </c>
+      <c r="W18" s="4">
         <v>0</v>
       </c>
       <c r="Y18" s="4">
         <v>5</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
-        <v>11305</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19">
-        <v>10000</v>
+        <v>268</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>11401</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2000</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="14">
-        <v>8000</v>
+      <c r="E19" s="4">
+        <v>5000</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -4778,59 +5658,59 @@
       <c r="L19" s="4">
         <v>200</v>
       </c>
-      <c r="M19" s="16" t="str">
-        <f>B19&amp;"普攻"</f>
-        <v>塞伯罗斯普攻</v>
-      </c>
-      <c r="N19" s="14">
-        <v>1</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="P19" s="17">
+      <c r="M19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>关羽普攻(教学)</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="P19" s="4">
         <v>10</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T19">
+        <v>219</v>
+      </c>
+      <c r="T19" s="4">
         <v>10</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V19">
-        <v>10</v>
-      </c>
-      <c r="W19" s="14">
-        <v>3</v>
+        <v>220</v>
+      </c>
+      <c r="V19" s="4">
+        <v>10</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
       </c>
       <c r="Y19" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
-        <v>11306</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20">
+        <v>338</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>11402</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="4">
         <v>2000</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="14">
-        <v>1000</v>
+      <c r="E20" s="4">
+        <v>5000</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -4853,53 +5733,59 @@
       <c r="L20" s="4">
         <v>200</v>
       </c>
-      <c r="M20" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>刘羽禅普攻</v>
-      </c>
-      <c r="N20" s="14">
-        <v>1</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="P20" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="R20">
-        <v>10</v>
-      </c>
-      <c r="W20" s="14">
-        <v>0</v>
+      <c r="M20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>许褚普攻(教学)</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="4">
+        <v>10</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T20" s="4">
+        <v>10</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V20" s="4">
+        <v>10</v>
+      </c>
+      <c r="W20" s="4">
+        <v>1</v>
       </c>
       <c r="Y20" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA20" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
-        <v>11401</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21">
-        <v>2000</v>
+        <v>202</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>11403</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5000</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="14">
-        <v>5000</v>
+      <c r="E21" s="4">
+        <v>1000</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -4922,58 +5808,52 @@
       <c r="L21" s="4">
         <v>200</v>
       </c>
-      <c r="M21" s="16" t="str">
-        <f>B21&amp;"普攻"</f>
-        <v>许褚普攻</v>
-      </c>
-      <c r="N21" s="14">
-        <v>1</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="P21" s="17">
+      <c r="M21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>塞伯罗斯普攻(教学)</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P21" s="4">
         <v>10</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="T21">
-        <v>10</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="V21">
-        <v>10</v>
-      </c>
-      <c r="W21" s="14">
+        <v>279</v>
+      </c>
+      <c r="T21" s="4">
+        <v>10</v>
+      </c>
+      <c r="W21" s="4">
         <v>1</v>
       </c>
       <c r="Y21" s="4">
         <v>5</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>11402</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22">
-        <v>2000</v>
+        <v>191</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>11501</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1500</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="4">
         <v>5000</v>
       </c>
       <c r="F22" s="4">
@@ -4997,59 +5877,47 @@
       <c r="L22" s="4">
         <v>200</v>
       </c>
-      <c r="M22" s="16" t="str">
-        <f>B22&amp;"普攻"</f>
-        <v>许褚普攻</v>
-      </c>
-      <c r="N22" s="14">
-        <v>1</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="P22" s="17">
-        <v>10</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T22">
-        <v>10</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V22">
-        <v>10</v>
-      </c>
-      <c r="W22" s="14">
-        <v>1</v>
+      <c r="M22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>烈风螳螂普攻(教学)</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P22" s="4">
+        <v>10</v>
+      </c>
+      <c r="W22" s="4">
+        <v>3</v>
       </c>
       <c r="Y22" s="4">
         <v>5</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
-        <v>11403</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23">
+        <v>269</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>11502</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
         <v>5000</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>12000</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -5072,58 +5940,61 @@
       <c r="L23" s="4">
         <v>200</v>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>塞伯罗斯普攻</v>
-      </c>
-      <c r="N23" s="14">
-        <v>1</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="P23" s="17">
+        <v>许褚普攻(教学)</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P23" s="4">
         <v>10</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T23">
+        <v>196</v>
+      </c>
+      <c r="T23" s="4">
         <v>10</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V23">
-        <v>10</v>
-      </c>
-      <c r="W23" s="14">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="V23" s="4">
+        <v>10</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1</v>
+      </c>
+      <c r="X23" s="4">
+        <v>4</v>
       </c>
       <c r="Y23" s="4">
         <v>5</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA23" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
-        <v>11501</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24">
-        <v>1000</v>
+        <v>202</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>11503</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="4">
+        <v>500</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="4">
         <v>5000</v>
       </c>
       <c r="F24" s="4">
@@ -5147,49 +6018,47 @@
       <c r="L24" s="4">
         <v>200</v>
       </c>
-      <c r="M24" s="16" t="str">
-        <f>B24&amp;"普攻"</f>
-        <v>烈风螳螂普攻</v>
-      </c>
-      <c r="N24" s="14">
-        <v>1</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="P24" s="17">
-        <v>10</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="W24" s="14">
-        <v>1</v>
+      <c r="M24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>李轩辕普攻(教学)</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P24" s="4">
+        <v>10</v>
+      </c>
+      <c r="W24" s="4">
+        <v>3</v>
       </c>
       <c r="Y24" s="4">
         <v>5</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA24" s="14">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
-        <v>11502</v>
+      <c r="A25" s="4">
+        <v>11504</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C25" s="4">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>5000</v>
+        <v>750</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -5213,61 +6082,52 @@
         <v>200</v>
       </c>
       <c r="M25" s="4" t="str">
-        <f t="shared" ref="M25" si="3">B25&amp;"普攻"</f>
-        <v>石灵明普攻</v>
+        <f t="shared" si="0"/>
+        <v>阎风吒普攻(教学)</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="P25" s="4">
         <v>10</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="T25" s="4">
-        <v>10</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="V25" s="4">
+      <c r="Q25" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="R25" s="4">
         <v>10</v>
       </c>
       <c r="W25" s="4">
-        <v>1</v>
-      </c>
-      <c r="X25" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="4">
         <v>5</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="AA25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
-        <v>11503</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26">
-        <v>500</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>11505</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10000</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="E26" s="14">
-        <v>5000</v>
+      <c r="E26" s="4">
+        <v>18000</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -5290,49 +6150,59 @@
       <c r="L26" s="4">
         <v>200</v>
       </c>
-      <c r="M26" s="16" t="str">
-        <f>B26&amp;"普攻"</f>
-        <v>李轩辕普攻</v>
-      </c>
-      <c r="N26" s="14">
-        <v>1</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="P26" s="17">
-        <v>10</v>
-      </c>
-      <c r="S26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="W26" s="14">
-        <v>1</v>
+      <c r="M26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>塞伯罗斯普攻(教学)</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P26" s="4">
+        <v>10</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T26" s="4">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V26" s="4">
+        <v>10</v>
+      </c>
+      <c r="W26" s="4">
+        <v>3</v>
       </c>
       <c r="Y26" s="4">
         <v>5</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA26" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
-        <v>11504</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27">
+        <v>191</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>11506</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="4">
         <v>2000</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="E27" s="14">
-        <v>1000</v>
+      <c r="E27" s="4">
+        <v>1500</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -5355,53 +6225,53 @@
       <c r="L27" s="4">
         <v>200</v>
       </c>
-      <c r="M27" s="16" t="str">
-        <f t="shared" ref="M27" si="4">B27&amp;"普攻"</f>
-        <v>阎风吒普攻</v>
-      </c>
-      <c r="N27" s="14">
-        <v>1</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="P27" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="R27">
-        <v>10</v>
-      </c>
-      <c r="W27" s="14">
+      <c r="M27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>刘羽禅普攻(教学)</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P27" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="R27" s="4">
+        <v>10</v>
+      </c>
+      <c r="W27" s="4">
         <v>0</v>
       </c>
       <c r="Y27" s="4">
         <v>5</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA27" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
-        <v>11505</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28">
-        <v>10000</v>
+        <v>268</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>11601</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1000</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="14">
-        <v>4500</v>
+      <c r="E28" s="4">
+        <v>5000</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -5424,59 +6294,47 @@
       <c r="L28" s="4">
         <v>200</v>
       </c>
-      <c r="M28" s="16" t="str">
-        <f>B28&amp;"普攻"</f>
-        <v>塞伯罗斯普攻</v>
-      </c>
-      <c r="N28" s="14">
-        <v>1</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="P28" s="17">
-        <v>10</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T28">
-        <v>10</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V28">
-        <v>10</v>
-      </c>
-      <c r="W28" s="14">
-        <v>3</v>
+      <c r="M28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>烈风螳螂普攻(教学)</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="4">
+        <v>10</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1</v>
       </c>
       <c r="Y28" s="4">
         <v>5</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA28" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14">
-        <v>11506</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29">
-        <v>2000</v>
+        <v>269</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>11602</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="4">
+        <v>500</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="E29" s="14">
-        <v>4500</v>
+      <c r="E29" s="4">
+        <v>5000</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -5499,52 +6357,46 @@
       <c r="L29" s="4">
         <v>200</v>
       </c>
-      <c r="M29" s="16" t="str">
-        <f t="shared" ref="M29" si="5">B29&amp;"普攻"</f>
-        <v>刘羽禅普攻</v>
-      </c>
-      <c r="N29" s="14">
-        <v>1</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="P29" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="R29">
-        <v>10</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0</v>
+      <c r="M29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>李轩辕普攻(教学)</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P29" s="4">
+        <v>10</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1</v>
       </c>
       <c r="Y29" s="4">
         <v>5</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14">
-        <v>11601</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30">
+        <v>201</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>11603</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="4">
         <v>1000</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="4">
         <v>5000</v>
       </c>
       <c r="F30" s="4">
@@ -5568,49 +6420,59 @@
       <c r="L30" s="4">
         <v>200</v>
       </c>
-      <c r="M30" s="16" t="str">
-        <f>B30&amp;"普攻"</f>
-        <v>烈风螳螂普攻</v>
-      </c>
-      <c r="N30" s="14">
-        <v>1</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="P30" s="17">
-        <v>10</v>
-      </c>
-      <c r="S30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="W30" s="14">
-        <v>1</v>
+      <c r="M30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>典韦普攻(教学)</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" s="4">
+        <v>10</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T30" s="4">
+        <v>10</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V30" s="4">
+        <v>10</v>
+      </c>
+      <c r="W30" s="4">
+        <v>2</v>
       </c>
       <c r="Y30" s="4">
         <v>5</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA30" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14">
-        <v>11602</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31">
+        <v>266</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>11604</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
         <v>500</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14">
-        <v>5000</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -5633,49 +6495,53 @@
       <c r="L31" s="4">
         <v>200</v>
       </c>
-      <c r="M31" s="16" t="str">
-        <f>B31&amp;"普攻"</f>
-        <v>李轩辕普攻</v>
-      </c>
-      <c r="N31" s="14">
-        <v>1</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="P31" s="17">
-        <v>10</v>
-      </c>
-      <c r="S31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="W31" s="14">
-        <v>1</v>
+      <c r="M31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>阎风吒普攻(教学)</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P31" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="R31" s="4">
+        <v>10</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
       </c>
       <c r="Y31" s="4">
         <v>5</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA31" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="14">
-        <v>11603</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32">
-        <v>1000</v>
+        <v>267</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>11605</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="4">
+        <v>10000</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
       </c>
-      <c r="E32" s="14">
-        <v>5000</v>
+      <c r="E32" s="4">
+        <v>6000</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -5698,59 +6564,59 @@
       <c r="L32" s="4">
         <v>200</v>
       </c>
-      <c r="M32" s="16" t="str">
-        <f t="shared" ref="M32" si="6">B32&amp;"普攻"</f>
-        <v>典韦普攻</v>
-      </c>
-      <c r="N32" s="14">
-        <v>1</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="P32" s="17">
+      <c r="M32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>塞伯罗斯普攻(教学)</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P32" s="4">
         <v>10</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T32">
+        <v>190</v>
+      </c>
+      <c r="T32" s="4">
         <v>10</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V32">
-        <v>10</v>
-      </c>
-      <c r="W32" s="14">
-        <v>2</v>
+        <v>216</v>
+      </c>
+      <c r="V32" s="4">
+        <v>10</v>
+      </c>
+      <c r="W32" s="4">
+        <v>3</v>
       </c>
       <c r="Y32" s="4">
         <v>5</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA32" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
-        <v>11604</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33">
+        <v>191</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>11606</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="4">
         <v>1000</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="14">
-        <v>1000</v>
+      <c r="E33" s="4">
+        <v>500</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -5773,53 +6639,53 @@
       <c r="L33" s="4">
         <v>200</v>
       </c>
-      <c r="M33" s="16" t="str">
-        <f t="shared" ref="M33" si="7">B33&amp;"普攻"</f>
-        <v>阎风吒普攻</v>
-      </c>
-      <c r="N33" s="14">
-        <v>1</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="P33" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="R33">
-        <v>10</v>
-      </c>
-      <c r="W33" s="14">
+      <c r="M33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>刘羽禅普攻(教学)</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="P33" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="R33" s="4">
+        <v>10</v>
+      </c>
+      <c r="W33" s="4">
         <v>0</v>
       </c>
       <c r="Y33" s="4">
         <v>5</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA33" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
-        <v>11605</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34">
-        <v>1000</v>
+        <v>268</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>11701</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2000</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
       </c>
-      <c r="E34" s="14">
-        <v>6000</v>
+      <c r="E34" s="4">
+        <v>5000</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -5842,59 +6708,59 @@
       <c r="L34" s="4">
         <v>200</v>
       </c>
-      <c r="M34" s="16" t="str">
-        <f>B34&amp;"普攻"</f>
-        <v>塞伯罗斯普攻</v>
-      </c>
-      <c r="N34" s="14">
-        <v>1</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="P34" s="17">
+      <c r="M34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>典韦普攻(教学)</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P34" s="4">
         <v>10</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T34">
+        <v>190</v>
+      </c>
+      <c r="T34" s="4">
         <v>10</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V34">
-        <v>10</v>
-      </c>
-      <c r="W34" s="14">
-        <v>3</v>
+        <v>216</v>
+      </c>
+      <c r="V34" s="4">
+        <v>10</v>
+      </c>
+      <c r="W34" s="4">
+        <v>2</v>
       </c>
       <c r="Y34" s="4">
         <v>5</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA34" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
-        <v>11606</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35">
+        <v>266</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>11702</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="4">
         <v>1000</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="E35" s="14">
-        <v>1000</v>
+      <c r="E35" s="4">
+        <v>5000</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -5917,53 +6783,59 @@
       <c r="L35" s="4">
         <v>200</v>
       </c>
-      <c r="M35" s="16" t="str">
-        <f t="shared" ref="M35:M36" si="8">B35&amp;"普攻"</f>
-        <v>刘羽禅普攻</v>
-      </c>
-      <c r="N35" s="14">
-        <v>1</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="P35" s="17">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="R35">
-        <v>10</v>
-      </c>
-      <c r="W35" s="14">
-        <v>0</v>
+      <c r="M35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>张郃普攻(教学)</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="P35" s="4">
+        <v>10</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="T35" s="4">
+        <v>10</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="V35" s="4">
+        <v>10</v>
+      </c>
+      <c r="W35" s="4">
+        <v>3</v>
       </c>
       <c r="Y35" s="4">
         <v>5</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA35" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>11701</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36">
-        <v>2000</v>
+        <v>270</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>11703</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="4">
+        <v>10000</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="14">
-        <v>5000</v>
+      <c r="E36" s="4">
+        <v>13000</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -5986,59 +6858,47 @@
       <c r="L36" s="4">
         <v>200</v>
       </c>
-      <c r="M36" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>典韦普攻</v>
-      </c>
-      <c r="N36" s="14">
-        <v>1</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="P36" s="17">
-        <v>10</v>
-      </c>
-      <c r="S36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T36">
-        <v>10</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V36">
-        <v>10</v>
-      </c>
-      <c r="W36" s="14">
+      <c r="M36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>塞伯罗斯普攻(教学)</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" s="4">
+        <v>10</v>
+      </c>
+      <c r="W36" s="4">
         <v>2</v>
       </c>
       <c r="Y36" s="4">
         <v>5</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA36" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
-        <v>11702</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37">
-        <v>1000</v>
+        <v>191</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>11801</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2000</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
       </c>
-      <c r="E37" s="14">
-        <v>5000</v>
+      <c r="E37" s="4">
+        <v>6000</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -6061,58 +6921,61 @@
       <c r="L37" s="4">
         <v>200</v>
       </c>
-      <c r="M37" s="16" t="str">
-        <f t="shared" ref="M37" si="9">B37&amp;"普攻"</f>
-        <v>张郃普攻</v>
-      </c>
-      <c r="N37" s="14">
-        <v>1</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="P37" s="14">
+      <c r="M37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>天使缇娜普攻(教学)</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P37" s="4">
         <v>10</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="T37" s="4">
         <v>10</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="V37" s="4">
         <v>10</v>
       </c>
-      <c r="W37" s="14">
-        <v>3</v>
+      <c r="W37" s="4">
+        <v>1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>4</v>
       </c>
       <c r="Y37" s="4">
         <v>5</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA37" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
-        <v>11703</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38">
-        <v>10000</v>
+        <v>271</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>11802</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2000</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="4">
         <v>6000</v>
       </c>
       <c r="F38" s="4">
@@ -6136,47 +6999,1786 @@
       <c r="L38" s="4">
         <v>200</v>
       </c>
-      <c r="M38" s="16" t="str">
-        <f>B38&amp;"普攻"</f>
-        <v>项羽普攻</v>
-      </c>
-      <c r="N38" s="14">
-        <v>1</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="P38" s="17">
+      <c r="M38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>李轩辕普攻(教学)</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P38" s="4">
         <v>10</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T38">
+        <v>244</v>
+      </c>
+      <c r="T38" s="4">
         <v>10</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="V38">
-        <v>10</v>
-      </c>
-      <c r="W38" s="14">
-        <v>1</v>
+        <v>246</v>
+      </c>
+      <c r="V38" s="4">
+        <v>10</v>
+      </c>
+      <c r="W38" s="4">
+        <v>3</v>
+      </c>
+      <c r="X38" s="4">
+        <v>4</v>
       </c>
       <c r="Y38" s="4">
         <v>5</v>
       </c>
       <c r="Z38" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>11803</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>200</v>
+      </c>
+      <c r="M39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>典韦普攻(教学)</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P39" s="4">
+        <v>10</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T39" s="4">
+        <v>10</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V39" s="4">
+        <v>10</v>
+      </c>
+      <c r="W39" s="4">
+        <v>2</v>
+      </c>
+      <c r="X39" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>11804</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9000</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>200</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="N40" s="4">
+        <v>10</v>
+      </c>
+      <c r="W40" s="4">
+        <v>3</v>
+      </c>
+      <c r="X40" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>11805</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>9000</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>200</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10</v>
+      </c>
+      <c r="W41" s="4">
+        <v>2</v>
+      </c>
+      <c r="X41" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>11806</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>9000</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>200</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="N42" s="4">
+        <v>10</v>
+      </c>
+      <c r="W42" s="4">
+        <v>3</v>
+      </c>
+      <c r="X42" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>11901</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>200</v>
+      </c>
+      <c r="M43" s="4" t="str">
+        <f t="shared" ref="M43:M50" si="2">B43&amp;"普攻(教学)"</f>
+        <v>典韦普攻(教学)</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P43" s="4">
+        <v>10</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="T43" s="4">
+        <v>10</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V43" s="4">
+        <v>10</v>
+      </c>
+      <c r="W43" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>11902</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>200</v>
+      </c>
+      <c r="M44" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>烈风螳螂普攻(教学)</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1</v>
+      </c>
+      <c r="O44" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AA38" s="14">
+      <c r="P44" s="4">
+        <v>10</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T44" s="4">
+        <v>10</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V44" s="4">
+        <v>10</v>
+      </c>
+      <c r="W44" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>11903</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>200</v>
+      </c>
+      <c r="M45" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>项羽普攻(教学)</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P45" s="4">
+        <v>10</v>
+      </c>
+      <c r="W45" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
+        <v>11904</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>3500</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <v>200</v>
+      </c>
+      <c r="M46" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>夏侯惇普攻(教学)</v>
+      </c>
+      <c r="N46" s="16">
+        <v>1</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="P46" s="16">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="T46" s="4">
+        <v>10</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="V46" s="4">
+        <v>10</v>
+      </c>
+      <c r="W46" s="4">
+        <v>3</v>
+      </c>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>12001</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>200</v>
+      </c>
+      <c r="M47" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>典韦普攻(教学)</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P47" s="4">
+        <v>10</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T47" s="4">
+        <v>10</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="V47" s="4">
+        <v>10</v>
+      </c>
+      <c r="W47" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>12002</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>200</v>
+      </c>
+      <c r="M48" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>张郃普攻(教学)</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="P48" s="4">
+        <v>10</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="T48" s="4">
+        <v>10</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="V48" s="4">
+        <v>10</v>
+      </c>
+      <c r="W48" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>12003</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>200</v>
+      </c>
+      <c r="M49" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>塞伯罗斯普攻(教学)</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P49" s="4">
+        <v>10</v>
+      </c>
+      <c r="W49" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>12101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>200</v>
+      </c>
+      <c r="M50" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>典韦普攻(教学)</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="P50" s="4">
+        <v>10</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T50" s="4">
+        <v>10</v>
+      </c>
+      <c r="W50" s="4">
+        <v>2</v>
+      </c>
+      <c r="X50" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>12102</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>200</v>
+      </c>
+      <c r="M51" s="4" t="str">
+        <f>B51&amp;"普攻(教学)"</f>
+        <v>飞廉普攻(教学)</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="P51" s="4">
+        <v>10</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="T51" s="4">
+        <v>10</v>
+      </c>
+      <c r="W51" s="4">
+        <v>3</v>
+      </c>
+      <c r="X51" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z51" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>12103</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>200</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="N52" s="4">
+        <v>1</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="P52" s="4">
+        <v>10</v>
+      </c>
+      <c r="W52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>12104</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5400</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>200</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="P53" s="4">
+        <v>10</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="T53" s="4">
+        <v>10</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="V53" s="4">
+        <v>10</v>
+      </c>
+      <c r="W53" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>12105</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>21600</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>200</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P54" s="4">
+        <v>10</v>
+      </c>
+      <c r="W54" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>11001</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>200</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P55" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="R55" s="3">
+        <v>1</v>
+      </c>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3">
+        <v>999</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>11002</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17">
+        <v>5000</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0</v>
+      </c>
+      <c r="G56" s="17">
+        <v>0</v>
+      </c>
+      <c r="H56" s="17">
+        <v>0</v>
+      </c>
+      <c r="I56" s="17">
+        <v>0</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0</v>
+      </c>
+      <c r="K56" s="17">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17">
+        <v>200</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="P56" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="R56" s="17">
+        <v>1</v>
+      </c>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17">
+        <v>0</v>
+      </c>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17">
+        <v>999</v>
+      </c>
+      <c r="Z56" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA56" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>11003</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
+        <v>10000</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0</v>
+      </c>
+      <c r="I57" s="17">
+        <v>0</v>
+      </c>
+      <c r="J57" s="17">
+        <v>0</v>
+      </c>
+      <c r="K57" s="17">
+        <v>0</v>
+      </c>
+      <c r="L57" s="17">
+        <v>200</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P57" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17">
+        <v>0</v>
+      </c>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17">
+        <v>999</v>
+      </c>
+      <c r="Z57" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA57" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>11004</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="P58" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1</v>
+      </c>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3">
+        <v>2</v>
+      </c>
+      <c r="X58" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>999</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>11005</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1</v>
+      </c>
+      <c r="X59" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>999</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>11006</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3">
+        <v>3</v>
+      </c>
+      <c r="X60" s="3">
+        <v>6</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>999</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>11007</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3">
+        <v>1</v>
+      </c>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3">
+        <v>999</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>11008</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3">
+        <v>2</v>
+      </c>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3">
+        <v>999</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>11009</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>200</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3">
+        <v>3</v>
+      </c>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3">
+        <v>999</v>
+      </c>
+      <c r="Z63" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA63" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04463E-F2F6-4288-B137-6EFC3D6AB539}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456CCF8-1B7F-45A4-96FE-B8294B0AC71B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="342">
   <si>
     <t>sheet名</t>
   </si>
@@ -518,9 +518,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>card_id:&lt;&gt;</t>
-  </si>
-  <si>
     <t>float:e&lt;&gt;</t>
   </si>
   <si>
@@ -617,9 +614,6 @@
     <t>许褚技能(教学)</t>
   </si>
   <si>
-    <t>塞伯罗斯</t>
-  </si>
-  <si>
     <t>怒斩(教学)</t>
   </si>
   <si>
@@ -704,10 +698,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>塞伯罗斯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>李轩辕技能(教学)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -793,10 +783,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>塞伯罗斯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>天使缇娜</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -940,15 +926,6 @@
     <t>head_xhd_1102012</t>
   </si>
   <si>
-    <t>李轩辕普攻(教学)</t>
-  </si>
-  <si>
-    <t>张郃普攻(教学)</t>
-  </si>
-  <si>
-    <t>塞伯罗斯普攻(教学)</t>
-  </si>
-  <si>
     <t>增幅(教学)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1138,10 +1115,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>石灵明技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>新手战斗阎风吒技能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1154,30 +1127,77 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>曹玄亮普攻</t>
-  </si>
-  <si>
-    <t>战斗曹焱兵普攻</t>
-  </si>
-  <si>
-    <t>北落师门普攻</t>
-  </si>
-  <si>
-    <t>塞伯罗斯普攻</t>
-  </si>
-  <si>
-    <t>许褚普攻</t>
-  </si>
-  <si>
-    <t>石灵明普攻</t>
-  </si>
-  <si>
     <t>新手战斗插槽2追击</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>head_gy_1102001</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽17</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+  </si>
+  <si>
+    <t>砍刀鬼兵的普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的水晶普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_jsgb2_1201002</t>
+  </si>
+  <si>
+    <t>鬼将军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军普通伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军超级伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_gjj1_1201004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯洛斯</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1406,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1430,10 +1450,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
@@ -1942,7 +1958,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1981,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -2009,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -2063,13 +2079,13 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -2119,13 +2135,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2175,13 +2191,13 @@
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>52</v>
@@ -2225,16 +2241,16 @@
         <v>1400001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -2268,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R4" s="3">
         <v>51</v>
@@ -2279,13 +2295,13 @@
         <v>1400002</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2320,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R5" s="3">
         <v>51</v>
@@ -2331,13 +2347,13 @@
         <v>1400003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2372,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R6" s="3">
         <v>51</v>
@@ -2383,13 +2399,13 @@
         <v>1400004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -2424,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R7" s="3">
         <v>51</v>
@@ -2435,13 +2451,13 @@
         <v>1400005</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2476,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R8" s="3">
         <v>51</v>
@@ -2487,13 +2503,13 @@
         <v>1400006</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2528,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R9" s="3">
         <v>51</v>
@@ -2539,16 +2555,16 @@
         <v>1400007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="4">
@@ -2582,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R10" s="3">
         <v>51</v>
@@ -2593,13 +2609,13 @@
         <v>1400008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2634,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R11" s="3">
         <v>51</v>
@@ -2645,13 +2661,13 @@
         <v>1400009</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2686,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R12" s="3">
         <v>51</v>
@@ -2697,13 +2713,13 @@
         <v>1400010</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2738,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R13" s="3">
         <v>51</v>
@@ -2749,13 +2765,13 @@
         <v>1400011</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2790,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="R14" s="3">
         <v>51</v>
@@ -2805,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4254,6 +4270,196 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20101</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>20102</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>20103</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>20104</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>3</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>4</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>20201</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20202</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20203</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>20204</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20205</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>20206</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4262,13 +4468,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4376,65 +4582,65 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" t="s">
-        <v>157</v>
       </c>
       <c r="N2" t="s">
         <v>98</v>
       </c>
       <c r="O2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P2" t="s">
         <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R2" t="s">
         <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T2" t="s">
         <v>98</v>
       </c>
       <c r="U2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V2" t="s">
         <v>98</v>
@@ -4449,7 +4655,7 @@
         <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA2" t="s">
         <v>47</v>
@@ -4460,82 +4666,82 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4543,7 +4749,7 @@
         <v>11101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C4" s="4">
         <v>500</v>
@@ -4575,23 +4781,16 @@
       <c r="L4" s="4">
         <v>200</v>
       </c>
-      <c r="M4" s="4" t="str">
-        <f>B4&amp;"普攻(教学)"</f>
-        <v>北落师门普攻(教学)</v>
+      <c r="M4" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P4" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="R4" s="4">
         <v>10</v>
       </c>
       <c r="W4" s="4">
@@ -4601,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AA4" s="4">
         <v>1</v>
@@ -4612,7 +4811,7 @@
         <v>11102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="4">
         <v>1000</v>
@@ -4644,27 +4843,20 @@
       <c r="L5" s="4">
         <v>200</v>
       </c>
-      <c r="M5" s="4" t="str">
-        <f t="shared" ref="M5:M39" si="0">B5&amp;"普攻(教学)"</f>
-        <v>李轩辕普攻(教学)</v>
+      <c r="M5" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P5" s="4">
         <v>10</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T5" s="4">
         <v>10</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V5" s="4">
         <v>10</v>
@@ -4679,7 +4871,7 @@
         <v>5</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA5" s="4">
         <v>2</v>
@@ -4690,7 +4882,7 @@
         <v>11103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="4">
         <v>500</v>
@@ -4722,12 +4914,11 @@
       <c r="L6" s="4">
         <v>200</v>
       </c>
-      <c r="M6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>常服曹焱兵普攻(教学)</v>
+      <c r="M6" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>256</v>
@@ -4735,12 +4926,6 @@
       <c r="P6" s="4">
         <v>10</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="R6" s="4">
-        <v>10</v>
-      </c>
       <c r="W6" s="4">
         <v>0</v>
       </c>
@@ -4748,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AA6" s="4">
         <v>1</v>
@@ -4759,7 +4944,7 @@
         <v>11104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="4">
         <v>3000</v>
@@ -4791,27 +4976,20 @@
       <c r="L7" s="4">
         <v>200</v>
       </c>
-      <c r="M7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>许褚普攻(教学)</v>
+      <c r="M7" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="P7" s="4">
         <v>10</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T7" s="4">
         <v>10</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V7" s="4">
         <v>10</v>
@@ -4826,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA7" s="4">
         <v>2</v>
@@ -4837,7 +5015,7 @@
         <v>11105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>341</v>
       </c>
       <c r="C8" s="4">
         <v>3000</v>
@@ -4869,17 +5047,10 @@
       <c r="L8" s="4">
         <v>200</v>
       </c>
-      <c r="M8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>塞伯罗斯普攻(教学)</v>
+      <c r="M8" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N8" s="4">
-        <v>10</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" s="4">
         <v>10</v>
       </c>
       <c r="W8" s="4">
@@ -4892,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA8" s="4">
         <v>2</v>
@@ -4903,7 +5074,7 @@
         <v>11201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="4">
         <v>500</v>
@@ -4935,17 +5106,10 @@
       <c r="L9" s="4">
         <v>200</v>
       </c>
-      <c r="M9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>常服曹焱兵普攻(教学)</v>
+      <c r="M9" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P9" s="4">
         <v>10</v>
       </c>
       <c r="W9" s="4">
@@ -4955,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AA9" s="4">
         <v>1</v>
@@ -4966,7 +5130,7 @@
         <v>11202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C10" s="4">
         <v>2000</v>
@@ -4998,21 +5162,14 @@
       <c r="L10" s="4">
         <v>200</v>
       </c>
-      <c r="M10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>石灵明普攻(教学)</v>
+      <c r="M10" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P10" s="4">
         <v>10</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T10" s="4">
         <v>10</v>
@@ -5027,7 +5184,7 @@
         <v>5</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA10" s="4">
         <v>2</v>
@@ -5038,7 +5195,7 @@
         <v>11203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4">
         <v>1000</v>
@@ -5070,12 +5227,11 @@
       <c r="L11" s="4">
         <v>200</v>
       </c>
-      <c r="M11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>项昆仑普攻(教学)</v>
+      <c r="M11" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="N11" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>257</v>
@@ -5083,12 +5239,6 @@
       <c r="P11" s="4">
         <v>10</v>
       </c>
-      <c r="Q11" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="R11" s="4">
-        <v>10</v>
-      </c>
       <c r="W11" s="4">
         <v>0</v>
       </c>
@@ -5096,7 +5246,7 @@
         <v>5</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA11" s="4">
         <v>1</v>
@@ -5107,7 +5257,7 @@
         <v>11204</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12" s="4">
         <v>10000</v>
@@ -5139,27 +5289,20 @@
       <c r="L12" s="4">
         <v>200</v>
       </c>
-      <c r="M12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>项羽普攻(教学)</v>
+      <c r="M12" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="P12" s="4">
-        <v>10</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="T12" s="4">
         <v>10</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V12" s="4">
         <v>10</v>
@@ -5174,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA12" s="4">
         <v>2</v>
@@ -5185,7 +5328,7 @@
         <v>11301</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" s="4">
         <v>500</v>
@@ -5217,27 +5360,20 @@
       <c r="L13" s="4">
         <v>200</v>
       </c>
-      <c r="M13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>典韦普攻(教学)</v>
+      <c r="M13" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P13" s="4">
         <v>10</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T13" s="4">
         <v>10</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V13" s="4">
         <v>10</v>
@@ -5249,7 +5385,7 @@
         <v>5</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA13" s="4">
         <v>2</v>
@@ -5260,7 +5396,7 @@
         <v>11302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C14" s="4">
         <v>2000</v>
@@ -5292,27 +5428,20 @@
       <c r="L14" s="4">
         <v>200</v>
       </c>
-      <c r="M14" s="4" t="str">
-        <f t="shared" ref="M14" si="1">B14&amp;"普攻(教学)"</f>
-        <v>石灵明普攻(教学)</v>
+      <c r="M14" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P14" s="4">
         <v>10</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T14" s="4">
         <v>10</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V14" s="4">
         <v>10</v>
@@ -5327,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AA14" s="4">
         <v>2</v>
@@ -5338,7 +5467,7 @@
         <v>11303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="4">
         <v>2000</v>
@@ -5370,27 +5499,20 @@
       <c r="L15" s="4">
         <v>200</v>
       </c>
-      <c r="M15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>李轩辕普攻(教学)</v>
+      <c r="M15" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="P15" s="4">
         <v>10</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T15" s="4">
         <v>10</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V15" s="4">
         <v>10</v>
@@ -5402,7 +5524,7 @@
         <v>5</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA15" s="4">
         <v>2</v>
@@ -5413,7 +5535,7 @@
         <v>11304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16" s="4">
         <v>2000</v>
@@ -5445,12 +5567,11 @@
       <c r="L16" s="4">
         <v>200</v>
       </c>
-      <c r="M16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>阎风吒普攻(教学)</v>
+      <c r="M16" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>258</v>
@@ -5458,12 +5579,6 @@
       <c r="P16" s="4">
         <v>10</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="R16" s="4">
-        <v>10</v>
-      </c>
       <c r="W16" s="4">
         <v>0</v>
       </c>
@@ -5471,7 +5586,7 @@
         <v>5</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA16" s="4">
         <v>1</v>
@@ -5482,7 +5597,7 @@
         <v>11305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="C17" s="4">
         <v>10000</v>
@@ -5514,27 +5629,20 @@
       <c r="L17" s="4">
         <v>200</v>
       </c>
-      <c r="M17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>塞伯罗斯普攻(教学)</v>
+      <c r="M17" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N17" s="4">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P17" s="4">
         <v>10</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T17" s="4">
         <v>10</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V17" s="4">
         <v>10</v>
@@ -5546,7 +5654,7 @@
         <v>5</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA17" s="4">
         <v>2</v>
@@ -5557,7 +5665,7 @@
         <v>11306</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" s="4">
         <v>2000</v>
@@ -5589,12 +5697,11 @@
       <c r="L18" s="4">
         <v>200</v>
       </c>
-      <c r="M18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刘羽禅普攻(教学)</v>
+      <c r="M18" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="N18" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>259</v>
@@ -5602,12 +5709,6 @@
       <c r="P18" s="4">
         <v>10</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="R18" s="4">
-        <v>10</v>
-      </c>
       <c r="W18" s="4">
         <v>0</v>
       </c>
@@ -5615,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA18" s="4">
         <v>1</v>
@@ -5626,7 +5727,7 @@
         <v>11401</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C19" s="4">
         <v>2000</v>
@@ -5658,27 +5759,20 @@
       <c r="L19" s="4">
         <v>200</v>
       </c>
-      <c r="M19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>关羽普攻(教学)</v>
+      <c r="M19" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="N19" s="4">
-        <v>1</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="P19" s="4">
         <v>10</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="T19" s="4">
         <v>10</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V19" s="4">
         <v>10</v>
@@ -5690,7 +5784,7 @@
         <v>8</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AA19" s="4">
         <v>2</v>
@@ -5701,7 +5795,7 @@
         <v>11402</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C20" s="4">
         <v>2000</v>
@@ -5733,27 +5827,20 @@
       <c r="L20" s="4">
         <v>200</v>
       </c>
-      <c r="M20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>许褚普攻(教学)</v>
+      <c r="M20" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="4">
         <v>10</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T20" s="4">
         <v>10</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V20" s="4">
         <v>10</v>
@@ -5765,7 +5852,7 @@
         <v>6</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA20" s="4">
         <v>2</v>
@@ -5776,7 +5863,7 @@
         <v>11403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="C21" s="4">
         <v>5000</v>
@@ -5808,21 +5895,14 @@
       <c r="L21" s="4">
         <v>200</v>
       </c>
-      <c r="M21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>塞伯罗斯普攻(教学)</v>
+      <c r="M21" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P21" s="4">
         <v>10</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="T21" s="4">
         <v>10</v>
@@ -5834,7 +5914,7 @@
         <v>5</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA21" s="4">
         <v>2</v>
@@ -5845,7 +5925,7 @@
         <v>11501</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="4">
         <v>1500</v>
@@ -5877,17 +5957,10 @@
       <c r="L22" s="4">
         <v>200</v>
       </c>
-      <c r="M22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>烈风螳螂普攻(教学)</v>
+      <c r="M22" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="P22" s="4">
         <v>10</v>
       </c>
       <c r="W22" s="4">
@@ -5897,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AA22" s="4">
         <v>2</v>
@@ -5908,7 +5981,7 @@
         <v>11502</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="4">
         <v>2000</v>
@@ -5940,27 +6013,20 @@
       <c r="L23" s="4">
         <v>200</v>
       </c>
-      <c r="M23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>许褚普攻(教学)</v>
+      <c r="M23" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="N23" s="4">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="P23" s="4">
         <v>10</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="T23" s="4">
         <v>10</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V23" s="4">
         <v>10</v>
@@ -5975,7 +6041,7 @@
         <v>5</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA23" s="4">
         <v>2</v>
@@ -5986,7 +6052,7 @@
         <v>11503</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="4">
         <v>500</v>
@@ -6018,17 +6084,10 @@
       <c r="L24" s="4">
         <v>200</v>
       </c>
-      <c r="M24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>李轩辕普攻(教学)</v>
+      <c r="M24" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="P24" s="4">
         <v>10</v>
       </c>
       <c r="W24" s="4">
@@ -6038,7 +6097,7 @@
         <v>5</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA24" s="4">
         <v>2</v>
@@ -6049,7 +6108,7 @@
         <v>11504</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C25" s="4">
         <v>2000</v>
@@ -6081,12 +6140,11 @@
       <c r="L25" s="4">
         <v>200</v>
       </c>
-      <c r="M25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>阎风吒普攻(教学)</v>
+      <c r="M25" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="N25" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>258</v>
@@ -6094,12 +6152,6 @@
       <c r="P25" s="4">
         <v>10</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="R25" s="4">
-        <v>10</v>
-      </c>
       <c r="W25" s="4">
         <v>0</v>
       </c>
@@ -6107,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA25" s="4">
         <v>1</v>
@@ -6118,7 +6170,7 @@
         <v>11505</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="C26" s="4">
         <v>10000</v>
@@ -6150,27 +6202,20 @@
       <c r="L26" s="4">
         <v>200</v>
       </c>
-      <c r="M26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>塞伯罗斯普攻(教学)</v>
+      <c r="M26" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P26" s="4">
         <v>10</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T26" s="4">
         <v>10</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V26" s="4">
         <v>10</v>
@@ -6182,7 +6227,7 @@
         <v>5</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA26" s="4">
         <v>2</v>
@@ -6193,7 +6238,7 @@
         <v>11506</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C27" s="4">
         <v>2000</v>
@@ -6225,12 +6270,11 @@
       <c r="L27" s="4">
         <v>200</v>
       </c>
-      <c r="M27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刘羽禅普攻(教学)</v>
+      <c r="M27" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="N27" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>259</v>
@@ -6238,12 +6282,6 @@
       <c r="P27" s="4">
         <v>10</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="R27" s="4">
-        <v>10</v>
-      </c>
       <c r="W27" s="4">
         <v>0</v>
       </c>
@@ -6251,7 +6289,7 @@
         <v>5</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA27" s="4">
         <v>1</v>
@@ -6262,7 +6300,7 @@
         <v>11601</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C28" s="4">
         <v>1000</v>
@@ -6294,17 +6332,10 @@
       <c r="L28" s="4">
         <v>200</v>
       </c>
-      <c r="M28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>烈风螳螂普攻(教学)</v>
+      <c r="M28" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="N28" s="4">
-        <v>1</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="P28" s="4">
         <v>10</v>
       </c>
       <c r="W28" s="4">
@@ -6314,7 +6345,7 @@
         <v>5</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AA28" s="4">
         <v>2</v>
@@ -6325,7 +6356,7 @@
         <v>11602</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C29" s="4">
         <v>500</v>
@@ -6357,17 +6388,10 @@
       <c r="L29" s="4">
         <v>200</v>
       </c>
-      <c r="M29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>李轩辕普攻(教学)</v>
+      <c r="M29" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="P29" s="4">
         <v>10</v>
       </c>
       <c r="W29" s="4">
@@ -6377,7 +6401,7 @@
         <v>5</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA29" s="4">
         <v>2</v>
@@ -6388,7 +6412,7 @@
         <v>11603</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C30" s="4">
         <v>1000</v>
@@ -6420,27 +6444,20 @@
       <c r="L30" s="4">
         <v>200</v>
       </c>
-      <c r="M30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>典韦普攻(教学)</v>
+      <c r="M30" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P30" s="4">
         <v>10</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T30" s="4">
         <v>10</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V30" s="4">
         <v>10</v>
@@ -6452,7 +6469,7 @@
         <v>5</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA30" s="4">
         <v>2</v>
@@ -6463,7 +6480,7 @@
         <v>11604</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C31" s="4">
         <v>1000</v>
@@ -6495,12 +6512,11 @@
       <c r="L31" s="4">
         <v>200</v>
       </c>
-      <c r="M31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>阎风吒普攻(教学)</v>
+      <c r="M31" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="N31" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>258</v>
@@ -6508,12 +6524,6 @@
       <c r="P31" s="4">
         <v>10</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="R31" s="4">
-        <v>10</v>
-      </c>
       <c r="W31" s="4">
         <v>0</v>
       </c>
@@ -6521,7 +6531,7 @@
         <v>5</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA31" s="4">
         <v>1</v>
@@ -6532,7 +6542,7 @@
         <v>11605</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="C32" s="4">
         <v>10000</v>
@@ -6564,27 +6574,20 @@
       <c r="L32" s="4">
         <v>200</v>
       </c>
-      <c r="M32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>塞伯罗斯普攻(教学)</v>
+      <c r="M32" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N32" s="4">
-        <v>1</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P32" s="4">
         <v>10</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T32" s="4">
         <v>10</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V32" s="4">
         <v>10</v>
@@ -6596,7 +6599,7 @@
         <v>5</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA32" s="4">
         <v>2</v>
@@ -6607,7 +6610,7 @@
         <v>11606</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33" s="4">
         <v>1000</v>
@@ -6639,12 +6642,11 @@
       <c r="L33" s="4">
         <v>200</v>
       </c>
-      <c r="M33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>刘羽禅普攻(教学)</v>
+      <c r="M33" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="N33" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>259</v>
@@ -6652,12 +6654,6 @@
       <c r="P33" s="4">
         <v>10</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="R33" s="4">
-        <v>10</v>
-      </c>
       <c r="W33" s="4">
         <v>0</v>
       </c>
@@ -6665,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA33" s="4">
         <v>1</v>
@@ -6676,7 +6672,7 @@
         <v>11701</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C34" s="4">
         <v>2000</v>
@@ -6708,27 +6704,20 @@
       <c r="L34" s="4">
         <v>200</v>
       </c>
-      <c r="M34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>典韦普攻(教学)</v>
+      <c r="M34" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P34" s="4">
         <v>10</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T34" s="4">
         <v>10</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V34" s="4">
         <v>10</v>
@@ -6740,7 +6729,7 @@
         <v>5</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA34" s="4">
         <v>2</v>
@@ -6751,7 +6740,7 @@
         <v>11702</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C35" s="4">
         <v>1000</v>
@@ -6783,27 +6772,20 @@
       <c r="L35" s="4">
         <v>200</v>
       </c>
-      <c r="M35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>张郃普攻(教学)</v>
+      <c r="M35" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="N35" s="4">
-        <v>1</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="P35" s="4">
         <v>10</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T35" s="4">
         <v>10</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V35" s="4">
         <v>10</v>
@@ -6815,7 +6797,7 @@
         <v>5</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AA35" s="4">
         <v>2</v>
@@ -6826,7 +6808,7 @@
         <v>11703</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="C36" s="4">
         <v>10000</v>
@@ -6858,17 +6840,10 @@
       <c r="L36" s="4">
         <v>200</v>
       </c>
-      <c r="M36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>塞伯罗斯普攻(教学)</v>
+      <c r="M36" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P36" s="4">
         <v>10</v>
       </c>
       <c r="W36" s="4">
@@ -6878,7 +6853,7 @@
         <v>5</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA36" s="4">
         <v>2</v>
@@ -6889,7 +6864,7 @@
         <v>11801</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C37" s="4">
         <v>2000</v>
@@ -6921,27 +6896,20 @@
       <c r="L37" s="4">
         <v>200</v>
       </c>
-      <c r="M37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>天使缇娜普攻(教学)</v>
+      <c r="M37" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="N37" s="4">
-        <v>1</v>
-      </c>
-      <c r="O37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="P37" s="4">
-        <v>10</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="T37" s="4">
         <v>10</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="V37" s="4">
         <v>10</v>
@@ -6956,7 +6924,7 @@
         <v>5</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AA37" s="4">
         <v>2</v>
@@ -6967,7 +6935,7 @@
         <v>11802</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C38" s="4">
         <v>2000</v>
@@ -6999,27 +6967,20 @@
       <c r="L38" s="4">
         <v>200</v>
       </c>
-      <c r="M38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>李轩辕普攻(教学)</v>
+      <c r="M38" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="N38" s="4">
-        <v>1</v>
-      </c>
-      <c r="O38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="T38" s="4">
+        <v>10</v>
+      </c>
+      <c r="U38" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="P38" s="4">
-        <v>10</v>
-      </c>
-      <c r="S38" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="T38" s="4">
-        <v>10</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="V38" s="4">
         <v>10</v>
@@ -7034,7 +6995,7 @@
         <v>5</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA38" s="4">
         <v>2</v>
@@ -7045,7 +7006,7 @@
         <v>11803</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C39" s="4">
         <v>2000</v>
@@ -7077,27 +7038,20 @@
       <c r="L39" s="4">
         <v>200</v>
       </c>
-      <c r="M39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>典韦普攻(教学)</v>
+      <c r="M39" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="N39" s="4">
-        <v>1</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T39" s="4">
         <v>10</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="V39" s="4">
         <v>10</v>
@@ -7112,7 +7066,7 @@
         <v>5</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA39" s="4">
         <v>2</v>
@@ -7123,7 +7077,7 @@
         <v>11804</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C40" s="4">
         <v>6000</v>
@@ -7156,7 +7110,7 @@
         <v>200</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N40" s="4">
         <v>10</v>
@@ -7171,7 +7125,7 @@
         <v>5</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AA40" s="4">
         <v>2</v>
@@ -7182,7 +7136,7 @@
         <v>11805</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C41" s="4">
         <v>6000</v>
@@ -7215,7 +7169,7 @@
         <v>200</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N41" s="4">
         <v>10</v>
@@ -7230,7 +7184,7 @@
         <v>5</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AA41" s="4">
         <v>2</v>
@@ -7241,7 +7195,7 @@
         <v>11806</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="C42" s="4">
         <v>6000</v>
@@ -7274,7 +7228,7 @@
         <v>200</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N42" s="4">
         <v>10</v>
@@ -7289,7 +7243,7 @@
         <v>5</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA42" s="4">
         <v>2</v>
@@ -7300,7 +7254,7 @@
         <v>11901</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C43" s="4">
         <v>1000</v>
@@ -7332,27 +7286,20 @@
       <c r="L43" s="4">
         <v>200</v>
       </c>
-      <c r="M43" s="4" t="str">
-        <f t="shared" ref="M43:M50" si="2">B43&amp;"普攻(教学)"</f>
-        <v>典韦普攻(教学)</v>
+      <c r="M43" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N43" s="4">
-        <v>1</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P43" s="4">
         <v>10</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="T43" s="4">
         <v>10</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V43" s="4">
         <v>10</v>
@@ -7364,7 +7311,7 @@
         <v>5</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA43" s="4">
         <v>2</v>
@@ -7375,7 +7322,7 @@
         <v>11902</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C44" s="4">
         <v>1000</v>
@@ -7407,27 +7354,20 @@
       <c r="L44" s="4">
         <v>200</v>
       </c>
-      <c r="M44" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>烈风螳螂普攻(教学)</v>
+      <c r="M44" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="N44" s="4">
-        <v>1</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="P44" s="4">
         <v>10</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T44" s="4">
         <v>10</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V44" s="4">
         <v>10</v>
@@ -7439,7 +7379,7 @@
         <v>5</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AA44" s="4">
         <v>2</v>
@@ -7450,7 +7390,7 @@
         <v>11903</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C45" s="4">
         <v>1000</v>
@@ -7482,17 +7422,10 @@
       <c r="L45" s="4">
         <v>200</v>
       </c>
-      <c r="M45" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>项羽普攻(教学)</v>
+      <c r="M45" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="N45" s="4">
-        <v>1</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="P45" s="4">
         <v>10</v>
       </c>
       <c r="W45" s="4">
@@ -7502,7 +7435,7 @@
         <v>5</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA45" s="4">
         <v>2</v>
@@ -7513,7 +7446,7 @@
         <v>11904</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C46" s="11">
         <v>2000</v>
@@ -7545,29 +7478,22 @@
       <c r="L46" s="16">
         <v>200</v>
       </c>
-      <c r="M46" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>夏侯惇普攻(教学)</v>
+      <c r="M46" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="N46" s="16">
-        <v>1</v>
-      </c>
-      <c r="O46" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="P46" s="16">
         <v>10</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
       <c r="S46" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T46" s="4">
         <v>10</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V46" s="4">
         <v>10</v>
@@ -7580,7 +7506,7 @@
         <v>5</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AA46" s="4">
         <v>2</v>
@@ -7591,7 +7517,7 @@
         <v>12001</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C47" s="4">
         <v>2000</v>
@@ -7623,27 +7549,20 @@
       <c r="L47" s="4">
         <v>200</v>
       </c>
-      <c r="M47" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>典韦普攻(教学)</v>
+      <c r="M47" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P47" s="4">
         <v>10</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T47" s="4">
         <v>10</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V47" s="4">
         <v>10</v>
@@ -7655,7 +7574,7 @@
         <v>5</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA47" s="4">
         <v>2</v>
@@ -7666,7 +7585,7 @@
         <v>12002</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C48" s="4">
         <v>1500</v>
@@ -7698,27 +7617,20 @@
       <c r="L48" s="4">
         <v>200</v>
       </c>
-      <c r="M48" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>张郃普攻(教学)</v>
+      <c r="M48" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="N48" s="4">
-        <v>1</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="P48" s="4">
         <v>10</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T48" s="4">
         <v>10</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V48" s="4">
         <v>10</v>
@@ -7730,7 +7642,7 @@
         <v>5</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AA48" s="4">
         <v>2</v>
@@ -7741,7 +7653,7 @@
         <v>12003</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="C49" s="4">
         <v>10000</v>
@@ -7773,17 +7685,10 @@
       <c r="L49" s="4">
         <v>200</v>
       </c>
-      <c r="M49" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>塞伯罗斯普攻(教学)</v>
+      <c r="M49" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="N49" s="4">
-        <v>1</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P49" s="4">
         <v>10</v>
       </c>
       <c r="W49" s="4">
@@ -7793,7 +7698,7 @@
         <v>5</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA49" s="4">
         <v>2</v>
@@ -7804,7 +7709,7 @@
         <v>12101</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C50" s="4">
         <v>1500</v>
@@ -7836,21 +7741,14 @@
       <c r="L50" s="4">
         <v>200</v>
       </c>
-      <c r="M50" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>典韦普攻(教学)</v>
+      <c r="M50" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N50" s="4">
-        <v>1</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="P50" s="4">
         <v>10</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="T50" s="4">
         <v>10</v>
@@ -7865,7 +7763,7 @@
         <v>5</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA50" s="4">
         <v>2</v>
@@ -7876,7 +7774,7 @@
         <v>12102</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C51" s="4">
         <v>2000</v>
@@ -7908,21 +7806,14 @@
       <c r="L51" s="4">
         <v>200</v>
       </c>
-      <c r="M51" s="4" t="str">
-        <f>B51&amp;"普攻(教学)"</f>
-        <v>飞廉普攻(教学)</v>
+      <c r="M51" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="N51" s="4">
-        <v>1</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P51" s="4">
         <v>10</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="T51" s="4">
         <v>10</v>
@@ -7937,7 +7828,7 @@
         <v>5</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AA51" s="4">
         <v>2</v>
@@ -7948,7 +7839,7 @@
         <v>12103</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" s="4">
         <v>1000</v>
@@ -7981,15 +7872,9 @@
         <v>200</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="N52" s="4">
-        <v>1</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="P52" s="4">
         <v>10</v>
       </c>
       <c r="W52" s="4">
@@ -7999,7 +7884,7 @@
         <v>5</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA52" s="4">
         <v>2</v>
@@ -8010,7 +7895,7 @@
         <v>12104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C53" s="4">
         <v>1000</v>
@@ -8043,25 +7928,19 @@
         <v>200</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="N53" s="4">
-        <v>1</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="P53" s="4">
         <v>10</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T53" s="4">
         <v>10</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V53" s="4">
         <v>10</v>
@@ -8073,7 +7952,7 @@
         <v>5</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AA53" s="4">
         <v>2</v>
@@ -8084,7 +7963,7 @@
         <v>12105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="C54" s="4">
         <v>10000</v>
@@ -8117,15 +7996,9 @@
         <v>200</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="N54" s="4">
-        <v>1</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="P54" s="4">
         <v>10</v>
       </c>
       <c r="W54" s="4">
@@ -8135,644 +8008,1151 @@
         <v>5</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA54" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>11001</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5000</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>200</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="O55" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C55" s="3">
+      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="W55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>999</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>11002</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="4">
         <v>1000</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
         <v>5000</v>
       </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3">
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
         <v>200</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N55" s="4">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="P55" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="R55" s="3">
-        <v>1</v>
-      </c>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3">
-        <v>0</v>
-      </c>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3">
+      <c r="M56" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1</v>
+      </c>
+      <c r="W56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4">
         <v>999</v>
       </c>
-      <c r="Z55" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
-        <v>11002</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C56" s="17">
+      <c r="Z56" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>11003</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="4">
         <v>1000</v>
       </c>
-      <c r="D56" s="17">
-        <v>0</v>
-      </c>
-      <c r="E56" s="17">
-        <v>5000</v>
-      </c>
-      <c r="F56" s="17">
-        <v>0</v>
-      </c>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="17">
-        <v>0</v>
-      </c>
-      <c r="I56" s="17">
-        <v>0</v>
-      </c>
-      <c r="J56" s="17">
-        <v>0</v>
-      </c>
-      <c r="K56" s="17">
-        <v>0</v>
-      </c>
-      <c r="L56" s="17">
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>10000</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
         <v>200</v>
       </c>
-      <c r="M56" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="P56" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="R56" s="17">
-        <v>1</v>
-      </c>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17">
-        <v>0</v>
-      </c>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17">
+      <c r="M57" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+      <c r="W57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
         <v>999</v>
       </c>
-      <c r="Z56" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA56" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
-        <v>11003</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="C57" s="17">
-        <v>1000</v>
-      </c>
-      <c r="D57" s="17">
-        <v>0</v>
-      </c>
-      <c r="E57" s="17">
-        <v>10000</v>
-      </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="17">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17">
-        <v>0</v>
-      </c>
-      <c r="I57" s="17">
-        <v>0</v>
-      </c>
-      <c r="J57" s="17">
-        <v>0</v>
-      </c>
-      <c r="K57" s="17">
-        <v>0</v>
-      </c>
-      <c r="L57" s="17">
-        <v>200</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="N57" s="4">
-        <v>1</v>
-      </c>
-      <c r="O57" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P57" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17">
-        <v>0</v>
-      </c>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17">
-        <v>999</v>
-      </c>
-      <c r="Z57" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA57" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>11004</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="B58" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C58" s="4">
         <v>1000</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
         <v>200</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="N58" s="4">
         <v>1</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1</v>
-      </c>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3">
+      <c r="S58" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="T58" s="4">
+        <v>1</v>
+      </c>
+      <c r="W58" s="4">
         <v>2</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="4">
         <v>6</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="4">
         <v>999</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA58" s="3">
+        <v>189</v>
+      </c>
+      <c r="AA58" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>11005</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="B59" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="4">
         <v>1000</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
         <v>10000</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
         <v>200</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="N59" s="4">
         <v>1</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="S59" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="T59" s="4">
+        <v>1</v>
+      </c>
+      <c r="U59" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="V59" s="4">
+        <v>1</v>
+      </c>
+      <c r="W59" s="4">
+        <v>1</v>
+      </c>
+      <c r="X59" s="4">
         <v>6</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="4">
         <v>999</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA59" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>11006</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="B60" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="4">
         <v>1000</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
         <v>10000</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
         <v>200</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="N60" s="4">
         <v>1</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3">
+      <c r="W60" s="4">
         <v>3</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="4">
         <v>6</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="4">
         <v>999</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA60" s="3">
+        <v>196</v>
+      </c>
+      <c r="AA60" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>11007</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="4">
         <v>1000</v>
       </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
         <v>7000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
         <v>200</v>
       </c>
-      <c r="M61" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1</v>
-      </c>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3">
-        <v>1</v>
-      </c>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3">
+      <c r="M61" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1</v>
+      </c>
+      <c r="W61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="4">
         <v>999</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>11008</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" s="4">
         <v>1000</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
         <v>10000</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1</v>
-      </c>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3">
+      <c r="M62" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1</v>
+      </c>
+      <c r="W62" s="4">
         <v>2</v>
       </c>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3">
+      <c r="Y62" s="4">
         <v>999</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="AA62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>11009</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B63" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" s="4">
         <v>1000</v>
       </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
         <v>5000</v>
       </c>
-      <c r="F63" s="3">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3">
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
         <v>200</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M63" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1</v>
+      </c>
+      <c r="W63" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>999</v>
+      </c>
+      <c r="Z63" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>20101</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="4">
+        <v>23</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>109</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>200</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="W64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>20102</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="4">
+        <v>23</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>109</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>200</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P65" s="4">
+        <v>1</v>
+      </c>
+      <c r="W65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>20103</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="N63" s="3">
-        <v>1</v>
-      </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3">
+      <c r="C66" s="4">
+        <v>23</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>70</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>200</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+      <c r="W66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>20104</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" s="4">
+        <v>23</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>70</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>200</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1</v>
+      </c>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>20201</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="4">
+        <v>23</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>109</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>200</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+      <c r="W68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>20202</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="4">
+        <v>23</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>109</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <v>200</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="T69" s="4">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="V69" s="4">
+        <v>1</v>
+      </c>
+      <c r="W69" s="4">
+        <v>1</v>
+      </c>
+      <c r="X69" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z69" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>20203</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C70" s="4">
+        <v>23</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>109</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <v>200</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1</v>
+      </c>
+      <c r="W70" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>20204</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C71" s="4">
+        <v>23</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>15</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>200</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+      <c r="W71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>20205</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="4">
+        <v>23</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>250</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <v>200</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="W72" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>20206</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="4">
+        <v>23</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>15</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>200</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="W73" s="4">
         <v>3</v>
       </c>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3">
-        <v>999</v>
-      </c>
-      <c r="Z63" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA63" s="3">
+      <c r="Z73" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA73" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456CCF8-1B7F-45A4-96FE-B8294B0AC71B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5473B7B-294F-4E30-A7F3-9FD73B79874F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="345">
   <si>
     <t>sheet名</t>
   </si>
@@ -245,9 +245,6 @@
     <t>金币</t>
   </si>
   <si>
-    <t>钻石</t>
-  </si>
-  <si>
     <t>draw_gy_1102001</t>
   </si>
   <si>
@@ -1159,13 +1156,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>常服曹焱兵技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能2</t>
-  </si>
-  <si>
     <t>砍刀鬼兵的普攻</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1198,6 +1188,30 @@
   </si>
   <si>
     <t>塞伯洛斯</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色基础材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级蓝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级蓝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1958,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1997,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -2025,7 +2039,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -2044,11 +2058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2079,13 +2093,13 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -2135,13 +2149,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -2191,13 +2205,13 @@
         <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>52</v>
@@ -2241,16 +2255,16 @@
         <v>1400001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
@@ -2263,17 +2277,17 @@
         <v>63</v>
       </c>
       <c r="J4" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="3">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="3">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="N4" s="3">
         <v>0</v>
       </c>
@@ -2284,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R4" s="3">
         <v>51</v>
@@ -2295,13 +2309,13 @@
         <v>1400002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2315,16 +2329,16 @@
         <v>63</v>
       </c>
       <c r="J5" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="L5" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" s="3">
         <v>1400001</v>
@@ -2336,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R5" s="3">
         <v>51</v>
@@ -2347,13 +2361,13 @@
         <v>1400003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2367,16 +2381,16 @@
         <v>63</v>
       </c>
       <c r="J6" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="L6" s="3">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -2388,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R6" s="3">
         <v>51</v>
@@ -2399,13 +2413,13 @@
         <v>1400004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -2419,16 +2433,16 @@
         <v>63</v>
       </c>
       <c r="J7" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="L7" s="3">
-        <v>25</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="N7" s="3">
         <v>1400003</v>
@@ -2440,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R7" s="3">
         <v>51</v>
@@ -2451,13 +2465,13 @@
         <v>1400005</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2471,16 +2485,16 @@
         <v>63</v>
       </c>
       <c r="J8" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="L8" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="3">
         <v>1400004</v>
@@ -2492,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R8" s="3">
         <v>51</v>
@@ -2503,13 +2517,13 @@
         <v>1400006</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2523,16 +2537,16 @@
         <v>63</v>
       </c>
       <c r="J9" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="L9" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="3">
         <v>1400005</v>
@@ -2544,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R9" s="3">
         <v>51</v>
@@ -2555,16 +2569,16 @@
         <v>1400007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="4">
@@ -2577,16 +2591,16 @@
         <v>63</v>
       </c>
       <c r="J10" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="3">
-        <v>25</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="N10" s="3">
         <v>1400002</v>
@@ -2598,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R10" s="3">
         <v>51</v>
@@ -2609,13 +2623,13 @@
         <v>1400008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2629,16 +2643,16 @@
         <v>63</v>
       </c>
       <c r="J11" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="L11" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2650,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R11" s="3">
         <v>51</v>
@@ -2661,13 +2675,13 @@
         <v>1400009</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>248</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2681,16 +2695,16 @@
         <v>63</v>
       </c>
       <c r="J12" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="L12" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N12" s="3">
         <v>1400008</v>
@@ -2702,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R12" s="3">
         <v>51</v>
@@ -2713,13 +2727,13 @@
         <v>1400010</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2733,16 +2747,16 @@
         <v>63</v>
       </c>
       <c r="J13" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="L13" s="3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -2754,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R13" s="3">
         <v>51</v>
@@ -2765,13 +2779,13 @@
         <v>1400011</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2785,16 +2799,16 @@
         <v>63</v>
       </c>
       <c r="J14" s="3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="L14" s="3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="3">
         <v>1400010</v>
@@ -2806,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R14" s="3">
         <v>51</v>
@@ -2823,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2850,94 +2864,94 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -2945,94 +2959,94 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AE2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="60" x14ac:dyDescent="0.2">
@@ -3040,94 +3054,94 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AD3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
@@ -4275,13 +4289,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
         <v>20101</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -4293,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
         <v>20103</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -4370,17 +4384,17 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
+        <v>20203</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
         <v>20201</v>
       </c>
-      <c r="C17" s="3">
+      <c r="E17" s="3">
         <v>20202</v>
       </c>
-      <c r="D17" s="3">
-        <v>20203</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -4388,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>20204</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -4400,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>20206</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -4468,13 +4482,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AA73"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4500,82 +4514,82 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -4583,79 +4597,79 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" t="s">
         <v>155</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s">
         <v>155</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" t="s">
         <v>155</v>
       </c>
-      <c r="F2" t="s">
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" t="s">
         <v>155</v>
       </c>
-      <c r="G2" t="s">
+      <c r="T2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" t="s">
         <v>155</v>
       </c>
-      <c r="H2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>156</v>
-      </c>
-      <c r="R2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" t="s">
-        <v>156</v>
-      </c>
       <c r="V2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W2" t="s">
         <v>47</v>
       </c>
       <c r="X2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA2" t="s">
         <v>47</v>
@@ -4666,82 +4680,82 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4749,7 +4763,7 @@
         <v>11101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" s="4">
         <v>500</v>
@@ -4782,13 +4796,13 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" s="4">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="N4" s="4">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="P4" s="4">
         <v>10</v>
@@ -4800,7 +4814,7 @@
         <v>5</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA4" s="4">
         <v>1</v>
@@ -4811,7 +4825,7 @@
         <v>11102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="4">
         <v>1000</v>
@@ -4844,19 +4858,19 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N5" s="4">
         <v>10</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T5" s="4">
         <v>10</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V5" s="4">
         <v>10</v>
@@ -4871,7 +4885,7 @@
         <v>5</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA5" s="4">
         <v>2</v>
@@ -4882,7 +4896,7 @@
         <v>11103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="4">
         <v>500</v>
@@ -4915,13 +4929,13 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N6" s="4">
         <v>10</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P6" s="4">
         <v>10</v>
@@ -4933,7 +4947,7 @@
         <v>5</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA6" s="4">
         <v>1</v>
@@ -4944,7 +4958,7 @@
         <v>11104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="4">
         <v>3000</v>
@@ -4977,19 +4991,19 @@
         <v>200</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N7" s="4">
         <v>10</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T7" s="4">
         <v>10</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V7" s="4">
         <v>10</v>
@@ -5004,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA7" s="4">
         <v>2</v>
@@ -5015,7 +5029,7 @@
         <v>11105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C8" s="4">
         <v>3000</v>
@@ -5048,7 +5062,7 @@
         <v>200</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N8" s="4">
         <v>10</v>
@@ -5063,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA8" s="4">
         <v>2</v>
@@ -5074,7 +5088,7 @@
         <v>11201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="4">
         <v>500</v>
@@ -5107,7 +5121,7 @@
         <v>200</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N9" s="4">
         <v>10</v>
@@ -5119,7 +5133,7 @@
         <v>5</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA9" s="4">
         <v>1</v>
@@ -5130,7 +5144,7 @@
         <v>11202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="4">
         <v>2000</v>
@@ -5163,19 +5177,19 @@
         <v>200</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N10" s="4">
         <v>10</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T10" s="4">
         <v>10</v>
       </c>
       <c r="W10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" s="4">
         <v>4</v>
@@ -5184,7 +5198,7 @@
         <v>5</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA10" s="4">
         <v>2</v>
@@ -5195,7 +5209,7 @@
         <v>11203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="4">
         <v>1000</v>
@@ -5228,13 +5242,13 @@
         <v>200</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N11" s="4">
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P11" s="4">
         <v>10</v>
@@ -5246,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA11" s="4">
         <v>1</v>
@@ -5257,7 +5271,7 @@
         <v>11204</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C12" s="4">
         <v>10000</v>
@@ -5290,19 +5304,19 @@
         <v>200</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N12" s="4">
         <v>10</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T12" s="4">
         <v>10</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V12" s="4">
         <v>10</v>
@@ -5317,7 +5331,7 @@
         <v>5</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA12" s="4">
         <v>2</v>
@@ -5328,7 +5342,7 @@
         <v>11301</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="4">
         <v>500</v>
@@ -5361,19 +5375,19 @@
         <v>200</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N13" s="4">
         <v>10</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T13" s="4">
         <v>10</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V13" s="4">
         <v>10</v>
@@ -5385,7 +5399,7 @@
         <v>5</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA13" s="4">
         <v>2</v>
@@ -5396,7 +5410,7 @@
         <v>11302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="4">
         <v>2000</v>
@@ -5429,19 +5443,19 @@
         <v>200</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N14" s="4">
         <v>10</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T14" s="4">
         <v>10</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V14" s="4">
         <v>10</v>
@@ -5456,7 +5470,7 @@
         <v>5</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA14" s="4">
         <v>2</v>
@@ -5467,7 +5481,7 @@
         <v>11303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="4">
         <v>2000</v>
@@ -5500,19 +5514,19 @@
         <v>200</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N15" s="4">
         <v>10</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T15" s="4">
         <v>10</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V15" s="4">
         <v>10</v>
@@ -5524,7 +5538,7 @@
         <v>5</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA15" s="4">
         <v>2</v>
@@ -5535,7 +5549,7 @@
         <v>11304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="4">
         <v>2000</v>
@@ -5568,13 +5582,13 @@
         <v>200</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N16" s="4">
         <v>10</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P16" s="4">
         <v>10</v>
@@ -5586,7 +5600,7 @@
         <v>5</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA16" s="4">
         <v>1</v>
@@ -5597,7 +5611,7 @@
         <v>11305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C17" s="4">
         <v>10000</v>
@@ -5606,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -5630,19 +5644,19 @@
         <v>200</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17" s="4">
+        <v>10</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T17" s="4">
+        <v>10</v>
+      </c>
+      <c r="U17" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="N17" s="4">
-        <v>10</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="T17" s="4">
-        <v>10</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="V17" s="4">
         <v>10</v>
@@ -5654,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA17" s="4">
         <v>2</v>
@@ -5665,7 +5679,7 @@
         <v>11306</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="4">
         <v>2000</v>
@@ -5698,13 +5712,13 @@
         <v>200</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N18" s="4">
         <v>10</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P18" s="4">
         <v>10</v>
@@ -5716,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA18" s="4">
         <v>1</v>
@@ -5727,7 +5741,7 @@
         <v>11401</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="4">
         <v>2000</v>
@@ -5760,19 +5774,19 @@
         <v>200</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N19" s="4">
         <v>10</v>
       </c>
       <c r="S19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="T19" s="4">
+        <v>10</v>
+      </c>
+      <c r="U19" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="T19" s="4">
-        <v>10</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="V19" s="4">
         <v>10</v>
@@ -5784,7 +5798,7 @@
         <v>8</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AA19" s="4">
         <v>2</v>
@@ -5795,7 +5809,7 @@
         <v>11402</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="4">
         <v>2000</v>
@@ -5828,19 +5842,19 @@
         <v>200</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N20" s="4">
         <v>10</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T20" s="4">
         <v>10</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V20" s="4">
         <v>10</v>
@@ -5852,7 +5866,7 @@
         <v>6</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA20" s="4">
         <v>2</v>
@@ -5863,7 +5877,7 @@
         <v>11403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C21" s="4">
         <v>5000</v>
@@ -5896,13 +5910,13 @@
         <v>200</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N21" s="4">
         <v>10</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T21" s="4">
         <v>10</v>
@@ -5914,7 +5928,7 @@
         <v>5</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA21" s="4">
         <v>2</v>
@@ -5925,7 +5939,7 @@
         <v>11501</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="4">
         <v>1500</v>
@@ -5958,9 +5972,15 @@
         <v>200</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N22" s="4">
+        <v>10</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T22" s="4">
         <v>10</v>
       </c>
       <c r="W22" s="4">
@@ -5970,7 +5990,7 @@
         <v>5</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA22" s="4">
         <v>2</v>
@@ -5981,7 +6001,7 @@
         <v>11502</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="4">
         <v>2000</v>
@@ -6014,19 +6034,19 @@
         <v>200</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N23" s="4">
         <v>10</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T23" s="4">
         <v>10</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V23" s="4">
         <v>10</v>
@@ -6041,7 +6061,7 @@
         <v>5</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA23" s="4">
         <v>2</v>
@@ -6052,7 +6072,7 @@
         <v>11503</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C24" s="4">
         <v>500</v>
@@ -6085,7 +6105,7 @@
         <v>200</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N24" s="4">
         <v>10</v>
@@ -6097,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA24" s="4">
         <v>2</v>
@@ -6108,7 +6128,7 @@
         <v>11504</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="4">
         <v>2000</v>
@@ -6141,13 +6161,13 @@
         <v>200</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N25" s="4">
         <v>10</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P25" s="4">
         <v>10</v>
@@ -6159,7 +6179,7 @@
         <v>5</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA25" s="4">
         <v>1</v>
@@ -6170,7 +6190,7 @@
         <v>11505</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C26" s="4">
         <v>10000</v>
@@ -6203,19 +6223,19 @@
         <v>200</v>
       </c>
       <c r="M26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N26" s="4">
+        <v>10</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T26" s="4">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="N26" s="4">
-        <v>10</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="T26" s="4">
-        <v>10</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="V26" s="4">
         <v>10</v>
@@ -6227,7 +6247,7 @@
         <v>5</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA26" s="4">
         <v>2</v>
@@ -6238,7 +6258,7 @@
         <v>11506</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="4">
         <v>2000</v>
@@ -6271,13 +6291,13 @@
         <v>200</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N27" s="4">
         <v>10</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P27" s="4">
         <v>10</v>
@@ -6289,7 +6309,7 @@
         <v>5</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA27" s="4">
         <v>1</v>
@@ -6300,7 +6320,7 @@
         <v>11601</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="4">
         <v>1000</v>
@@ -6333,9 +6353,15 @@
         <v>200</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N28" s="4">
+        <v>10</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T28" s="4">
         <v>10</v>
       </c>
       <c r="W28" s="4">
@@ -6345,7 +6371,7 @@
         <v>5</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA28" s="4">
         <v>2</v>
@@ -6356,7 +6382,7 @@
         <v>11602</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="4">
         <v>500</v>
@@ -6389,9 +6415,15 @@
         <v>200</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N29" s="4">
+        <v>10</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T29" s="4">
         <v>10</v>
       </c>
       <c r="W29" s="4">
@@ -6401,7 +6433,7 @@
         <v>5</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA29" s="4">
         <v>2</v>
@@ -6412,7 +6444,7 @@
         <v>11603</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="4">
         <v>1000</v>
@@ -6445,19 +6477,19 @@
         <v>200</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N30" s="4">
         <v>10</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T30" s="4">
         <v>10</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V30" s="4">
         <v>10</v>
@@ -6469,7 +6501,7 @@
         <v>5</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA30" s="4">
         <v>2</v>
@@ -6480,7 +6512,7 @@
         <v>11604</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="4">
         <v>1000</v>
@@ -6513,13 +6545,13 @@
         <v>200</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N31" s="4">
         <v>10</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P31" s="4">
         <v>10</v>
@@ -6531,7 +6563,7 @@
         <v>5</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA31" s="4">
         <v>1</v>
@@ -6542,7 +6574,7 @@
         <v>11605</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C32" s="4">
         <v>10000</v>
@@ -6575,19 +6607,19 @@
         <v>200</v>
       </c>
       <c r="M32" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N32" s="4">
+        <v>10</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T32" s="4">
+        <v>10</v>
+      </c>
+      <c r="U32" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="N32" s="4">
-        <v>10</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="T32" s="4">
-        <v>10</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="V32" s="4">
         <v>10</v>
@@ -6599,7 +6631,7 @@
         <v>5</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA32" s="4">
         <v>2</v>
@@ -6610,7 +6642,7 @@
         <v>11606</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="4">
         <v>1000</v>
@@ -6643,13 +6675,13 @@
         <v>200</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N33" s="4">
         <v>10</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P33" s="4">
         <v>10</v>
@@ -6661,7 +6693,7 @@
         <v>5</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA33" s="4">
         <v>1</v>
@@ -6672,7 +6704,7 @@
         <v>11701</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="4">
         <v>2000</v>
@@ -6705,19 +6737,19 @@
         <v>200</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N34" s="4">
         <v>10</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T34" s="4">
         <v>10</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V34" s="4">
         <v>10</v>
@@ -6729,7 +6761,7 @@
         <v>5</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA34" s="4">
         <v>2</v>
@@ -6740,7 +6772,7 @@
         <v>11702</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="4">
         <v>1000</v>
@@ -6773,19 +6805,19 @@
         <v>200</v>
       </c>
       <c r="M35" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N35" s="4">
+        <v>10</v>
+      </c>
+      <c r="S35" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N35" s="4">
-        <v>10</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="T35" s="4">
         <v>10</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V35" s="4">
         <v>10</v>
@@ -6797,7 +6829,7 @@
         <v>5</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA35" s="4">
         <v>2</v>
@@ -6808,7 +6840,7 @@
         <v>11703</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C36" s="4">
         <v>10000</v>
@@ -6841,7 +6873,7 @@
         <v>200</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N36" s="4">
         <v>10</v>
@@ -6853,7 +6885,7 @@
         <v>5</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA36" s="4">
         <v>2</v>
@@ -6864,7 +6896,7 @@
         <v>11801</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="4">
         <v>2000</v>
@@ -6897,19 +6929,19 @@
         <v>200</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N37" s="4">
         <v>10</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T37" s="4">
         <v>10</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V37" s="4">
         <v>10</v>
@@ -6924,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA37" s="4">
         <v>2</v>
@@ -6935,7 +6967,7 @@
         <v>11802</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" s="4">
         <v>2000</v>
@@ -6968,19 +7000,19 @@
         <v>200</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N38" s="4">
         <v>10</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T38" s="4">
         <v>10</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V38" s="4">
         <v>10</v>
@@ -6995,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA38" s="4">
         <v>2</v>
@@ -7006,7 +7038,7 @@
         <v>11803</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="4">
         <v>2000</v>
@@ -7039,19 +7071,19 @@
         <v>200</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N39" s="4">
         <v>10</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T39" s="4">
         <v>10</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V39" s="4">
         <v>10</v>
@@ -7066,7 +7098,7 @@
         <v>5</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA39" s="4">
         <v>2</v>
@@ -7077,7 +7109,7 @@
         <v>11804</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40" s="4">
         <v>6000</v>
@@ -7110,7 +7142,7 @@
         <v>200</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N40" s="4">
         <v>10</v>
@@ -7125,7 +7157,7 @@
         <v>5</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA40" s="4">
         <v>2</v>
@@ -7136,7 +7168,7 @@
         <v>11805</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41" s="4">
         <v>6000</v>
@@ -7169,7 +7201,7 @@
         <v>200</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N41" s="4">
         <v>10</v>
@@ -7184,7 +7216,7 @@
         <v>5</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA41" s="4">
         <v>2</v>
@@ -7195,7 +7227,7 @@
         <v>11806</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C42" s="4">
         <v>6000</v>
@@ -7228,7 +7260,7 @@
         <v>200</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N42" s="4">
         <v>10</v>
@@ -7243,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA42" s="4">
         <v>2</v>
@@ -7254,7 +7286,7 @@
         <v>11901</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C43" s="4">
         <v>1000</v>
@@ -7287,19 +7319,19 @@
         <v>200</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N43" s="4">
         <v>10</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T43" s="4">
         <v>10</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V43" s="4">
         <v>10</v>
@@ -7311,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA43" s="4">
         <v>2</v>
@@ -7322,7 +7354,7 @@
         <v>11902</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="4">
         <v>1000</v>
@@ -7355,19 +7387,19 @@
         <v>200</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N44" s="4">
         <v>10</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T44" s="4">
         <v>10</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V44" s="4">
         <v>10</v>
@@ -7379,7 +7411,7 @@
         <v>5</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA44" s="4">
         <v>2</v>
@@ -7390,7 +7422,7 @@
         <v>11903</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" s="4">
         <v>1000</v>
@@ -7423,7 +7455,7 @@
         <v>200</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N45" s="4">
         <v>10</v>
@@ -7435,7 +7467,7 @@
         <v>5</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA45" s="4">
         <v>2</v>
@@ -7446,7 +7478,7 @@
         <v>11904</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" s="11">
         <v>2000</v>
@@ -7479,7 +7511,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N46" s="16">
         <v>10</v>
@@ -7487,13 +7519,13 @@
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
       <c r="S46" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T46" s="4">
         <v>10</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V46" s="4">
         <v>10</v>
@@ -7506,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA46" s="4">
         <v>2</v>
@@ -7517,7 +7549,7 @@
         <v>12001</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C47" s="4">
         <v>2000</v>
@@ -7550,19 +7582,19 @@
         <v>200</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N47" s="4">
         <v>10</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T47" s="4">
         <v>10</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V47" s="4">
         <v>10</v>
@@ -7574,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA47" s="4">
         <v>2</v>
@@ -7585,7 +7617,7 @@
         <v>12002</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C48" s="4">
         <v>1500</v>
@@ -7618,19 +7650,19 @@
         <v>200</v>
       </c>
       <c r="M48" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N48" s="4">
+        <v>10</v>
+      </c>
+      <c r="S48" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N48" s="4">
-        <v>10</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="T48" s="4">
         <v>10</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V48" s="4">
         <v>10</v>
@@ -7642,7 +7674,7 @@
         <v>5</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA48" s="4">
         <v>2</v>
@@ -7653,7 +7685,7 @@
         <v>12003</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C49" s="4">
         <v>10000</v>
@@ -7686,9 +7718,15 @@
         <v>200</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N49" s="4">
+        <v>10</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="T49" s="4">
         <v>10</v>
       </c>
       <c r="W49" s="4">
@@ -7698,7 +7736,7 @@
         <v>5</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA49" s="4">
         <v>2</v>
@@ -7709,7 +7747,7 @@
         <v>12101</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50" s="4">
         <v>1500</v>
@@ -7742,13 +7780,13 @@
         <v>200</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N50" s="4">
         <v>10</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T50" s="4">
         <v>10</v>
@@ -7763,7 +7801,7 @@
         <v>5</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA50" s="4">
         <v>2</v>
@@ -7774,7 +7812,7 @@
         <v>12102</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C51" s="4">
         <v>2000</v>
@@ -7807,13 +7845,13 @@
         <v>200</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N51" s="4">
         <v>10</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T51" s="4">
         <v>10</v>
@@ -7828,7 +7866,7 @@
         <v>5</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA51" s="4">
         <v>2</v>
@@ -7839,7 +7877,7 @@
         <v>12103</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" s="4">
         <v>1000</v>
@@ -7872,7 +7910,7 @@
         <v>200</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N52" s="4">
         <v>10</v>
@@ -7884,7 +7922,7 @@
         <v>5</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA52" s="4">
         <v>2</v>
@@ -7895,7 +7933,7 @@
         <v>12104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="4">
         <v>1000</v>
@@ -7928,19 +7966,19 @@
         <v>200</v>
       </c>
       <c r="M53" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="N53" s="4">
+        <v>10</v>
+      </c>
+      <c r="S53" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="N53" s="4">
-        <v>10</v>
-      </c>
-      <c r="S53" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="T53" s="4">
         <v>10</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V53" s="4">
         <v>10</v>
@@ -7952,7 +7990,7 @@
         <v>5</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA53" s="4">
         <v>2</v>
@@ -7963,7 +8001,7 @@
         <v>12105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C54" s="4">
         <v>10000</v>
@@ -7996,7 +8034,7 @@
         <v>200</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N54" s="4">
         <v>10</v>
@@ -8008,7 +8046,7 @@
         <v>5</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA54" s="4">
         <v>2</v>
@@ -8019,7 +8057,7 @@
         <v>11001</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C55" s="4">
         <v>1000</v>
@@ -8052,13 +8090,13 @@
         <v>200</v>
       </c>
       <c r="M55" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="O55" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="N55" s="4">
-        <v>1</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="P55" s="4">
         <v>1</v>
@@ -8070,7 +8108,7 @@
         <v>999</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA55" s="4">
         <v>1</v>
@@ -8081,7 +8119,7 @@
         <v>11002</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C56" s="4">
         <v>1000</v>
@@ -8114,13 +8152,13 @@
         <v>200</v>
       </c>
       <c r="M56" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+      <c r="O56" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="P56" s="4">
         <v>1</v>
@@ -8132,7 +8170,7 @@
         <v>999</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA56" s="4">
         <v>1</v>
@@ -8143,7 +8181,7 @@
         <v>11003</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C57" s="4">
         <v>1000</v>
@@ -8176,7 +8214,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N57" s="4">
         <v>1</v>
@@ -8188,7 +8226,7 @@
         <v>999</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA57" s="4">
         <v>1</v>
@@ -8199,7 +8237,7 @@
         <v>11004</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C58" s="4">
         <v>1000</v>
@@ -8232,13 +8270,13 @@
         <v>200</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N58" s="4">
         <v>1</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T58" s="4">
         <v>1</v>
@@ -8253,7 +8291,7 @@
         <v>999</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA58" s="4">
         <v>2</v>
@@ -8264,7 +8302,7 @@
         <v>11005</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="4">
         <v>1000</v>
@@ -8297,19 +8335,19 @@
         <v>200</v>
       </c>
       <c r="M59" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1</v>
+      </c>
+      <c r="S59" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="N59" s="4">
-        <v>1</v>
-      </c>
-      <c r="S59" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="T59" s="4">
         <v>1</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V59" s="4">
         <v>1</v>
@@ -8324,7 +8362,7 @@
         <v>999</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA59" s="4">
         <v>2</v>
@@ -8335,7 +8373,7 @@
         <v>11006</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C60" s="4">
         <v>1000</v>
@@ -8368,7 +8406,7 @@
         <v>200</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N60" s="4">
         <v>1</v>
@@ -8383,7 +8421,7 @@
         <v>999</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA60" s="4">
         <v>2</v>
@@ -8394,7 +8432,7 @@
         <v>11007</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C61" s="4">
         <v>1000</v>
@@ -8427,7 +8465,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N61" s="4">
         <v>1</v>
@@ -8439,7 +8477,7 @@
         <v>999</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA61" s="4">
         <v>1</v>
@@ -8450,7 +8488,7 @@
         <v>11008</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" s="4">
         <v>1000</v>
@@ -8483,7 +8521,7 @@
         <v>200</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N62" s="4">
         <v>1</v>
@@ -8495,7 +8533,7 @@
         <v>999</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA62" s="4">
         <v>1</v>
@@ -8506,7 +8544,7 @@
         <v>11009</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C63" s="4">
         <v>1000</v>
@@ -8539,7 +8577,7 @@
         <v>200</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N63" s="4">
         <v>1</v>
@@ -8551,7 +8589,7 @@
         <v>999</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA63" s="4">
         <v>1</v>
@@ -8562,7 +8600,7 @@
         <v>20101</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="C64" s="4">
         <v>23</v>
@@ -8595,13 +8633,13 @@
         <v>200</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="N64" s="4">
         <v>1</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P64" s="4">
         <v>1</v>
@@ -8610,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA64" s="4">
         <v>1</v>
@@ -8621,7 +8659,7 @@
         <v>20102</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C65" s="4">
         <v>23</v>
@@ -8654,14 +8692,14 @@
         <v>200</v>
       </c>
       <c r="M65" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+      <c r="O65" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="N65" s="4">
-        <v>1</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="P65" s="4">
         <v>1</v>
       </c>
@@ -8669,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA65" s="4">
         <v>1</v>
@@ -8680,7 +8718,7 @@
         <v>20103</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C66" s="4">
         <v>23</v>
@@ -8713,13 +8751,13 @@
         <v>200</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N66" s="4">
         <v>1</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P66" s="4">
         <v>1</v>
@@ -8728,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="Z66" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AA66" s="4">
         <v>1</v>
@@ -8739,7 +8777,7 @@
         <v>20104</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C67" s="4">
         <v>23</v>
@@ -8772,13 +8810,13 @@
         <v>200</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N67" s="4">
         <v>1</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P67" s="4">
         <v>1</v>
@@ -8787,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AA67" s="4">
         <v>1</v>
@@ -8798,7 +8836,7 @@
         <v>20201</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="C68" s="4">
         <v>23</v>
@@ -8831,13 +8869,13 @@
         <v>200</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="N68" s="4">
         <v>1</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P68" s="4">
         <v>1</v>
@@ -8846,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA68" s="4">
         <v>1</v>
@@ -8857,7 +8895,7 @@
         <v>20202</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="4">
         <v>23</v>
@@ -8890,19 +8928,19 @@
         <v>200</v>
       </c>
       <c r="M69" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1</v>
+      </c>
+      <c r="S69" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="N69" s="4">
-        <v>1</v>
-      </c>
-      <c r="S69" s="4" t="s">
+      <c r="T69" s="4">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="T69" s="4">
-        <v>1</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="V69" s="4">
         <v>1</v>
@@ -8914,7 +8952,7 @@
         <v>4</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA69" s="4">
         <v>2</v>
@@ -8925,7 +8963,7 @@
         <v>20203</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C70" s="4">
         <v>23</v>
@@ -8958,14 +8996,14 @@
         <v>200</v>
       </c>
       <c r="M70" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="N70" s="4">
-        <v>1</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="P70" s="4">
         <v>1</v>
       </c>
@@ -8973,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA70" s="4">
         <v>1</v>
@@ -8981,10 +9019,10 @@
     </row>
     <row r="71" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>20204</v>
+        <v>20205</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C71" s="4">
         <v>23</v>
@@ -8993,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="4">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -9017,142 +9055,24 @@
         <v>200</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N71" s="4">
         <v>1</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P71" s="4">
         <v>1</v>
       </c>
       <c r="W71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z71" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>20205</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C72" s="4">
-        <v>23</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>250</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <v>0</v>
-      </c>
-      <c r="L72" s="4">
-        <v>200</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="N72" s="4">
-        <v>1</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="P72" s="4">
-        <v>1</v>
-      </c>
-      <c r="W72" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>20206</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C73" s="4">
-        <v>23</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>15</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0</v>
-      </c>
-      <c r="L73" s="4">
-        <v>200</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="N73" s="4">
-        <v>1</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="P73" s="4">
-        <v>1</v>
-      </c>
-      <c r="W73" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z73" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA73" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5473B7B-294F-4E30-A7F3-9FD73B79874F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24726857-AA12-4F24-8CCB-4E36EDFC6FE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="344">
   <si>
     <t>sheet名</t>
   </si>
@@ -999,10 +999,6 @@
     <t>Map_chilianjie_4-2</t>
   </si>
   <si>
-    <t>角色的&lt;color=#df4c4c&gt;普通攻击&lt;/color&gt;使用后可以立即获得水晶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#df4c4c&gt;守护灵&lt;/color&gt;拥有远远强于&lt;color=#df4c4c&gt;寄灵人&lt;/color&gt;的战斗能力</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1031,10 +1027,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#df4c4c&gt;奥义&lt;/color&gt;通常能造成更高伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>避难状态中的敌人不受到任何直接伤害类的攻击</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1179,10 +1171,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>head_gjj1_1201004</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>role_id:&lt;&gt;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1198,19 +1186,26 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>绿色基础材料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级蓝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵抽卡券</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>中级蓝</t>
+    <t>head_zdcyb_1101007</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;绝技&lt;/color&gt;通常能造成更高伤害</t>
+  </si>
+  <si>
+    <t>head_gjj_1201004</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2059,10 +2054,10 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2169,11 +2164,11 @@
       <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
+      <c r="K2" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -2261,11 +2256,9 @@
         <v>204</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E4" s="4" t="s">
         <v>290</v>
       </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
         <v>1</v>
@@ -2279,12 +2272,8 @@
       <c r="J4" s="3">
         <v>5000</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L4" s="3">
-        <v>40</v>
-      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
         <v>64</v>
       </c>
@@ -2315,7 +2304,7 @@
         <v>203</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2331,12 +2320,8 @@
       <c r="J5" s="3">
         <v>5000</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L5" s="3">
-        <v>50</v>
-      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
         <v>65</v>
       </c>
@@ -2367,7 +2352,7 @@
         <v>217</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2383,12 +2368,8 @@
       <c r="J6" s="3">
         <v>5000</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="L6" s="3">
-        <v>5</v>
-      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>66</v>
       </c>
@@ -2419,7 +2400,7 @@
         <v>288</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -2435,12 +2416,8 @@
       <c r="J7" s="3">
         <v>5000</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="L7" s="3">
-        <v>10</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
         <v>64</v>
       </c>
@@ -2471,7 +2448,7 @@
         <v>223</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2488,10 +2465,10 @@
         <v>5000</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L8" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>65</v>
@@ -2523,7 +2500,7 @@
         <v>277</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2540,7 +2517,7 @@
         <v>5000</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L9" s="3">
         <v>3</v>
@@ -2569,16 +2546,16 @@
         <v>1400007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>300</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="4">
@@ -2594,7 +2571,7 @@
         <v>5000</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L10" s="3">
         <v>3</v>
@@ -2626,10 +2603,10 @@
         <v>228</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2645,12 +2622,8 @@
       <c r="J11" s="3">
         <v>5000</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="L11" s="3">
-        <v>35</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
         <v>65</v>
       </c>
@@ -2698,7 +2671,7 @@
         <v>5000</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L12" s="3">
         <v>3</v>
@@ -2733,7 +2706,7 @@
         <v>274</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2749,12 +2722,8 @@
       <c r="J13" s="3">
         <v>5000</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="L13" s="3">
-        <v>40</v>
-      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2785,7 +2754,7 @@
         <v>274</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2802,7 +2771,7 @@
         <v>5000</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L14" s="3">
         <v>3</v>
@@ -2838,7 +2807,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3185,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
         <v>2</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3</v>
       </c>
       <c r="Q4" s="3">
         <v>5</v>
@@ -3283,19 +3252,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3">
         <v>3</v>
       </c>
-      <c r="P5" s="3">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
         <v>2</v>
       </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>3</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2</v>
       </c>
       <c r="T5" s="3">
         <v>1</v>
@@ -4485,10 +4454,10 @@
   <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4597,7 +4566,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
         <v>154</v>
@@ -5029,7 +4998,7 @@
         <v>11105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C8" s="4">
         <v>3000</v>
@@ -5218,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -5611,7 +5580,7 @@
         <v>11305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C17" s="4">
         <v>10000</v>
@@ -5741,7 +5710,7 @@
         <v>11401</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="4">
         <v>2000</v>
@@ -5774,7 +5743,7 @@
         <v>200</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N19" s="4">
         <v>10</v>
@@ -5798,7 +5767,7 @@
         <v>8</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AA19" s="4">
         <v>2</v>
@@ -5877,7 +5846,7 @@
         <v>11403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C21" s="4">
         <v>5000</v>
@@ -6190,7 +6159,7 @@
         <v>11505</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C26" s="4">
         <v>10000</v>
@@ -6574,7 +6543,7 @@
         <v>11605</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C32" s="4">
         <v>10000</v>
@@ -6840,7 +6809,7 @@
         <v>11703</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C36" s="4">
         <v>10000</v>
@@ -7227,7 +7196,7 @@
         <v>11806</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C42" s="4">
         <v>6000</v>
@@ -7685,7 +7654,7 @@
         <v>12003</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C49" s="4">
         <v>10000</v>
@@ -8001,7 +7970,7 @@
         <v>12105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C54" s="4">
         <v>10000</v>
@@ -8010,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <v>21600</v>
+        <v>7200</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -8057,7 +8026,7 @@
         <v>11001</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C55" s="4">
         <v>1000</v>
@@ -8090,13 +8059,13 @@
         <v>200</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N55" s="4">
         <v>1</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P55" s="4">
         <v>1</v>
@@ -8108,7 +8077,7 @@
         <v>999</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA55" s="4">
         <v>1</v>
@@ -8119,7 +8088,7 @@
         <v>11002</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C56" s="4">
         <v>1000</v>
@@ -8152,13 +8121,13 @@
         <v>200</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N56" s="4">
         <v>1</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P56" s="4">
         <v>1</v>
@@ -8170,7 +8139,7 @@
         <v>999</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AA56" s="4">
         <v>1</v>
@@ -8214,7 +8183,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N57" s="4">
         <v>1</v>
@@ -8237,7 +8206,7 @@
         <v>11004</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C58" s="4">
         <v>1000</v>
@@ -8270,13 +8239,13 @@
         <v>200</v>
       </c>
       <c r="M58" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="N58" s="4">
-        <v>1</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="T58" s="4">
         <v>1</v>
@@ -8335,19 +8304,19 @@
         <v>200</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N59" s="4">
         <v>1</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="T59" s="4">
         <v>1</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="V59" s="4">
         <v>1</v>
@@ -8465,7 +8434,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N61" s="4">
         <v>1</v>
@@ -8521,7 +8490,7 @@
         <v>200</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N62" s="4">
         <v>1</v>
@@ -8544,7 +8513,7 @@
         <v>11009</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C63" s="4">
         <v>1000</v>
@@ -8577,7 +8546,7 @@
         <v>200</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N63" s="4">
         <v>1</v>
@@ -8589,7 +8558,7 @@
         <v>999</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AA63" s="4">
         <v>1</v>
@@ -8600,7 +8569,7 @@
         <v>20101</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C64" s="4">
         <v>23</v>
@@ -8633,22 +8602,22 @@
         <v>200</v>
       </c>
       <c r="M64" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="W64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="N64" s="4">
-        <v>1</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="P64" s="4">
-        <v>1</v>
-      </c>
-      <c r="W64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="AA64" s="4">
         <v>1</v>
@@ -8659,7 +8628,7 @@
         <v>20102</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C65" s="4">
         <v>23</v>
@@ -8692,13 +8661,13 @@
         <v>200</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N65" s="4">
         <v>1</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P65" s="4">
         <v>1</v>
@@ -8707,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA65" s="4">
         <v>1</v>
@@ -8718,7 +8687,7 @@
         <v>20103</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C66" s="4">
         <v>23</v>
@@ -8751,22 +8720,22 @@
         <v>200</v>
       </c>
       <c r="M66" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="P66" s="4">
+        <v>1</v>
+      </c>
+      <c r="W66" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="N66" s="4">
-        <v>1</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="P66" s="4">
-        <v>1</v>
-      </c>
-      <c r="W66" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="AA66" s="4">
         <v>1</v>
@@ -8777,7 +8746,7 @@
         <v>20104</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C67" s="4">
         <v>23</v>
@@ -8810,22 +8779,22 @@
         <v>200</v>
       </c>
       <c r="M67" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1</v>
+      </c>
+      <c r="W67" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="N67" s="4">
-        <v>1</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="P67" s="4">
-        <v>1</v>
-      </c>
-      <c r="W67" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="AA67" s="4">
         <v>1</v>
@@ -8836,7 +8805,7 @@
         <v>20201</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C68" s="4">
         <v>23</v>
@@ -8869,22 +8838,22 @@
         <v>200</v>
       </c>
       <c r="M68" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+      <c r="W68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="N68" s="4">
-        <v>1</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="P68" s="4">
-        <v>1</v>
-      </c>
-      <c r="W68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="AA68" s="4">
         <v>1</v>
@@ -8928,19 +8897,19 @@
         <v>200</v>
       </c>
       <c r="M69" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="T69" s="4">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="N69" s="4">
-        <v>1</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="T69" s="4">
-        <v>1</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="V69" s="4">
         <v>1</v>
@@ -8963,7 +8932,7 @@
         <v>20203</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C70" s="4">
         <v>23</v>
@@ -8996,13 +8965,13 @@
         <v>200</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N70" s="4">
         <v>1</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P70" s="4">
         <v>1</v>
@@ -9011,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA70" s="4">
         <v>1</v>
@@ -9022,7 +8991,7 @@
         <v>20205</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C71" s="4">
         <v>23</v>
@@ -9055,13 +9024,13 @@
         <v>200</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="N71" s="4">
         <v>1</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P71" s="4">
         <v>1</v>
@@ -9070,7 +9039,7 @@
         <v>2</v>
       </c>
       <c r="Z71" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AA71" s="4">
         <v>1</v>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24726857-AA12-4F24-8CCB-4E36EDFC6FE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="教学关卡怪组" sheetId="26" r:id="rId4"/>
     <sheet name="教学卡牌" sheetId="27" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="359">
   <si>
     <t>sheet名</t>
   </si>
@@ -1208,11 +1207,73 @@
     <t>head_gjj_1201004</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string:&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶获取教学</t>
+  </si>
+  <si>
+    <t>水晶削减教学</t>
+  </si>
+  <si>
+    <t>集中行动教学</t>
+  </si>
+  <si>
+    <t>追击教学</t>
+  </si>
+  <si>
+    <t>行动顺序教学</t>
+  </si>
+  <si>
+    <t>输出效率教学</t>
+  </si>
+  <si>
+    <t>水晶诅咒教学</t>
+  </si>
+  <si>
+    <t>避难与驱散</t>
+  </si>
+  <si>
+    <t>不死</t>
+  </si>
+  <si>
+    <t>综合测试1</t>
+  </si>
+  <si>
+    <t>综合测试2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1461,19 +1522,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1745,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1932,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2050,101 +2111,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="53.875" customWidth="1"/>
-    <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="48.75" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="19.625" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="23.125" customWidth="1"/>
-    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="53.875" customWidth="1"/>
+    <col min="5" max="5" width="50.875" customWidth="1"/>
+    <col min="6" max="6" width="48.75" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="23.125" customWidth="1"/>
+    <col min="19" max="19" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
+      <c r="B2" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>287</v>
+      <c r="D2" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>287</v>
@@ -2152,55 +2217,58 @@
       <c r="F2" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
       </c>
       <c r="O2" t="s">
         <v>47</v>
       </c>
       <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>286</v>
@@ -2209,589 +2277,625 @@
         <v>286</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="33" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1400001</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>5000</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
       <c r="O4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="33" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1400002</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>5000</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>1400001</v>
       </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
       <c r="P5" s="3">
         <v>1</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="33" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1400003</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>5000</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
         <v>1</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1400004</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="4">
+      <c r="G7" s="11"/>
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>4</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>5000</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>1400003</v>
       </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
       <c r="P7" s="3">
         <v>1</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1400005</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="4">
+      <c r="G8" s="11"/>
+      <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>5</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400004</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
       <c r="P8" s="3">
         <v>1</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1400006</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="4">
+      <c r="G9" s="11"/>
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>6</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400005</v>
       </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
       <c r="P9" s="3">
         <v>1</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="33" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1400007</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="G10" s="11"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
         <v>7</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400002</v>
       </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
       <c r="P10" s="3">
         <v>1</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1400008</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="11">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>8</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>5000</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
         <v>2</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1400009</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>247</v>
+      </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="12">
         <v>9</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400008</v>
       </c>
-      <c r="O12" s="3">
-        <v>1</v>
-      </c>
       <c r="P12" s="3">
         <v>1</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1400010</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
         <v>4</v>
       </c>
-      <c r="H13" s="12">
+      <c r="I13" s="12">
         <v>10</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>5000</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="L13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
         <v>1</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1400011</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
         <v>4</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>11</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5000</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1400010</v>
       </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
       <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>51</v>
       </c>
     </row>
@@ -2803,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4450,14 +4554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M58" sqref="M58"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4768,13 +4872,13 @@
         <v>279</v>
       </c>
       <c r="N4" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>280</v>
       </c>
       <c r="P4" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W4" s="4">
         <v>0</v>
@@ -4830,19 +4934,19 @@
         <v>250</v>
       </c>
       <c r="N5" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>186</v>
       </c>
       <c r="T5" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>245</v>
       </c>
       <c r="V5" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W5" s="4">
         <v>3</v>
@@ -4901,13 +5005,13 @@
         <v>251</v>
       </c>
       <c r="N6" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>255</v>
       </c>
       <c r="P6" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W6" s="4">
         <v>0</v>
@@ -4963,19 +5067,19 @@
         <v>185</v>
       </c>
       <c r="N7" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>193</v>
       </c>
       <c r="T7" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>216</v>
       </c>
       <c r="V7" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W7" s="4">
         <v>1</v>
@@ -5034,7 +5138,7 @@
         <v>211</v>
       </c>
       <c r="N8" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W8" s="4">
         <v>2</v>
@@ -5093,7 +5197,7 @@
         <v>255</v>
       </c>
       <c r="N9" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W9" s="4">
         <v>0</v>
@@ -5149,13 +5253,13 @@
         <v>249</v>
       </c>
       <c r="N10" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>193</v>
       </c>
       <c r="T10" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W10" s="4">
         <v>2</v>
@@ -5214,13 +5318,13 @@
         <v>252</v>
       </c>
       <c r="N11" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>256</v>
       </c>
       <c r="P11" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W11" s="4">
         <v>0</v>
@@ -5276,19 +5380,19 @@
         <v>192</v>
       </c>
       <c r="N12" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>194</v>
       </c>
       <c r="T12" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>187</v>
       </c>
       <c r="V12" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W12" s="4">
         <v>1</v>
@@ -5347,19 +5451,19 @@
         <v>210</v>
       </c>
       <c r="N13" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T13" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V13" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W13" s="4">
         <v>2</v>
@@ -5415,19 +5519,19 @@
         <v>249</v>
       </c>
       <c r="N14" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>193</v>
       </c>
       <c r="T14" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>216</v>
       </c>
       <c r="V14" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W14" s="4">
         <v>1</v>
@@ -5486,19 +5590,19 @@
         <v>209</v>
       </c>
       <c r="N15" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>186</v>
       </c>
       <c r="T15" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>245</v>
       </c>
       <c r="V15" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W15" s="4">
         <v>3</v>
@@ -5554,13 +5658,13 @@
         <v>253</v>
       </c>
       <c r="N16" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>257</v>
       </c>
       <c r="P16" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W16" s="4">
         <v>0</v>
@@ -5616,19 +5720,19 @@
         <v>211</v>
       </c>
       <c r="N17" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T17" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U17" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V17" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W17" s="4">
         <v>3</v>
@@ -5684,13 +5788,13 @@
         <v>254</v>
       </c>
       <c r="N18" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>258</v>
       </c>
       <c r="P18" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W18" s="4">
         <v>0</v>
@@ -5746,19 +5850,19 @@
         <v>302</v>
       </c>
       <c r="N19" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>215</v>
       </c>
       <c r="T19" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>216</v>
       </c>
       <c r="V19" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W19" s="4">
         <v>1</v>
@@ -5814,19 +5918,19 @@
         <v>214</v>
       </c>
       <c r="N20" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T20" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U20" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V20" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W20" s="4">
         <v>1</v>
@@ -5882,13 +5986,13 @@
         <v>211</v>
       </c>
       <c r="N21" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>271</v>
       </c>
       <c r="T21" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W21" s="4">
         <v>1</v>
@@ -5944,13 +6048,13 @@
         <v>221</v>
       </c>
       <c r="N22" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>186</v>
       </c>
       <c r="T22" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W22" s="4">
         <v>3</v>
@@ -6006,19 +6110,19 @@
         <v>185</v>
       </c>
       <c r="N23" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>193</v>
       </c>
       <c r="T23" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>216</v>
       </c>
       <c r="V23" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W23" s="4">
         <v>1</v>
@@ -6077,7 +6181,7 @@
         <v>209</v>
       </c>
       <c r="N24" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W24" s="4">
         <v>3</v>
@@ -6133,13 +6237,13 @@
         <v>253</v>
       </c>
       <c r="N25" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>257</v>
       </c>
       <c r="P25" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W25" s="4">
         <v>0</v>
@@ -6195,19 +6299,19 @@
         <v>211</v>
       </c>
       <c r="N26" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T26" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U26" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V26" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W26" s="4">
         <v>3</v>
@@ -6263,13 +6367,13 @@
         <v>254</v>
       </c>
       <c r="N27" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>258</v>
       </c>
       <c r="P27" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W27" s="4">
         <v>0</v>
@@ -6325,13 +6429,13 @@
         <v>221</v>
       </c>
       <c r="N28" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S28" s="4" t="s">
         <v>186</v>
       </c>
       <c r="T28" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W28" s="4">
         <v>1</v>
@@ -6387,13 +6491,13 @@
         <v>209</v>
       </c>
       <c r="N29" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>186</v>
       </c>
       <c r="T29" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W29" s="4">
         <v>1</v>
@@ -6449,19 +6553,19 @@
         <v>210</v>
       </c>
       <c r="N30" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T30" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U30" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V30" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W30" s="4">
         <v>2</v>
@@ -6517,13 +6621,13 @@
         <v>253</v>
       </c>
       <c r="N31" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>257</v>
       </c>
       <c r="P31" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W31" s="4">
         <v>0</v>
@@ -6579,19 +6683,19 @@
         <v>211</v>
       </c>
       <c r="N32" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T32" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U32" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V32" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W32" s="4">
         <v>3</v>
@@ -6647,13 +6751,13 @@
         <v>254</v>
       </c>
       <c r="N33" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>258</v>
       </c>
       <c r="P33" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W33" s="4">
         <v>0</v>
@@ -6709,19 +6813,19 @@
         <v>210</v>
       </c>
       <c r="N34" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T34" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U34" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V34" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W34" s="4">
         <v>2</v>
@@ -6777,19 +6881,19 @@
         <v>225</v>
       </c>
       <c r="N35" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>226</v>
       </c>
       <c r="T35" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>245</v>
       </c>
       <c r="V35" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W35" s="4">
         <v>3</v>
@@ -6845,7 +6949,7 @@
         <v>211</v>
       </c>
       <c r="N36" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W36" s="4">
         <v>2</v>
@@ -6901,19 +7005,19 @@
         <v>236</v>
       </c>
       <c r="N37" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S37" s="4" t="s">
         <v>240</v>
       </c>
       <c r="T37" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>216</v>
       </c>
       <c r="V37" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W37" s="4">
         <v>1</v>
@@ -6972,19 +7076,19 @@
         <v>237</v>
       </c>
       <c r="N38" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S38" s="4" t="s">
         <v>239</v>
       </c>
       <c r="T38" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>241</v>
       </c>
       <c r="V38" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W38" s="4">
         <v>3</v>
@@ -7043,19 +7147,19 @@
         <v>238</v>
       </c>
       <c r="N39" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T39" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>259</v>
       </c>
       <c r="V39" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4">
         <v>2</v>
@@ -7114,7 +7218,7 @@
         <v>234</v>
       </c>
       <c r="N40" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W40" s="4">
         <v>3</v>
@@ -7173,7 +7277,7 @@
         <v>235</v>
       </c>
       <c r="N41" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W41" s="4">
         <v>2</v>
@@ -7232,7 +7336,7 @@
         <v>211</v>
       </c>
       <c r="N42" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W42" s="4">
         <v>3</v>
@@ -7291,19 +7395,19 @@
         <v>210</v>
       </c>
       <c r="N43" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S43" s="4" t="s">
         <v>242</v>
       </c>
       <c r="T43" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U43" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V43" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W43" s="4">
         <v>2</v>
@@ -7359,19 +7463,19 @@
         <v>221</v>
       </c>
       <c r="N44" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>245</v>
       </c>
       <c r="T44" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U44" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V44" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W44" s="4">
         <v>3</v>
@@ -7427,7 +7531,7 @@
         <v>192</v>
       </c>
       <c r="N45" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W45" s="4">
         <v>2</v>
@@ -7483,7 +7587,7 @@
         <v>282</v>
       </c>
       <c r="N46" s="16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
@@ -7491,13 +7595,13 @@
         <v>186</v>
       </c>
       <c r="T46" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>245</v>
       </c>
       <c r="V46" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W46" s="4">
         <v>3</v>
@@ -7554,19 +7658,19 @@
         <v>210</v>
       </c>
       <c r="N47" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T47" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U47" s="4" t="s">
         <v>212</v>
       </c>
       <c r="V47" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W47" s="4">
         <v>2</v>
@@ -7622,19 +7726,19 @@
         <v>225</v>
       </c>
       <c r="N48" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>226</v>
       </c>
       <c r="T48" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>245</v>
       </c>
       <c r="V48" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W48" s="4">
         <v>3</v>
@@ -7690,13 +7794,13 @@
         <v>211</v>
       </c>
       <c r="N49" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S49" s="16" t="s">
         <v>186</v>
       </c>
       <c r="T49" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W49" s="4">
         <v>2</v>
@@ -7752,13 +7856,13 @@
         <v>210</v>
       </c>
       <c r="N50" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>187</v>
       </c>
       <c r="T50" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W50" s="4">
         <v>2</v>
@@ -7817,13 +7921,13 @@
         <v>234</v>
       </c>
       <c r="N51" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S51" s="4" t="s">
         <v>270</v>
       </c>
       <c r="T51" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W51" s="4">
         <v>3</v>
@@ -7882,7 +7986,7 @@
         <v>209</v>
       </c>
       <c r="N52" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W52" s="4">
         <v>1</v>
@@ -7938,19 +8042,19 @@
         <v>225</v>
       </c>
       <c r="N53" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>226</v>
       </c>
       <c r="T53" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U53" s="4" t="s">
         <v>245</v>
       </c>
       <c r="V53" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W53" s="4">
         <v>3</v>
@@ -8006,7 +8110,7 @@
         <v>211</v>
       </c>
       <c r="N54" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W54" s="4">
         <v>2</v>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8012F-434B-4FDC-94A1-7FB8C4091761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="教学关卡怪组" sheetId="26" r:id="rId4"/>
     <sheet name="教学卡牌" sheetId="27" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="352">
   <si>
     <t>sheet名</t>
   </si>
@@ -466,9 +467,6 @@
     <t>DefIgnor</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>SelfSkill[1].Id</t>
   </si>
   <si>
@@ -553,9 +551,6 @@
     <t>穿透</t>
   </si>
   <si>
-    <t>防御基值</t>
-  </si>
-  <si>
     <t>自身技能ID1</t>
   </si>
   <si>
@@ -1181,10 +1176,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>战斗曹焱兵技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵抽卡券</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1208,7 +1199,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>ExclusiveGuard</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属守护灵/寄灵人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能2(教学)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1216,64 +1215,36 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>string:&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶获取教学</t>
-  </si>
-  <si>
-    <t>水晶削减教学</t>
-  </si>
-  <si>
-    <t>集中行动教学</t>
-  </si>
-  <si>
-    <t>追击教学</t>
-  </si>
-  <si>
-    <t>行动顺序教学</t>
-  </si>
-  <si>
-    <t>输出效率教学</t>
-  </si>
-  <si>
-    <t>水晶诅咒教学</t>
-  </si>
-  <si>
-    <t>避难与驱散</t>
-  </si>
-  <si>
-    <t>不死</t>
-  </si>
-  <si>
-    <t>综合测试1</t>
-  </si>
-  <si>
-    <t>综合测试2</t>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一键</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgBonus</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterEffect</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场效果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1476,7 +1447,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,21 +1491,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1806,7 +1778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1993,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2028,7 +2000,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2067,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -2095,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -2111,20 +2083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="53.875" customWidth="1"/>
     <col min="5" max="5" width="50.875" customWidth="1"/>
@@ -2144,22 +2116,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
@@ -2203,7 +2175,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2212,13 +2184,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -2233,10 +2205,10 @@
         <v>47</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
@@ -2262,7 +2234,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -2271,13 +2243,13 @@
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>52</v>
@@ -2320,17 +2292,17 @@
       <c r="A4" s="3">
         <v>1400001</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>348</v>
+      <c r="B4" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2361,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S4" s="3">
         <v>51</v>
@@ -2371,17 +2343,17 @@
       <c r="A5" s="3">
         <v>1400002</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>349</v>
+      <c r="B5" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2412,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S5" s="3">
         <v>51</v>
@@ -2422,17 +2394,17 @@
       <c r="A6" s="3">
         <v>1400003</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>350</v>
+      <c r="B6" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2463,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S6" s="3">
         <v>51</v>
@@ -2473,17 +2445,17 @@
       <c r="A7" s="3">
         <v>1400004</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>351</v>
+      <c r="B7" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2514,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S7" s="3">
         <v>51</v>
@@ -2524,17 +2496,17 @@
       <c r="A8" s="3">
         <v>1400005</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>352</v>
+      <c r="B8" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -2551,7 +2523,7 @@
         <v>5000</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M8" s="3">
         <v>3</v>
@@ -2569,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S8" s="3">
         <v>51</v>
@@ -2579,17 +2551,17 @@
       <c r="A9" s="3">
         <v>1400006</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>353</v>
+      <c r="B9" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -2606,7 +2578,7 @@
         <v>5000</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M9" s="3">
         <v>3</v>
@@ -2624,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S9" s="3">
         <v>51</v>
@@ -2634,20 +2606,20 @@
       <c r="A10" s="3">
         <v>1400007</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>354</v>
+      <c r="B10" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="4">
@@ -2663,7 +2635,7 @@
         <v>5000</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M10" s="3">
         <v>3</v>
@@ -2681,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S10" s="3">
         <v>51</v>
@@ -2691,17 +2663,17 @@
       <c r="A11" s="3">
         <v>1400008</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>355</v>
+      <c r="B11" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2732,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S11" s="3">
         <v>51</v>
@@ -2742,17 +2714,17 @@
       <c r="A12" s="3">
         <v>1400009</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>356</v>
+      <c r="B12" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2769,7 +2741,7 @@
         <v>5000</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M12" s="3">
         <v>3</v>
@@ -2787,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S12" s="3">
         <v>51</v>
@@ -2797,17 +2769,17 @@
       <c r="A13" s="3">
         <v>1400010</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>357</v>
+      <c r="B13" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -2838,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S13" s="3">
         <v>51</v>
@@ -2848,17 +2820,17 @@
       <c r="A14" s="3">
         <v>1400011</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>358</v>
+      <c r="B14" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -2875,7 +2847,7 @@
         <v>5000</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
@@ -2893,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S14" s="3">
         <v>51</v>
@@ -2907,11 +2879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4362,7 +4334,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>20103</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -4371,55 +4343,55 @@
         <v>20101</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>20102</v>
       </c>
       <c r="F16" s="3">
-        <v>20102</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>20104</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>20103</v>
+        <v>20105</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>20104</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
         <v>2</v>
       </c>
       <c r="P16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
         <v>2</v>
       </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
       <c r="S16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U16" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V16" s="3">
         <v>0</v>
@@ -4449,101 +4421,6 @@
         <v>0</v>
       </c>
       <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>20203</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>20201</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20202</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>20205</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>4</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>6</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4554,14 +4431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4569,6 +4446,7 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.875" customWidth="1"/>
     <col min="14" max="14" width="15.75" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
@@ -4578,11 +4456,12 @@
     <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="12.375" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="13.25" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="22" max="23" width="13.25" customWidth="1"/>
+    <col min="27" max="27" width="21.875" customWidth="1"/>
+    <col min="29" max="29" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4617,226 +4496,244 @@
         <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC1" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" t="s">
         <v>154</v>
-      </c>
-      <c r="D2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" t="s">
-        <v>155</v>
       </c>
       <c r="N2" t="s">
         <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P2" t="s">
         <v>97</v>
       </c>
       <c r="Q2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R2" t="s">
         <v>97</v>
       </c>
       <c r="S2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T2" t="s">
         <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V2" t="s">
         <v>97</v>
       </c>
       <c r="W2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" t="s">
         <v>47</v>
-      </c>
-      <c r="X2" t="s">
-        <v>97</v>
       </c>
       <c r="Y2" t="s">
         <v>97</v>
       </c>
       <c r="Z2" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.2">
+      <c r="AC2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC3" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>11101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4">
         <v>500</v>
@@ -4869,36 +4766,36 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>11102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="4">
         <v>1000</v>
@@ -4931,45 +4828,45 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T5" s="4">
         <v>1</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V5" s="4">
         <v>1</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>3</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <v>4</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <v>5</v>
       </c>
-      <c r="Z5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>11103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4">
         <v>500</v>
@@ -5002,36 +4899,36 @@
         <v>200</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P6" s="4">
         <v>1</v>
       </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
         <v>5</v>
       </c>
-      <c r="Z6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>11104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="4">
         <v>3000</v>
@@ -5064,45 +4961,45 @@
         <v>200</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T7" s="4">
         <v>1</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
       </c>
-      <c r="W7" s="4">
-        <v>1</v>
-      </c>
       <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
         <v>4</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Z7" s="4">
         <v>5</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>11105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" s="4">
         <v>3000</v>
@@ -5135,33 +5032,33 @@
         <v>200</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N8" s="4">
         <v>1</v>
       </c>
-      <c r="W8" s="4">
+      <c r="X8" s="4">
         <v>2</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>4</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Z8" s="4">
         <v>5</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>11201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C9" s="4">
         <v>500</v>
@@ -5194,30 +5091,30 @@
         <v>200</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N9" s="4">
         <v>1</v>
       </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
         <v>5</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>11202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C10" s="4">
         <v>2000</v>
@@ -5250,39 +5147,39 @@
         <v>200</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
       </c>
       <c r="S10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
+      <c r="AB10" s="4">
         <v>2</v>
       </c>
-      <c r="X10" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>11203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="4">
         <v>1000</v>
@@ -5315,36 +5212,36 @@
         <v>200</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N11" s="4">
         <v>1</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P11" s="4">
         <v>1</v>
       </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
         <v>5</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11204</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" s="4">
         <v>10000</v>
@@ -5377,45 +5274,45 @@
         <v>200</v>
       </c>
       <c r="M12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="T12" s="4">
         <v>1</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V12" s="4">
         <v>1</v>
       </c>
-      <c r="W12" s="4">
-        <v>1</v>
-      </c>
       <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
         <v>6</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Z12" s="4">
         <v>5</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11301</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" s="4">
         <v>500</v>
@@ -5448,42 +5345,42 @@
         <v>200</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T13" s="4">
-        <v>1</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="V13" s="4">
         <v>1</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>2</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Z13" s="4">
         <v>5</v>
       </c>
-      <c r="Z13" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11302</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C14" s="4">
         <v>2000</v>
@@ -5516,45 +5413,45 @@
         <v>200</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
       </c>
       <c r="S14" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="T14" s="4">
-        <v>1</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="V14" s="4">
-        <v>1</v>
-      </c>
-      <c r="W14" s="4">
-        <v>1</v>
-      </c>
-      <c r="X14" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA14" s="4">
+      <c r="AB14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11303</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4">
         <v>2000</v>
@@ -5587,42 +5484,42 @@
         <v>200</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T15" s="4">
         <v>1</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V15" s="4">
         <v>1</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>3</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Z15" s="4">
         <v>5</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA15" s="4">
+      <c r="AA15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11304</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" s="4">
         <v>2000</v>
@@ -5655,36 +5552,36 @@
         <v>200</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
       </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="4">
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
         <v>5</v>
       </c>
-      <c r="Z16" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>11305</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C17" s="4">
         <v>10000</v>
@@ -5717,42 +5614,42 @@
         <v>200</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T17" s="4">
         <v>1</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V17" s="4">
         <v>1</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>3</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Z17" s="4">
         <v>5</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>11306</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="4">
         <v>2000</v>
@@ -5785,36 +5682,36 @@
         <v>200</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P18" s="4">
         <v>1</v>
       </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
         <v>5</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>11401</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C19" s="4">
         <v>2000</v>
@@ -5847,42 +5744,42 @@
         <v>200</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T19" s="4">
         <v>1</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V19" s="4">
         <v>1</v>
       </c>
-      <c r="W19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="4">
+      <c r="X19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="4">
         <v>8</v>
       </c>
-      <c r="Z19" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA19" s="4">
+      <c r="AA19" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>11402</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C20" s="4">
         <v>2000</v>
@@ -5915,42 +5812,42 @@
         <v>200</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T20" s="4">
         <v>1</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V20" s="4">
         <v>1</v>
       </c>
-      <c r="W20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="4">
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="4">
         <v>6</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA20" s="4">
+      <c r="AA20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>11403</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C21" s="4">
         <v>5000</v>
@@ -5983,36 +5880,36 @@
         <v>200</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N21" s="4">
         <v>1</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T21" s="4">
         <v>1</v>
       </c>
-      <c r="W21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="4">
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="4">
         <v>5</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB21" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>11501</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="4">
         <v>1500</v>
@@ -6045,36 +5942,36 @@
         <v>200</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N22" s="4">
         <v>1</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T22" s="4">
         <v>1</v>
       </c>
-      <c r="W22" s="4">
+      <c r="X22" s="4">
         <v>3</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Z22" s="4">
         <v>5</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB22" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>11502</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C23" s="4">
         <v>2000</v>
@@ -6107,45 +6004,45 @@
         <v>200</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T23" s="4">
         <v>1</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V23" s="4">
         <v>1</v>
       </c>
-      <c r="W23" s="4">
-        <v>1</v>
-      </c>
       <c r="X23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="4">
         <v>4</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Z23" s="4">
         <v>5</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA23" s="4">
+      <c r="AA23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB23" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>11503</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C24" s="4">
         <v>500</v>
@@ -6178,30 +6075,30 @@
         <v>200</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N24" s="4">
         <v>1</v>
       </c>
-      <c r="W24" s="4">
+      <c r="X24" s="4">
         <v>3</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Z24" s="4">
         <v>5</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>11504</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" s="4">
         <v>2000</v>
@@ -6234,36 +6131,36 @@
         <v>200</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P25" s="4">
         <v>1</v>
       </c>
-      <c r="W25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
         <v>5</v>
       </c>
-      <c r="Z25" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>11505</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C26" s="4">
         <v>10000</v>
@@ -6296,42 +6193,42 @@
         <v>200</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T26" s="4">
         <v>1</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V26" s="4">
         <v>1</v>
       </c>
-      <c r="W26" s="4">
+      <c r="X26" s="4">
         <v>3</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Z26" s="4">
         <v>5</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB26" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11506</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C27" s="4">
         <v>2000</v>
@@ -6364,36 +6261,36 @@
         <v>200</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N27" s="4">
         <v>1</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P27" s="4">
         <v>1</v>
       </c>
-      <c r="W27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="4">
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
         <v>5</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>11601</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C28" s="4">
         <v>1000</v>
@@ -6426,36 +6323,36 @@
         <v>200</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T28" s="4">
         <v>1</v>
       </c>
-      <c r="W28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="4">
+      <c r="X28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="4">
         <v>5</v>
       </c>
-      <c r="Z28" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA28" s="4">
+      <c r="AA28" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB28" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>11602</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C29" s="4">
         <v>500</v>
@@ -6488,36 +6385,36 @@
         <v>200</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N29" s="4">
         <v>1</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T29" s="4">
         <v>1</v>
       </c>
-      <c r="W29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="4">
+      <c r="X29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="4">
         <v>5</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA29" s="4">
+      <c r="AA29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB29" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>11603</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C30" s="4">
         <v>1000</v>
@@ -6550,42 +6447,42 @@
         <v>200</v>
       </c>
       <c r="M30" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T30" s="4">
-        <v>1</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="V30" s="4">
         <v>1</v>
       </c>
-      <c r="W30" s="4">
+      <c r="X30" s="4">
         <v>2</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Z30" s="4">
         <v>5</v>
       </c>
-      <c r="Z30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA30" s="4">
+      <c r="AA30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB30" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>11604</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C31" s="4">
         <v>1000</v>
@@ -6618,36 +6515,36 @@
         <v>200</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N31" s="4">
         <v>1</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P31" s="4">
         <v>1</v>
       </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="4">
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
         <v>5</v>
       </c>
-      <c r="Z31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>11605</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C32" s="4">
         <v>10000</v>
@@ -6680,42 +6577,42 @@
         <v>200</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N32" s="4">
         <v>1</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T32" s="4">
         <v>1</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V32" s="4">
         <v>1</v>
       </c>
-      <c r="W32" s="4">
+      <c r="X32" s="4">
         <v>3</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="Z32" s="4">
         <v>5</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA32" s="4">
+      <c r="AA32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB32" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>11606</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C33" s="4">
         <v>1000</v>
@@ -6748,36 +6645,36 @@
         <v>200</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P33" s="4">
         <v>1</v>
       </c>
-      <c r="W33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="4">
+      <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="4">
         <v>5</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>11701</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C34" s="4">
         <v>2000</v>
@@ -6810,42 +6707,42 @@
         <v>200</v>
       </c>
       <c r="M34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T34" s="4">
+        <v>1</v>
+      </c>
+      <c r="U34" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T34" s="4">
-        <v>1</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="V34" s="4">
         <v>1</v>
       </c>
-      <c r="W34" s="4">
+      <c r="X34" s="4">
         <v>2</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="Z34" s="4">
         <v>5</v>
       </c>
-      <c r="Z34" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA34" s="4">
+      <c r="AA34" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB34" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>11702</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C35" s="4">
         <v>1000</v>
@@ -6878,42 +6775,42 @@
         <v>200</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N35" s="4">
         <v>1</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T35" s="4">
         <v>1</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V35" s="4">
         <v>1</v>
       </c>
-      <c r="W35" s="4">
+      <c r="X35" s="4">
         <v>3</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Z35" s="4">
         <v>5</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA35" s="4">
+      <c r="AA35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB35" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>11703</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C36" s="4">
         <v>10000</v>
@@ -6946,30 +6843,30 @@
         <v>200</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N36" s="4">
         <v>1</v>
       </c>
-      <c r="W36" s="4">
+      <c r="X36" s="4">
         <v>2</v>
       </c>
-      <c r="Y36" s="4">
+      <c r="Z36" s="4">
         <v>5</v>
       </c>
-      <c r="Z36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA36" s="4">
+      <c r="AA36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB36" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>11801</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C37" s="4">
         <v>2000</v>
@@ -7002,45 +6899,45 @@
         <v>200</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N37" s="4">
         <v>1</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T37" s="4">
         <v>1</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V37" s="4">
         <v>1</v>
       </c>
-      <c r="W37" s="4">
-        <v>1</v>
-      </c>
       <c r="X37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
         <v>4</v>
       </c>
-      <c r="Y37" s="4">
+      <c r="Z37" s="4">
         <v>5</v>
       </c>
-      <c r="Z37" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA37" s="4">
+      <c r="AA37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB37" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>11802</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C38" s="4">
         <v>2000</v>
@@ -7073,45 +6970,45 @@
         <v>200</v>
       </c>
       <c r="M38" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="S38" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="N38" s="4">
-        <v>1</v>
-      </c>
-      <c r="S38" s="4" t="s">
+      <c r="T38" s="4">
+        <v>1</v>
+      </c>
+      <c r="U38" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="T38" s="4">
-        <v>1</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="V38" s="4">
         <v>1</v>
       </c>
-      <c r="W38" s="4">
+      <c r="X38" s="4">
         <v>3</v>
       </c>
-      <c r="X38" s="4">
+      <c r="Y38" s="4">
         <v>4</v>
       </c>
-      <c r="Y38" s="4">
+      <c r="Z38" s="4">
         <v>5</v>
       </c>
-      <c r="Z38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA38" s="4">
+      <c r="AA38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB38" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>11803</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C39" s="4">
         <v>2000</v>
@@ -7144,45 +7041,45 @@
         <v>200</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N39" s="4">
         <v>1</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T39" s="4">
         <v>1</v>
       </c>
       <c r="U39" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="X39" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="V39" s="4">
-        <v>1</v>
-      </c>
-      <c r="W39" s="4">
+      <c r="AB39" s="4">
         <v>2</v>
       </c>
-      <c r="X39" s="4">
-        <v>4</v>
-      </c>
-      <c r="Y39" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>11804</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C40" s="4">
         <v>6000</v>
@@ -7215,33 +7112,33 @@
         <v>200</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N40" s="4">
         <v>1</v>
       </c>
-      <c r="W40" s="4">
+      <c r="X40" s="4">
         <v>3</v>
       </c>
-      <c r="X40" s="4">
+      <c r="Y40" s="4">
         <v>4</v>
       </c>
-      <c r="Y40" s="4">
+      <c r="Z40" s="4">
         <v>5</v>
       </c>
-      <c r="Z40" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA40" s="4">
+      <c r="AA40" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB40" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>11805</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C41" s="4">
         <v>6000</v>
@@ -7274,33 +7171,33 @@
         <v>200</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N41" s="4">
         <v>1</v>
       </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
         <v>2</v>
       </c>
-      <c r="X41" s="4">
+      <c r="Y41" s="4">
         <v>4</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="Z41" s="4">
         <v>5</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA41" s="4">
+      <c r="AA41" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB41" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>11806</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C42" s="4">
         <v>6000</v>
@@ -7333,33 +7230,33 @@
         <v>200</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N42" s="4">
         <v>1</v>
       </c>
-      <c r="W42" s="4">
+      <c r="X42" s="4">
         <v>3</v>
       </c>
-      <c r="X42" s="4">
+      <c r="Y42" s="4">
         <v>4</v>
       </c>
-      <c r="Y42" s="4">
+      <c r="Z42" s="4">
         <v>5</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA42" s="4">
+      <c r="AA42" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB42" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>11901</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C43" s="4">
         <v>1000</v>
@@ -7392,42 +7289,42 @@
         <v>200</v>
       </c>
       <c r="M43" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="T43" s="4">
+        <v>1</v>
+      </c>
+      <c r="U43" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N43" s="4">
-        <v>1</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="T43" s="4">
-        <v>1</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="V43" s="4">
         <v>1</v>
       </c>
-      <c r="W43" s="4">
+      <c r="X43" s="4">
         <v>2</v>
       </c>
-      <c r="Y43" s="4">
+      <c r="Z43" s="4">
         <v>5</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA43" s="4">
+      <c r="AA43" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB43" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>11902</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C44" s="4">
         <v>1000</v>
@@ -7460,42 +7357,42 @@
         <v>200</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N44" s="4">
         <v>1</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T44" s="4">
         <v>1</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="V44" s="4">
         <v>1</v>
       </c>
-      <c r="W44" s="4">
+      <c r="X44" s="4">
         <v>3</v>
       </c>
-      <c r="Y44" s="4">
+      <c r="Z44" s="4">
         <v>5</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA44" s="4">
+      <c r="AA44" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB44" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>11903</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" s="4">
         <v>1000</v>
@@ -7528,30 +7425,30 @@
         <v>200</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="N45" s="4">
         <v>1</v>
       </c>
-      <c r="W45" s="4">
+      <c r="X45" s="4">
         <v>2</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="Z45" s="4">
         <v>5</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA45" s="4">
+      <c r="AA45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB45" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>11904</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C46" s="11">
         <v>2000</v>
@@ -7584,7 +7481,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N46" s="16">
         <v>1</v>
@@ -7592,37 +7489,38 @@
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
       <c r="S46" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T46" s="4">
         <v>1</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V46" s="4">
         <v>1</v>
       </c>
-      <c r="W46" s="4">
+      <c r="W46" s="4"/>
+      <c r="X46" s="4">
         <v>3</v>
       </c>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4">
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4">
         <v>5</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA46" s="4">
+      <c r="AA46" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB46" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>12001</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C47" s="4">
         <v>2000</v>
@@ -7655,42 +7553,42 @@
         <v>200</v>
       </c>
       <c r="M47" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="T47" s="4">
+        <v>1</v>
+      </c>
+      <c r="U47" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T47" s="4">
-        <v>1</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="V47" s="4">
         <v>1</v>
       </c>
-      <c r="W47" s="4">
+      <c r="X47" s="4">
         <v>2</v>
       </c>
-      <c r="Y47" s="4">
+      <c r="Z47" s="4">
         <v>5</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA47" s="4">
+      <c r="AA47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB47" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>12002</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C48" s="4">
         <v>1500</v>
@@ -7723,42 +7621,42 @@
         <v>200</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N48" s="4">
         <v>1</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T48" s="4">
         <v>1</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V48" s="4">
         <v>1</v>
       </c>
-      <c r="W48" s="4">
+      <c r="X48" s="4">
         <v>3</v>
       </c>
-      <c r="Y48" s="4">
+      <c r="Z48" s="4">
         <v>5</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA48" s="4">
+      <c r="AA48" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB48" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>12003</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C49" s="4">
         <v>10000</v>
@@ -7791,36 +7689,36 @@
         <v>200</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N49" s="4">
         <v>1</v>
       </c>
       <c r="S49" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+      <c r="X49" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="T49" s="4">
-        <v>1</v>
-      </c>
-      <c r="W49" s="4">
+      <c r="AB49" s="4">
         <v>2</v>
       </c>
-      <c r="Y49" s="4">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA49" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>12101</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C50" s="4">
         <v>1500</v>
@@ -7853,39 +7751,39 @@
         <v>200</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N50" s="4">
         <v>1</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T50" s="4">
         <v>1</v>
       </c>
-      <c r="W50" s="4">
+      <c r="X50" s="4">
         <v>2</v>
       </c>
-      <c r="X50" s="4">
+      <c r="Y50" s="4">
         <v>4</v>
       </c>
-      <c r="Y50" s="4">
+      <c r="Z50" s="4">
         <v>5</v>
       </c>
-      <c r="Z50" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA50" s="4">
+      <c r="AA50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB50" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>12102</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C51" s="4">
         <v>2000</v>
@@ -7918,39 +7816,39 @@
         <v>200</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N51" s="4">
         <v>1</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="T51" s="4">
         <v>1</v>
       </c>
-      <c r="W51" s="4">
+      <c r="X51" s="4">
         <v>3</v>
       </c>
-      <c r="X51" s="4">
+      <c r="Y51" s="4">
         <v>4</v>
       </c>
-      <c r="Y51" s="4">
+      <c r="Z51" s="4">
         <v>5</v>
       </c>
-      <c r="Z51" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA51" s="4">
+      <c r="AA51" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB51" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>12103</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C52" s="4">
         <v>1000</v>
@@ -7983,30 +7881,30 @@
         <v>200</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N52" s="4">
         <v>1</v>
       </c>
-      <c r="W52" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="4">
+      <c r="X52" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="4">
         <v>5</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA52" s="4">
+      <c r="AA52" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB52" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>12104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C53" s="4">
         <v>1000</v>
@@ -8039,42 +7937,42 @@
         <v>200</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N53" s="4">
         <v>1</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T53" s="4">
         <v>1</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="V53" s="4">
         <v>1</v>
       </c>
-      <c r="W53" s="4">
+      <c r="X53" s="4">
         <v>3</v>
       </c>
-      <c r="Y53" s="4">
+      <c r="Z53" s="4">
         <v>5</v>
       </c>
-      <c r="Z53" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA53" s="4">
+      <c r="AA53" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB53" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>12105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C54" s="4">
         <v>10000</v>
@@ -8107,30 +8005,30 @@
         <v>200</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N54" s="4">
         <v>1</v>
       </c>
-      <c r="W54" s="4">
+      <c r="X54" s="4">
         <v>2</v>
       </c>
-      <c r="Y54" s="4">
+      <c r="Z54" s="4">
         <v>5</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA54" s="4">
+      <c r="AA54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB54" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>11001</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C55" s="4">
         <v>1000</v>
@@ -8163,36 +8061,36 @@
         <v>200</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N55" s="4">
         <v>1</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P55" s="4">
         <v>1</v>
       </c>
-      <c r="W55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="4">
+      <c r="X55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="4">
         <v>999</v>
       </c>
-      <c r="Z55" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>11002</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C56" s="4">
         <v>1000</v>
@@ -8225,36 +8123,36 @@
         <v>200</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N56" s="4">
         <v>1</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P56" s="4">
         <v>1</v>
       </c>
-      <c r="W56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="4">
+      <c r="X56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="4">
         <v>999</v>
       </c>
-      <c r="Z56" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>11003</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57" s="4">
         <v>1000</v>
@@ -8287,30 +8185,30 @@
         <v>200</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N57" s="4">
         <v>1</v>
       </c>
-      <c r="W57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="4">
+      <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="4">
         <v>999</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>11004</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C58" s="4">
         <v>1000</v>
@@ -8343,39 +8241,39 @@
         <v>200</v>
       </c>
       <c r="M58" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="N58" s="4">
-        <v>1</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="T58" s="4">
         <v>1</v>
       </c>
-      <c r="W58" s="4">
+      <c r="X58" s="4">
         <v>2</v>
       </c>
-      <c r="X58" s="4">
+      <c r="Y58" s="4">
         <v>6</v>
       </c>
-      <c r="Y58" s="4">
+      <c r="Z58" s="4">
         <v>999</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA58" s="4">
+      <c r="AA58" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB58" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>11005</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C59" s="4">
         <v>1000</v>
@@ -8408,45 +8306,45 @@
         <v>200</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N59" s="4">
         <v>1</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="T59" s="4">
         <v>1</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="V59" s="4">
         <v>1</v>
       </c>
-      <c r="W59" s="4">
-        <v>1</v>
-      </c>
       <c r="X59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="4">
         <v>6</v>
       </c>
-      <c r="Y59" s="4">
+      <c r="Z59" s="4">
         <v>999</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA59" s="4">
+      <c r="AA59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB59" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>11006</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C60" s="4">
         <v>1000</v>
@@ -8479,33 +8377,33 @@
         <v>200</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N60" s="4">
         <v>1</v>
       </c>
-      <c r="W60" s="4">
+      <c r="X60" s="4">
         <v>3</v>
       </c>
-      <c r="X60" s="4">
+      <c r="Y60" s="4">
         <v>6</v>
       </c>
-      <c r="Y60" s="4">
+      <c r="Z60" s="4">
         <v>999</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA60" s="4">
+      <c r="AA60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB60" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>11007</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C61" s="4">
         <v>1000</v>
@@ -8538,30 +8436,30 @@
         <v>200</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N61" s="4">
         <v>1</v>
       </c>
-      <c r="W61" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="4">
+      <c r="X61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="4">
         <v>999</v>
       </c>
-      <c r="Z61" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>11008</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C62" s="4">
         <v>1000</v>
@@ -8594,30 +8492,30 @@
         <v>200</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="N62" s="4">
         <v>1</v>
       </c>
-      <c r="W62" s="4">
+      <c r="X62" s="4">
         <v>2</v>
       </c>
-      <c r="Y62" s="4">
+      <c r="Z62" s="4">
         <v>999</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>11009</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C63" s="4">
         <v>1000</v>
@@ -8650,30 +8548,30 @@
         <v>200</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N63" s="4">
         <v>1</v>
       </c>
-      <c r="W63" s="4">
+      <c r="X63" s="4">
         <v>3</v>
       </c>
-      <c r="Y63" s="4">
+      <c r="Z63" s="4">
         <v>999</v>
       </c>
-      <c r="Z63" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>20101</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C64" s="4">
         <v>23</v>
@@ -8706,33 +8604,33 @@
         <v>200</v>
       </c>
       <c r="M64" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="X64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="N64" s="4">
-        <v>1</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="P64" s="4">
-        <v>1</v>
-      </c>
-      <c r="W64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AB64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>20102</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="C65" s="4">
         <v>23</v>
@@ -8770,28 +8668,37 @@
       <c r="N65" s="4">
         <v>1</v>
       </c>
-      <c r="O65" s="4" t="s">
+      <c r="S65" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="P65" s="4">
-        <v>1</v>
-      </c>
-      <c r="W65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="T65" s="4">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>20103</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="C66" s="4">
         <v>23</v>
@@ -8800,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="4">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F66" s="4">
         <v>0</v>
@@ -8824,33 +8731,33 @@
         <v>200</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N66" s="4">
         <v>1</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="P66" s="4">
         <v>1</v>
       </c>
-      <c r="W66" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="X66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>20104</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C67" s="4">
         <v>23</v>
@@ -8859,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F67" s="4">
         <v>0</v>
@@ -8883,33 +8790,33 @@
         <v>200</v>
       </c>
       <c r="M67" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="P67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="N67" s="4">
-        <v>1</v>
-      </c>
-      <c r="O67" s="4" t="s">
+      <c r="AB67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>20105</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="P67" s="4">
-        <v>1</v>
-      </c>
-      <c r="W67" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>20201</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C68" s="4">
         <v>23</v>
@@ -8918,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="4">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="F68" s="4">
         <v>0</v>
@@ -8942,210 +8849,24 @@
         <v>200</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N68" s="4">
         <v>1</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P68" s="4">
         <v>1</v>
       </c>
-      <c r="W68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>20202</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C69" s="4">
-        <v>23</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>109</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
-        <v>0</v>
-      </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0</v>
-      </c>
-      <c r="L69" s="4">
-        <v>200</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="N69" s="4">
-        <v>1</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="T69" s="4">
-        <v>1</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="V69" s="4">
-        <v>1</v>
-      </c>
-      <c r="W69" s="4">
-        <v>1</v>
-      </c>
-      <c r="X69" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z69" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA69" s="4">
+      <c r="X68" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>20203</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C70" s="4">
-        <v>23</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>109</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0</v>
-      </c>
-      <c r="L70" s="4">
-        <v>200</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="N70" s="4">
-        <v>1</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="P70" s="4">
-        <v>1</v>
-      </c>
-      <c r="W70" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>20205</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C71" s="4">
-        <v>23</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>150</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0</v>
-      </c>
-      <c r="L71" s="4">
-        <v>200</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="N71" s="4">
-        <v>1</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="P71" s="4">
-        <v>1</v>
-      </c>
-      <c r="W71" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z71" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA71" s="4">
+      <c r="AA68" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB68" s="4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB8012F-434B-4FDC-94A1-7FB8C4091761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7DB8E-EF36-44E9-B542-438BE5F17435}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="教学关卡" sheetId="28" r:id="rId3"/>
     <sheet name="教学关卡怪组" sheetId="26" r:id="rId4"/>
     <sheet name="教学卡牌" sheetId="27" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="31" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="301">
   <si>
     <t>sheet名</t>
   </si>
@@ -596,648 +597,462 @@
     <t>卡类型1-寄灵人2-守护灵</t>
   </si>
   <si>
-    <t>李轩辕</t>
+    <t>head_xc_1102002</t>
+  </si>
+  <si>
+    <t>水晶削减教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用削减水晶能力拖延敌方召唤，快速击杀其寄灵人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能快速获取水晶来击败敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>许褚</t>
-  </si>
-  <si>
-    <t>许褚技能(教学)</t>
-  </si>
-  <si>
-    <t>怒斩(教学)</t>
-  </si>
-  <si>
-    <t>黄昏之殇(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>当某个敌人威胁过大时，尝试集中某个角色行动优先击杀该敌人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中行动教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动顺序教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理安排行动顺序很重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动模式训练</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>避难与驱散</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定技能可以斩杀处于不死状态中的项羽</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合测试1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合测试2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>试着自己通关吧！</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合训练</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出效率教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时需要先清理杂鱼，再集中高伤害技能攻击一个目标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuideTXT[1]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuideTXT[2]</t>
+  </si>
+  <si>
+    <t>GuideTXT[3]</t>
+  </si>
+  <si>
+    <t>引导文本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发追击技能意味着只使用1个行动位就释放了2个甚至3个技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-2</t>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;守护灵&lt;/color&gt;拥有远远强于&lt;color=#df4c4c&gt;寄灵人&lt;/color&gt;的战斗能力</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时战斗能力强的敌方角色需要被&lt;color=#df4c4c&gt;优先击杀&lt;/color&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲黑板了，&lt;color=#df4c4c&gt;本关没有提示！&lt;/color&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击达到&lt;color=#df4c4c&gt;一定次数&lt;/color&gt;才能打破敌人身上的护盾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在合适的时机&lt;color=#df4c4c&gt;削减敌人水晶&lt;/color&gt;，可以有效延缓敌人召唤守护灵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意观察敌人血量，合理安排&lt;color=#df4c4c&gt;技能释放顺序&lt;/color&gt;，会让通关变得更简单</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力的技能不要浪费在不重要的敌人上</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>避难状态中的敌人不受到任何直接伤害类的攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;合理使用&lt;/color&gt;技能可以获得&lt;color=#df4c4c&gt;额外的水晶&lt;/color&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过水晶诅咒机制可以获得大量水晶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶诅咒教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_cxl_1101002</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽17</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的水晶普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_jsgb2_1201002</t>
+  </si>
+  <si>
+    <t>鬼将军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军普通伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军超级伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_zdcyb_1101007</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;绝技&lt;/color&gt;通常能造成更高伤害</t>
+  </si>
+  <si>
+    <t>head_gjj_1201004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExclusiveGuard</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属守护灵/寄灵人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗曹焱兵技能2(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一键</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgBonus</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterEffect</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场效果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石瀑将军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物带吸血攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石瀑将军群体伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人吸血教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏铃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍刀鬼兵的普攻</t>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏铃技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+  </si>
+  <si>
+    <t>曹玄亮技能2</t>
+  </si>
+  <si>
+    <t>常服夏铃技能2</t>
+  </si>
+  <si>
+    <t>于禁技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽23</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_spjj_1201009</t>
+  </si>
+  <si>
+    <t>head_yj_1102015</t>
+  </si>
+  <si>
+    <t>head_tly_1102004</t>
+  </si>
+  <si>
+    <t>head_cfcyb_1101001</t>
+  </si>
+  <si>
+    <t>head_cfxl_1101041</t>
+  </si>
+  <si>
+    <t>head_nmj_1102050</t>
+  </si>
+  <si>
+    <t>双刃鬼兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃鬼兵的普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏铃技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃鬼兵的水晶普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的水晶普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_jsgb3_1201003</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_jsgb1_1201001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关食火蜥免伤护盾</t>
+  </si>
+  <si>
+    <t>石瀑将军单体伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_shx_1102019</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>head_sbls_1102013</t>
   </si>
   <si>
-    <t>常服曹焱兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项昆仑</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项羽技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁断之刃(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>断罪(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_slm_1102014</t>
-  </si>
-  <si>
-    <t>head_xkl_1101004</t>
-  </si>
-  <si>
-    <t>head_xy_1102006</t>
-  </si>
-  <si>
-    <t>head_lxy_1102005</t>
-  </si>
-  <si>
-    <t>head_xc_1102002</t>
-  </si>
-  <si>
-    <t>水晶获取教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶削减教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用削减水晶能力拖延敌方召唤，快速击杀其寄灵人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用技能快速获取水晶来击败敌人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘羽禅</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>断罪(教学)</t>
-  </si>
-  <si>
-    <t>许褚</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>背水一战(教学)</t>
-  </si>
-  <si>
-    <t>嗜血(教学)</t>
-  </si>
-  <si>
-    <t>当某个敌人威胁过大时，尝试集中某个角色行动优先击杀该敌人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中行动教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>追击教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈风螳螂技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动顺序教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>合理安排行动顺序很重要</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张郃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张郃技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼魄(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动模式训练</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>避难与驱散</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使缇娜技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼魄(教学)</t>
-  </si>
-  <si>
-    <t>禁断之刃(教学)</t>
-  </si>
-  <si>
-    <t>救赎(教学)</t>
-  </si>
-  <si>
-    <t>惩戒(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄昏之殇(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不死</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定技能可以斩杀处于不死状态中的项羽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灵明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灵明技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能1(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项昆仑技能1(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒技能1(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘羽禅技能1(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能2(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>项昆仑技能2(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎风吒技能2(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘羽禅技能2(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>惩戒(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_cfcyb_1101001</t>
-  </si>
-  <si>
-    <t>head_dw_1102003</t>
-  </si>
-  <si>
-    <t>head_yfz_1101011</t>
-  </si>
-  <si>
-    <t>head_lyc_1101005</t>
-  </si>
-  <si>
-    <t>head_lftl_1102021</t>
-  </si>
-  <si>
-    <t>head_zh_1102010</t>
-  </si>
-  <si>
-    <t>head_tstn_1102007</t>
-  </si>
-  <si>
-    <t>head_fl_1102017</t>
-  </si>
-  <si>
-    <t>head_zf_1102011</t>
-  </si>
-  <si>
-    <t>head_xhd_1102012</t>
-  </si>
-  <si>
-    <t>增幅(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害抵抗(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合测试1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合测试2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>试着自己通关吧！</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合训练</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出效率教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时需要先清理杂鱼，再集中高伤害技能攻击一个目标</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>北落师门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>北落师门技能1(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>北落师门技能2(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_blsm_1101009</t>
-  </si>
-  <si>
-    <t>夏侯惇技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuideTXT[1]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>GuideTXT[2]</t>
-  </si>
-  <si>
-    <t>GuideTXT[3]</t>
-  </si>
-  <si>
-    <t>引导文本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发追击技能意味着只使用1个行动位就释放了2个甚至3个技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_chilianjie_4-2</t>
-  </si>
-  <si>
-    <t>&lt;color=#df4c4c&gt;守护灵&lt;/color&gt;拥有远远强于&lt;color=#df4c4c&gt;寄灵人&lt;/color&gt;的战斗能力</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时战斗能力强的敌方角色需要被&lt;color=#df4c4c&gt;优先击杀&lt;/color&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲黑板了，&lt;color=#df4c4c&gt;本关没有提示！&lt;/color&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击达到&lt;color=#df4c4c&gt;一定次数&lt;/color&gt;才能打破敌人身上的护盾</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>在合适的时机&lt;color=#df4c4c&gt;削减敌人水晶&lt;/color&gt;，可以有效延缓敌人召唤守护灵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意观察敌人血量，合理安排&lt;color=#df4c4c&gt;技能释放顺序&lt;/color&gt;，会让通关变得更简单</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>强力的技能不要浪费在不重要的敌人上</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>避难状态中的敌人不受到任何直接伤害类的攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#df4c4c&gt;合理使用&lt;/color&gt;技能可以获得&lt;color=#df4c4c&gt;额外的水晶&lt;/color&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过水晶诅咒机制可以获得大量水晶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶诅咒教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹玄亮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_cxl_1101002</t>
-  </si>
-  <si>
-    <t>战斗曹焱兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_zdcyb_1101007</t>
-  </si>
-  <si>
-    <t>吕仙宫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_lxg_1101014</t>
-  </si>
-  <si>
-    <t>新手战斗曹玄亮技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗曹玄亮技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗战斗曹焱兵技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗战斗曹焱兵技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗北落师门技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗塞伯罗斯技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗许褚技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗插槽1追击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗阎风吒技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗项昆仑技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗吕仙宫技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手战斗插槽2追击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_gy_1102001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹玄亮技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹玄亮技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽17</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽19</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀鬼兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀鬼兵的普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀鬼兵的水晶普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_jsgb2_1201002</t>
-  </si>
-  <si>
-    <t>鬼将军</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼将军普通伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼将军超级伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯洛斯</t>
-  </si>
-  <si>
-    <t>战斗曹焱兵技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵抽卡券</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_zdcyb_1101007</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#df4c4c&gt;绝技&lt;/color&gt;通常能造成更高伤害</t>
-  </si>
-  <si>
-    <t>head_gjj_1201004</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExclusiveGuard</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属守护灵/寄灵人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗曹焱兵技能2(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一键</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DmgBonus</t>
-  </si>
-  <si>
-    <t>增伤</t>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterEffect</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>入场效果</t>
+    <t>插槽24</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关塞伯罗斯加攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1447,7 +1262,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1480,17 +1295,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
@@ -1955,7 +1764,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1999,8 +1808,8 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>241</v>
+      <c r="C2" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2038,8 +1847,8 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>225</v>
+      <c r="B5" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -2066,8 +1875,8 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>273</v>
+      <c r="B7" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -2090,7 +1899,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2116,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -2125,13 +1934,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
@@ -2174,8 +1983,8 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>345</v>
+      <c r="B2" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2183,14 +1992,14 @@
       <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>285</v>
+      <c r="E2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -2204,11 +2013,11 @@
       <c r="K2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>338</v>
+      <c r="L2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
@@ -2234,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>346</v>
+        <v>248</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -2243,13 +2052,13 @@
         <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>52</v>
@@ -2293,16 +2102,16 @@
         <v>1400001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2310,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>63</v>
@@ -2333,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S4" s="3">
         <v>51</v>
@@ -2344,16 +2153,16 @@
         <v>1400002</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2361,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>63</v>
@@ -2384,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S5" s="3">
         <v>51</v>
@@ -2395,16 +2204,16 @@
         <v>1400003</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2412,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>63</v>
@@ -2435,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S6" s="3">
         <v>51</v>
@@ -2446,24 +2255,24 @@
         <v>1400004</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="12">
-        <v>4</v>
+      <c r="I7" s="3">
+        <v>13</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>63</v>
@@ -2486,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S7" s="3">
         <v>51</v>
@@ -2497,24 +2306,24 @@
         <v>1400005</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
-        <v>5</v>
+      <c r="I8" s="3">
+        <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>63</v>
@@ -2523,7 +2332,7 @@
         <v>5000</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="M8" s="3">
         <v>3</v>
@@ -2541,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S8" s="3">
         <v>51</v>
@@ -2552,24 +2361,24 @@
         <v>1400006</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="12">
-        <v>6</v>
+      <c r="I9" s="3">
+        <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>63</v>
@@ -2578,7 +2387,7 @@
         <v>5000</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="M9" s="3">
         <v>3</v>
@@ -2596,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S9" s="3">
         <v>51</v>
@@ -2607,26 +2416,26 @@
         <v>1400007</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>339</v>
+        <v>241</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="12">
-        <v>7</v>
+      <c r="I10" s="3">
+        <v>13</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>63</v>
@@ -2635,7 +2444,7 @@
         <v>5000</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="M10" s="3">
         <v>3</v>
@@ -2653,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S10" s="3">
         <v>51</v>
@@ -2664,24 +2473,24 @@
         <v>1400008</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
         <v>3</v>
       </c>
-      <c r="I11" s="12">
-        <v>8</v>
+      <c r="I11" s="3">
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>63</v>
@@ -2704,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S11" s="3">
         <v>51</v>
@@ -2715,24 +2524,24 @@
         <v>1400009</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11">
         <v>3</v>
       </c>
-      <c r="I12" s="12">
-        <v>9</v>
+      <c r="I12" s="3">
+        <v>13</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>63</v>
@@ -2741,7 +2550,7 @@
         <v>5000</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="M12" s="3">
         <v>3</v>
@@ -2759,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S12" s="3">
         <v>51</v>
@@ -2770,24 +2579,24 @@
         <v>1400010</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11">
         <v>4</v>
       </c>
-      <c r="I13" s="12">
-        <v>10</v>
+      <c r="I13" s="3">
+        <v>13</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>63</v>
@@ -2810,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S13" s="3">
         <v>51</v>
@@ -2821,24 +2630,24 @@
         <v>1400011</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11">
         <v>4</v>
       </c>
-      <c r="I14" s="12">
-        <v>11</v>
+      <c r="I14" s="3">
+        <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>63</v>
@@ -2847,7 +2656,7 @@
         <v>5000</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
@@ -2865,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="S14" s="3">
         <v>51</v>
@@ -2880,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3191,19 +3000,19 @@
     </row>
     <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>11103</v>
+        <v>20103</v>
       </c>
       <c r="C4" s="3">
-        <v>11104</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>11101</v>
+        <v>20101</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>20102</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -3212,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>20104</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>11105</v>
+        <v>20105</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -3230,55 +3039,55 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>5</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>4</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
         <v>3</v>
       </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>5</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>3</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
       <c r="AD4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="3">
         <v>0</v>
@@ -3286,85 +3095,85 @@
     </row>
     <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10102</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10103</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10101</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>11201</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11202</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>11203</v>
-      </c>
-      <c r="K5" s="3">
-        <v>11204</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>2</v>
-      </c>
-      <c r="S5" s="3">
-        <v>3</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3">
-        <v>2</v>
-      </c>
-      <c r="V5" s="3">
-        <v>2</v>
-      </c>
-      <c r="W5" s="3">
-        <v>3</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>3</v>
-      </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
@@ -3381,1047 +3190,352 @@
     </row>
     <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>301</v>
       </c>
       <c r="B6" s="3">
-        <v>11301</v>
+        <v>30106</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>30109</v>
       </c>
       <c r="D6" s="3">
-        <v>11302</v>
+        <v>30104</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>30107</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>30105</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>30108</v>
       </c>
       <c r="H6" s="3">
-        <v>11304</v>
+        <v>30101</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>11305</v>
+        <v>30102</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>30103</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O6" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>9</v>
-      </c>
-      <c r="R6" s="3">
-        <v>9</v>
-      </c>
-      <c r="S6" s="3">
-        <v>9</v>
-      </c>
-      <c r="T6" s="3">
-        <v>9</v>
-      </c>
-      <c r="U6" s="3">
-        <v>9</v>
-      </c>
-      <c r="V6" s="3">
-        <v>9</v>
-      </c>
-      <c r="W6" s="3">
-        <v>9</v>
-      </c>
-      <c r="X6" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>302</v>
       </c>
       <c r="B7" s="3">
-        <v>11401</v>
+        <v>30204</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>30205</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>30206</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>30207</v>
       </c>
       <c r="F7" s="3">
-        <v>11402</v>
+        <v>30208</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>30209</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>30201</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>11403</v>
+        <v>30202</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>30203</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="B8" s="3">
-        <v>11501</v>
+        <v>30306</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>30307</v>
       </c>
       <c r="D8" s="3">
-        <v>11502</v>
+        <v>30304</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>30305</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>30308</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>30309</v>
       </c>
       <c r="H8" s="3">
-        <v>11504</v>
+        <v>30301</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>11505</v>
+        <v>30302</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>30303</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="B9" s="3">
-        <v>11601</v>
+        <v>30402</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>11602</v>
+        <v>30403</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>11603</v>
+        <v>30404</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>11604</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>11605</v>
+        <v>30401</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>11606</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V9" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W9" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X9" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>11701</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>11702</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>11703</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1</v>
-      </c>
-      <c r="V10" s="3">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>11802</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>11803</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>11805</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>11806</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>5</v>
-      </c>
-      <c r="O11" s="3">
-        <v>5</v>
-      </c>
-      <c r="P11" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>5</v>
-      </c>
-      <c r="R11" s="3">
-        <v>5</v>
-      </c>
-      <c r="S11" s="3">
-        <v>5</v>
-      </c>
-      <c r="T11" s="3">
-        <v>5</v>
-      </c>
-      <c r="U11" s="3">
-        <v>5</v>
-      </c>
-      <c r="V11" s="3">
-        <v>5</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11901</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11902</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>11903</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>11904</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>6</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6</v>
-      </c>
-      <c r="P12" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>6</v>
-      </c>
-      <c r="R12" s="3">
-        <v>6</v>
-      </c>
-      <c r="S12" s="3">
-        <v>6</v>
-      </c>
-      <c r="T12" s="3">
-        <v>6</v>
-      </c>
-      <c r="U12" s="3">
-        <v>6</v>
-      </c>
-      <c r="V12" s="3">
-        <v>6</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12001</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>12002</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>12003</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>5</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <v>5</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12101</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>12102</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>12103</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>12104</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>12105</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>6</v>
-      </c>
-      <c r="O14" s="3">
-        <v>6</v>
-      </c>
-      <c r="P14" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>6</v>
-      </c>
-      <c r="R14" s="3">
-        <v>6</v>
-      </c>
-      <c r="S14" s="3">
-        <v>6</v>
-      </c>
-      <c r="T14" s="3">
-        <v>6</v>
-      </c>
-      <c r="U14" s="3">
-        <v>6</v>
-      </c>
-      <c r="V14" s="3">
-        <v>6</v>
-      </c>
-      <c r="W14" s="3">
-        <v>6</v>
-      </c>
-      <c r="X14" s="3">
-        <v>6</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>6</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>6</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>6</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>11001</v>
-      </c>
-      <c r="C15" s="3">
-        <v>11004</v>
-      </c>
-      <c r="D15" s="3">
-        <v>11002</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11005</v>
-      </c>
-      <c r="F15" s="3">
-        <v>11003</v>
-      </c>
-      <c r="G15" s="3">
-        <v>11006</v>
-      </c>
-      <c r="H15" s="3">
-        <v>11007</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>11008</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>11009</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>3</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>3</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>20103</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>20101</v>
-      </c>
-      <c r="E16" s="3">
-        <v>20102</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>20104</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>20105</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>2</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>2</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>5</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>4</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4432,13 +3546,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4453,7 +3567,7 @@
     <col min="16" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.875" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="19" max="19" width="21.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.375" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
     <col min="22" max="23" width="13.25" customWidth="1"/>
@@ -4496,7 +3610,7 @@
         <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>138</v>
@@ -4529,7 +3643,7 @@
         <v>147</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>148</v>
@@ -4547,15 +3661,15 @@
         <v>152</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>341</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>332</v>
+      <c r="B2" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
@@ -4584,8 +3698,8 @@
       <c r="K2" t="s">
         <v>153</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>349</v>
+      <c r="L2" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="M2" t="s">
         <v>154</v>
@@ -4636,7 +3750,7 @@
         <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>338</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.2">
@@ -4674,7 +3788,7 @@
         <v>165</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>166</v>
@@ -4707,7 +3821,7 @@
         <v>175</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>176</v>
@@ -4725,24 +3839,24 @@
         <v>180</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>342</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>11101</v>
+        <v>20101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="C4" s="4">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>3000</v>
+        <v>109</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -4763,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="P4" s="4">
         <v>1</v>
@@ -4780,11 +3894,8 @@
       <c r="X4" s="4">
         <v>0</v>
       </c>
-      <c r="Z4" s="4">
-        <v>5</v>
-      </c>
       <c r="AA4" s="3" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="AB4" s="4">
         <v>1</v>
@@ -4792,19 +3903,19 @@
     </row>
     <row r="5" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>11102</v>
+        <v>20102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>20000</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -4825,37 +3936,34 @@
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="N5" s="4">
         <v>1</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="T5" s="4">
         <v>1</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="V5" s="4">
         <v>1</v>
       </c>
       <c r="X5" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="4">
         <v>4</v>
       </c>
-      <c r="Z5" s="4">
-        <v>5</v>
-      </c>
       <c r="AA5" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="AB5" s="4">
         <v>2</v>
@@ -4863,19 +3971,19 @@
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>11103</v>
+        <v>20103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C6" s="4">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>3000</v>
+        <v>109</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -4896,16 +4004,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="N6" s="4">
         <v>1</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="P6" s="4">
         <v>1</v>
@@ -4913,11 +4021,8 @@
       <c r="X6" s="4">
         <v>0</v>
       </c>
-      <c r="Z6" s="4">
-        <v>5</v>
-      </c>
       <c r="AA6" s="3" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AB6" s="4">
         <v>1</v>
@@ -4925,19 +4030,19 @@
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>11104</v>
+        <v>20104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="C7" s="4">
-        <v>3000</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>20000</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -4958,57 +4063,45 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T7" s="4">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="V7" s="4">
+      <c r="O7" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="P7" s="4">
         <v>1</v>
       </c>
       <c r="X7" s="4">
         <v>1</v>
       </c>
-      <c r="Y7" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>5</v>
-      </c>
       <c r="AA7" s="3" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AB7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>11105</v>
+        <v>20105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="C8" s="4">
-        <v>3000</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>12000</v>
+        <v>240</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -5029,45 +4122,45 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="P8" s="4">
         <v>1</v>
       </c>
       <c r="X8" s="4">
         <v>2</v>
       </c>
-      <c r="Y8" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>5</v>
-      </c>
       <c r="AA8" s="3" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="AB8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>11201</v>
+        <v>10101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C9" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>6000</v>
+        <v>400</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -5088,22 +4181,25 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P9" s="4">
+        <v>10</v>
       </c>
       <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="AB9" s="4">
         <v>1</v>
@@ -5111,19 +4207,19 @@
     </row>
     <row r="10" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>11202</v>
+        <v>10102</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -5144,51 +4240,39 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X10" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="AB10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>11203</v>
+        <v>10103</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="C11" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>13000</v>
+        <v>160</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -5209,28 +4293,19 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="P11" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="AB11" s="4">
         <v>1</v>
@@ -5238,19 +4313,19 @@
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>11204</v>
+        <v>30101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C12" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>30000</v>
+        <v>200</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -5271,57 +4346,39 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="T12" s="4">
-        <v>1</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V12" s="4">
-        <v>1</v>
-      </c>
       <c r="X12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="AB12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>11301</v>
+        <v>30102</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C13" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -5342,54 +4399,39 @@
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T13" s="4">
-        <v>1</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V13" s="4">
-        <v>1</v>
-      </c>
       <c r="X13" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="AB13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>11302</v>
+        <v>30103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C14" s="4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -5410,57 +4452,39 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T14" s="4">
-        <v>1</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="V14" s="4">
-        <v>1</v>
-      </c>
       <c r="X14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="AB14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>11303</v>
+        <v>30104</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="C15" s="4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -5481,54 +4505,45 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" s="4">
-        <v>1</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="O15" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="P15" s="4">
         <v>1</v>
       </c>
       <c r="X15" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="AB15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>11304</v>
+        <v>30105</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C16" s="4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -5549,16 +4564,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
@@ -5566,11 +4581,8 @@
       <c r="X16" s="4">
         <v>0</v>
       </c>
-      <c r="Z16" s="4">
-        <v>5</v>
-      </c>
       <c r="AA16" s="3" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AB16" s="4">
         <v>1</v>
@@ -5578,19 +4590,19 @@
     </row>
     <row r="17" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>11305</v>
+        <v>30106</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="C17" s="4">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -5611,54 +4623,45 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V17" s="4">
+      <c r="O17" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="4">
         <v>1</v>
       </c>
       <c r="X17" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="AB17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>11306</v>
+        <v>30107</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="C18" s="4">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -5679,48 +4682,48 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="P18" s="4">
         <v>1</v>
       </c>
       <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>4</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="AB18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>11401</v>
+        <v>30108</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="C19" s="4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -5741,34 +4744,28 @@
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
       </c>
-      <c r="S19" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="T19" s="4">
-        <v>1</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="V19" s="4">
+      <c r="O19" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P19" s="4">
         <v>1</v>
       </c>
       <c r="X19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>4</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="AB19" s="4">
         <v>2</v>
@@ -5776,19 +4773,19 @@
     </row>
     <row r="20" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>11402</v>
+        <v>30109</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="C20" s="4">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -5809,34 +4806,28 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T20" s="4">
-        <v>1</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V20" s="4">
+      <c r="O20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P20" s="4">
         <v>1</v>
       </c>
       <c r="X20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>4</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="AB20" s="4">
         <v>2</v>
@@ -5844,19 +4835,19 @@
     </row>
     <row r="21" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>11403</v>
+        <v>30201</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="C21" s="4">
-        <v>5000</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -5877,48 +4868,45 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="N21" s="4">
         <v>1</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="O21" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P21" s="4">
         <v>1</v>
       </c>
       <c r="X21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="AB21" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>11501</v>
+        <v>30202</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
       <c r="C22" s="4">
-        <v>1500</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -5939,48 +4927,45 @@
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="N22" s="4">
         <v>1</v>
       </c>
-      <c r="S22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="O22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P22" s="4">
         <v>1</v>
       </c>
       <c r="X22" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AB22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>11502</v>
+        <v>30203</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="C23" s="4">
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -6001,57 +4986,45 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
       </c>
-      <c r="S23" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T23" s="4">
-        <v>1</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="V23" s="4">
+      <c r="O23" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P23" s="4">
         <v>1</v>
       </c>
       <c r="X23" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="AB23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>11503</v>
+        <v>30204</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="C24" s="4">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -6072,42 +5045,45 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="N24" s="4">
         <v>1</v>
       </c>
+      <c r="O24" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
       <c r="X24" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="AB24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>11504</v>
+        <v>30205</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="C25" s="4">
-        <v>2000</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -6128,48 +5104,42 @@
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="P25" s="4">
-        <v>1</v>
-      </c>
       <c r="X25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>4</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AB25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>11505</v>
+        <v>30206</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>333</v>
+        <v>220</v>
       </c>
       <c r="C26" s="4">
-        <v>10000</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <v>18000</v>
+        <v>200</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -6190,54 +5160,45 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
       </c>
-      <c r="S26" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T26" s="4">
-        <v>1</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V26" s="4">
+      <c r="O26" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="P26" s="4">
         <v>1</v>
       </c>
       <c r="X26" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="AB26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>11506</v>
+        <v>30207</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="C27" s="4">
-        <v>2000</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -6258,48 +5219,42 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="N27" s="4">
         <v>1</v>
       </c>
-      <c r="O27" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P27" s="4">
-        <v>1</v>
-      </c>
       <c r="X27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="4">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>4</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="AB27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>11601</v>
+        <v>30208</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="C28" s="4">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -6320,48 +5275,45 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
       </c>
-      <c r="S28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T28" s="4">
+      <c r="O28" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P28" s="4">
         <v>1</v>
       </c>
       <c r="X28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="AB28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>11602</v>
+        <v>30209</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="C29" s="4">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -6382,28 +5334,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="N29" s="4">
         <v>1</v>
       </c>
-      <c r="S29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T29" s="4">
-        <v>1</v>
-      </c>
       <c r="X29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>4</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="AB29" s="4">
         <v>2</v>
@@ -6411,19 +5357,19 @@
     </row>
     <row r="30" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>11603</v>
+        <v>30301</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="C30" s="4">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>5000</v>
+        <v>80</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -6444,54 +5390,45 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="N30" s="4">
         <v>1</v>
       </c>
-      <c r="S30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T30" s="4">
-        <v>1</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V30" s="4">
+      <c r="O30" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="P30" s="4">
         <v>1</v>
       </c>
       <c r="X30" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="AB30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>11604</v>
+        <v>30302</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="C31" s="4">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -6512,28 +5449,25 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="N31" s="4">
         <v>1</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P31" s="4">
         <v>1</v>
       </c>
       <c r="X31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="AB31" s="4">
         <v>1</v>
@@ -6541,19 +5475,19 @@
     </row>
     <row r="32" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>11605</v>
+        <v>30303</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="C32" s="4">
-        <v>10000</v>
+        <v>80</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -6574,54 +5508,45 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="N32" s="4">
         <v>1</v>
       </c>
-      <c r="S32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T32" s="4">
-        <v>1</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V32" s="4">
+      <c r="O32" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P32" s="4">
         <v>1</v>
       </c>
       <c r="X32" s="4">
         <v>3</v>
       </c>
-      <c r="Z32" s="4">
-        <v>5</v>
-      </c>
       <c r="AA32" s="3" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="AB32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>11606</v>
+        <v>30304</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="C33" s="4">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -6642,16 +5567,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="P33" s="4">
         <v>1</v>
@@ -6659,11 +5584,8 @@
       <c r="X33" s="4">
         <v>0</v>
       </c>
-      <c r="Z33" s="4">
-        <v>5</v>
-      </c>
       <c r="AA33" s="3" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AB33" s="4">
         <v>1</v>
@@ -6671,19 +5593,19 @@
     </row>
     <row r="34" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>11701</v>
+        <v>30305</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="C34" s="4">
-        <v>2000</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -6704,34 +5626,28 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="S34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T34" s="4">
-        <v>1</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V34" s="4">
+      <c r="O34" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P34" s="4">
         <v>1</v>
       </c>
       <c r="X34" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>4</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AB34" s="4">
         <v>2</v>
@@ -6739,19 +5655,19 @@
     </row>
     <row r="35" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>11702</v>
+        <v>30306</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C35" s="4">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -6772,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>223</v>
@@ -6780,46 +5696,37 @@
       <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="O35" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="T35" s="4">
-        <v>1</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V35" s="4">
+      <c r="P35" s="4">
         <v>1</v>
       </c>
       <c r="X35" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="AB35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>11703</v>
+        <v>30307</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
       <c r="C36" s="4">
-        <v>10000</v>
+        <v>85</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -6840,22 +5747,28 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P36" s="4">
         <v>1</v>
       </c>
       <c r="X36" s="4">
         <v>2</v>
       </c>
-      <c r="Z36" s="4">
-        <v>5</v>
+      <c r="Y36" s="4">
+        <v>4</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="AB36" s="4">
         <v>2</v>
@@ -6863,19 +5776,19 @@
     </row>
     <row r="37" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>11801</v>
+        <v>30308</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C37" s="4">
-        <v>2000</v>
+        <v>55</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -6896,57 +5809,45 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="N37" s="4">
         <v>1</v>
       </c>
-      <c r="S37" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="T37" s="4">
-        <v>1</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="V37" s="4">
+      <c r="O37" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P37" s="4">
         <v>1</v>
       </c>
       <c r="X37" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="AB37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>11802</v>
+        <v>30309</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="C38" s="4">
-        <v>2000</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>6000</v>
+        <v>200</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -6967,24 +5868,18 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="N38" s="4">
         <v>1</v>
       </c>
-      <c r="S38" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="T38" s="4">
-        <v>1</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="V38" s="4">
+      <c r="O38" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P38" s="4">
         <v>1</v>
       </c>
       <c r="X38" s="4">
@@ -6993,11 +5888,8 @@
       <c r="Y38" s="4">
         <v>4</v>
       </c>
-      <c r="Z38" s="4">
-        <v>5</v>
-      </c>
       <c r="AA38" s="3" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="AB38" s="4">
         <v>2</v>
@@ -7005,19 +5897,19 @@
     </row>
     <row r="39" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>11803</v>
+        <v>30401</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="C39" s="4">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -7038,57 +5930,45 @@
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="N39" s="4">
         <v>1</v>
       </c>
-      <c r="S39" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T39" s="4">
-        <v>1</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="V39" s="4">
+      <c r="O39" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="P39" s="4">
         <v>1</v>
       </c>
       <c r="X39" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z39" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="AB39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>11804</v>
+        <v>30402</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="C40" s="4">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -7109,45 +5989,54 @@
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="N40" s="4">
         <v>1</v>
       </c>
+      <c r="S40" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="T40" s="4">
+        <v>1</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
       <c r="X40" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="4">
         <v>4</v>
       </c>
-      <c r="Z40" s="4">
-        <v>5</v>
-      </c>
       <c r="AA40" s="3" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AB40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>11805</v>
+        <v>30403</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C41" s="4">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -7168,12 +6057,24 @@
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V41" s="4">
         <v>1</v>
       </c>
       <c r="X41" s="4">
@@ -7182,31 +6083,28 @@
       <c r="Y41" s="4">
         <v>4</v>
       </c>
-      <c r="Z41" s="4">
-        <v>5</v>
-      </c>
       <c r="AA41" s="3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AB41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>11806</v>
+        <v>30404</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="C42" s="4">
-        <v>6000</v>
+        <v>50</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -7227,12 +6125,24 @@
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="T42" s="4">
+        <v>1</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V42" s="4">
         <v>1</v>
       </c>
       <c r="X42" s="4">
@@ -7241,1632 +6151,10 @@
       <c r="Y42" s="4">
         <v>4</v>
       </c>
-      <c r="Z42" s="4">
-        <v>5</v>
-      </c>
       <c r="AA42" s="3" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="AB42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>11901</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>200</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N43" s="4">
-        <v>1</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="T43" s="4">
-        <v>1</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V43" s="4">
-        <v>1</v>
-      </c>
-      <c r="X43" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z43" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>11902</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
-        <v>200</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N44" s="4">
-        <v>1</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="T44" s="4">
-        <v>1</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V44" s="4">
-        <v>1</v>
-      </c>
-      <c r="X44" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z44" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>11903</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>200</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="N45" s="4">
-        <v>1</v>
-      </c>
-      <c r="X45" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z45" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB45" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>11904</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <v>3500</v>
-      </c>
-      <c r="F46" s="16">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16">
-        <v>0</v>
-      </c>
-      <c r="H46" s="16">
-        <v>0</v>
-      </c>
-      <c r="I46" s="16">
-        <v>0</v>
-      </c>
-      <c r="J46" s="16">
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <v>0</v>
-      </c>
-      <c r="L46" s="16">
-        <v>200</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="N46" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T46" s="4">
-        <v>1</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V46" s="4">
-        <v>1</v>
-      </c>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>12001</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4">
-        <v>200</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T47" s="4">
-        <v>1</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V47" s="4">
-        <v>1</v>
-      </c>
-      <c r="X47" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z47" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB47" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>12002</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4">
-        <v>200</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="N48" s="4">
-        <v>1</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="T48" s="4">
-        <v>1</v>
-      </c>
-      <c r="U48" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V48" s="4">
-        <v>1</v>
-      </c>
-      <c r="X48" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z48" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>12003</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C49" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>18000</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4">
-        <v>200</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N49" s="4">
-        <v>1</v>
-      </c>
-      <c r="S49" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="T49" s="4">
-        <v>1</v>
-      </c>
-      <c r="X49" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z49" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB49" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>12101</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>6000</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4">
-        <v>200</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N50" s="4">
-        <v>1</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="T50" s="4">
-        <v>1</v>
-      </c>
-      <c r="X50" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y50" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z50" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>12102</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>6000</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4">
-        <v>200</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="N51" s="4">
-        <v>1</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="T51" s="4">
-        <v>1</v>
-      </c>
-      <c r="X51" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y51" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z51" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA51" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>12103</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1800</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4">
-        <v>0</v>
-      </c>
-      <c r="L52" s="4">
-        <v>200</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="N52" s="4">
-        <v>1</v>
-      </c>
-      <c r="X52" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB52" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>12104</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5400</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="L53" s="4">
-        <v>200</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="N53" s="4">
-        <v>1</v>
-      </c>
-      <c r="S53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="T53" s="4">
-        <v>1</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V53" s="4">
-        <v>1</v>
-      </c>
-      <c r="X53" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z53" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA53" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>12105</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="4">
-        <v>10000</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0</v>
-      </c>
-      <c r="E54" s="4">
-        <v>7200</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
-      <c r="L54" s="4">
-        <v>200</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N54" s="4">
-        <v>1</v>
-      </c>
-      <c r="X54" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="4">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB54" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>11001</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-      <c r="E55" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0</v>
-      </c>
-      <c r="L55" s="4">
-        <v>200</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="N55" s="4">
-        <v>1</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="P55" s="4">
-        <v>1</v>
-      </c>
-      <c r="X55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA55" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB55" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>11002</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C56" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0</v>
-      </c>
-      <c r="E56" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0</v>
-      </c>
-      <c r="L56" s="4">
-        <v>200</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="P56" s="4">
-        <v>1</v>
-      </c>
-      <c r="X56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB56" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>11003</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D57" s="4">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0</v>
-      </c>
-      <c r="L57" s="4">
-        <v>200</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="N57" s="4">
-        <v>1</v>
-      </c>
-      <c r="X57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>11004</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C58" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D58" s="4">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4">
-        <v>200</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N58" s="4">
-        <v>1</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="T58" s="4">
-        <v>1</v>
-      </c>
-      <c r="X58" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y58" s="4">
-        <v>6</v>
-      </c>
-      <c r="Z58" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>11005</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D59" s="4">
-        <v>0</v>
-      </c>
-      <c r="E59" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <v>0</v>
-      </c>
-      <c r="L59" s="4">
-        <v>200</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="N59" s="4">
-        <v>1</v>
-      </c>
-      <c r="S59" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="T59" s="4">
-        <v>1</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="V59" s="4">
-        <v>1</v>
-      </c>
-      <c r="X59" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="4">
-        <v>6</v>
-      </c>
-      <c r="Z59" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB59" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>11006</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
-      </c>
-      <c r="E60" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4">
-        <v>0</v>
-      </c>
-      <c r="L60" s="4">
-        <v>200</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="N60" s="4">
-        <v>1</v>
-      </c>
-      <c r="X60" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y60" s="4">
-        <v>6</v>
-      </c>
-      <c r="Z60" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB60" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>11007</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D61" s="4">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4">
-        <v>7000</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-      <c r="L61" s="4">
-        <v>200</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="N61" s="4">
-        <v>1</v>
-      </c>
-      <c r="X61" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z61" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA61" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>11008</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D62" s="4">
-        <v>0</v>
-      </c>
-      <c r="E62" s="4">
-        <v>10000</v>
-      </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="K62" s="4">
-        <v>0</v>
-      </c>
-      <c r="L62" s="4">
-        <v>200</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="N62" s="4">
-        <v>1</v>
-      </c>
-      <c r="X62" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z62" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>11009</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <v>5000</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4">
-        <v>200</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="N63" s="4">
-        <v>1</v>
-      </c>
-      <c r="X63" s="4">
-        <v>3</v>
-      </c>
-      <c r="Z63" s="4">
-        <v>999</v>
-      </c>
-      <c r="AA63" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AB63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>20101</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64" s="4">
-        <v>23</v>
-      </c>
-      <c r="D64" s="4">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>109</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0</v>
-      </c>
-      <c r="L64" s="4">
-        <v>200</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="N64" s="4">
-        <v>1</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="P64" s="4">
-        <v>1</v>
-      </c>
-      <c r="X64" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>20102</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="4">
-        <v>23</v>
-      </c>
-      <c r="D65" s="4">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>109</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4">
-        <v>0</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-      <c r="L65" s="4">
-        <v>200</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="N65" s="4">
-        <v>1</v>
-      </c>
-      <c r="S65" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="T65" s="4">
-        <v>1</v>
-      </c>
-      <c r="U65" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="V65" s="4">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="4">
-        <v>4</v>
-      </c>
-      <c r="AA65" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB65" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>20103</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C66" s="4">
-        <v>23</v>
-      </c>
-      <c r="D66" s="4">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>109</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0</v>
-      </c>
-      <c r="K66" s="4">
-        <v>0</v>
-      </c>
-      <c r="L66" s="4">
-        <v>200</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N66" s="4">
-        <v>1</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="P66" s="4">
-        <v>1</v>
-      </c>
-      <c r="X66" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>20104</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C67" s="4">
-        <v>23</v>
-      </c>
-      <c r="D67" s="4">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>60</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0</v>
-      </c>
-      <c r="L67" s="4">
-        <v>200</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="N67" s="4">
-        <v>1</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="P67" s="4">
-        <v>1</v>
-      </c>
-      <c r="X67" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>20105</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C68" s="4">
-        <v>23</v>
-      </c>
-      <c r="D68" s="4">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>240</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
-        <v>0</v>
-      </c>
-      <c r="I68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-      <c r="L68" s="4">
-        <v>200</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="N68" s="4">
-        <v>1</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="P68" s="4">
-        <v>1</v>
-      </c>
-      <c r="X68" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA68" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB68" s="4">
         <v>1</v>
       </c>
     </row>
@@ -8875,4 +6163,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1995A07-68D2-4CB7-AACB-36D99AE2BCEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/drill.教学关卡.xlsx
+++ b/Excel/镇魂街/drill.教学关卡.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC7DB8E-EF36-44E9-B542-438BE5F17435}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEF07B0-24F0-4CE0-BE69-42DCA9074CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="310">
   <si>
     <t>sheet名</t>
   </si>
@@ -756,304 +756,331 @@
     <t>head_cxl_1101002</t>
   </si>
   <si>
+    <t>曹玄亮技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽17</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼将军普通伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;绝技&lt;/color&gt;通常能造成更高伤害</t>
+  </si>
+  <si>
+    <t>ExclusiveGuard</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属守护灵/寄灵人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一键</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgBonus</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterEffect</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>入场效果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石瀑将军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨技能(教学)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物带吸血攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>石瀑将军群体伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人吸血教学</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+  </si>
+  <si>
+    <t>曹玄亮技能2</t>
+  </si>
+  <si>
+    <t>于禁技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬精技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽23</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_spjj_1201009</t>
+  </si>
+  <si>
+    <t>head_yj_1102015</t>
+  </si>
+  <si>
+    <t>head_tly_1102004</t>
+  </si>
+  <si>
+    <t>head_cfcyb_1101001</t>
+  </si>
+  <si>
+    <t>head_nmj_1102050</t>
+  </si>
+  <si>
+    <t>双刃鬼兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃鬼兵的普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃鬼兵的水晶普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>链球鬼兵的水晶普攻</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关食火蜥免伤护盾</t>
+  </si>
+  <si>
+    <t>石瀑将军单体伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯技能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_sbls_1102013</t>
+  </si>
+  <si>
+    <t>插槽24</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学关塞伯罗斯加攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章教学关行动buff</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_jsgb3_1201003</t>
+  </si>
+  <si>
+    <t>head_jsgb1_1201001</t>
+  </si>
+  <si>
+    <t>head_shx_1102019</t>
+  </si>
+  <si>
+    <t>head_gjj_1201004</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_jsgb1_1201001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五章教学关减攻击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽37</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵技能1</t>
+  </si>
+  <si>
+    <t>head_cfcyb_1101001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市男青年</t>
+  </si>
+  <si>
+    <t>都市男青年技能1</t>
+  </si>
+  <si>
+    <t>都市男青年技能2</t>
+  </si>
+  <si>
+    <t>head_dsnqn_1101042</t>
+  </si>
+  <si>
     <t>战斗曹焱兵</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>曹玄亮技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹玄亮技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽17</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽19</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀鬼兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀鬼兵的普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀鬼兵的水晶普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_jsgb2_1201002</t>
-  </si>
-  <si>
-    <t>鬼将军</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼将军普通伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼将军超级伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗曹焱兵技能1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>守护灵抽卡券</t>
+    <t>战斗曹焱兵技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕仙宫技能2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>head_zdcyb_1101007</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id:e&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#df4c4c&gt;绝技&lt;/color&gt;通常能造成更高伤害</t>
-  </si>
-  <si>
-    <t>head_gjj_1201004</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExclusiveGuard</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属守护灵/寄灵人</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗曹焱兵技能2(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一键</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DmgBonus</t>
-  </si>
-  <si>
-    <t>增伤</t>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterEffect</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>入场效果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>石瀑将军</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>于禁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐流雨</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>于禁技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐流雨技能(教学)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物带吸血攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>石瀑将军群体伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人吸血教学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服夏铃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬精</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍刀鬼兵的普攻</t>
-  </si>
-  <si>
-    <t>常服曹焱兵技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服夏铃技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能2</t>
-  </si>
-  <si>
-    <t>曹玄亮技能2</t>
-  </si>
-  <si>
-    <t>常服夏铃技能2</t>
-  </si>
-  <si>
-    <t>于禁技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐流雨技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬精技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>插槽23</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_spjj_1201009</t>
-  </si>
-  <si>
-    <t>head_yj_1102015</t>
-  </si>
-  <si>
-    <t>head_tly_1102004</t>
-  </si>
-  <si>
-    <t>head_cfcyb_1101001</t>
-  </si>
-  <si>
-    <t>head_cfxl_1101041</t>
-  </si>
-  <si>
-    <t>head_nmj_1102050</t>
+  </si>
+  <si>
+    <t>head_lxg_1101014</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑技能1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>项昆仑技能2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_xkl_1101004</t>
   </si>
   <si>
     <t>双刃鬼兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>链球鬼兵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>双刃鬼兵的普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>链球鬼兵的普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服夏铃技能2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>双刃鬼兵的水晶普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>链球鬼兵的水晶普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_jsgb3_1201003</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_jsgb1_1201001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>食火蜥</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学关食火蜥免伤护盾</t>
-  </si>
-  <si>
-    <t>石瀑将军单体伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞伯罗斯技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_shx_1102019</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_sbls_1102013</t>
-  </si>
-  <si>
-    <t>插槽24</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学关塞伯罗斯加攻击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>惩戒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1896,10 +1923,10 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1925,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1984,7 +2011,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2001,8 +2028,8 @@
       <c r="G2" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
+      <c r="H2" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -2014,10 +2041,10 @@
         <v>47</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
@@ -2043,7 +2070,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>50</v>
@@ -2102,10 +2129,10 @@
         <v>1400001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>184</v>
@@ -2332,7 +2359,7 @@
         <v>5000</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M8" s="3">
         <v>3</v>
@@ -2387,7 +2414,7 @@
         <v>5000</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M9" s="3">
         <v>3</v>
@@ -2425,7 +2452,7 @@
         <v>218</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>217</v>
@@ -2444,7 +2471,7 @@
         <v>5000</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M10" s="3">
         <v>3</v>
@@ -2550,7 +2577,7 @@
         <v>5000</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M12" s="3">
         <v>3</v>
@@ -2656,7 +2683,7 @@
         <v>5000</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M14" s="3">
         <v>3</v>
@@ -2689,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3000,10 +3027,10 @@
     </row>
     <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>20103</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -3012,52 +3039,52 @@
         <v>20101</v>
       </c>
       <c r="E4" s="3">
-        <v>20102</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>20103</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>20104</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
         <v>20105</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
       <c r="M4" s="3">
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3">
         <v>0</v>
       </c>
       <c r="Q4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
         <v>0</v>
@@ -3066,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
         <v>0</v>
@@ -3075,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
@@ -3084,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
         <v>0</v>
@@ -3095,55 +3122,55 @@
     </row>
     <row r="5" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>10102</v>
+        <v>20206</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>20205</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>20207</v>
       </c>
       <c r="F5" s="3">
-        <v>10103</v>
+        <v>20204</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>20201</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>10101</v>
+        <v>20202</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>20203</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
       </c>
       <c r="N5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5" s="3">
         <v>0</v>
@@ -3152,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" s="3">
         <v>0</v>
@@ -3161,25 +3188,25 @@
         <v>0</v>
       </c>
       <c r="W5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="3">
         <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
       </c>
       <c r="AC5" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="3">
         <v>0</v>
@@ -3190,40 +3217,40 @@
     </row>
     <row r="6" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>30106</v>
+        <v>20306</v>
       </c>
       <c r="C6" s="3">
-        <v>30109</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>30104</v>
+        <v>20305</v>
       </c>
       <c r="E6" s="3">
-        <v>30107</v>
+        <v>20307</v>
       </c>
       <c r="F6" s="3">
-        <v>30105</v>
+        <v>20304</v>
       </c>
       <c r="G6" s="3">
-        <v>30108</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>30101</v>
+        <v>20301</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>30102</v>
+        <v>20302</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>30103</v>
+        <v>20303</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -3232,63 +3259,93 @@
         <v>2</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>30204</v>
+        <v>20406</v>
       </c>
       <c r="C7" s="3">
-        <v>30205</v>
+        <v>20409</v>
       </c>
       <c r="D7" s="3">
-        <v>30206</v>
+        <v>20405</v>
       </c>
       <c r="E7" s="3">
-        <v>30207</v>
+        <v>20408</v>
       </c>
       <c r="F7" s="3">
-        <v>30208</v>
+        <v>20404</v>
       </c>
       <c r="G7" s="3">
-        <v>30209</v>
+        <v>20407</v>
       </c>
       <c r="H7" s="3">
-        <v>30201</v>
+        <v>20401</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>30202</v>
+        <v>20402</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3">
-        <v>30203</v>
+        <v>20403</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -3300,25 +3357,25 @@
         <v>1</v>
       </c>
       <c r="P7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
         <v>1</v>
@@ -3350,209 +3407,685 @@
     </row>
     <row r="8" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3">
-        <v>30306</v>
+        <v>10102</v>
       </c>
       <c r="C8" s="3">
-        <v>30307</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>30304</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>30305</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>30308</v>
+        <v>10103</v>
       </c>
       <c r="G8" s="3">
-        <v>30309</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>30301</v>
+        <v>20401</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>30302</v>
+        <v>20402</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>30303</v>
+        <v>20403</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <v>301</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30106</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30109</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30104</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30107</v>
+      </c>
+      <c r="F9" s="3">
+        <v>30105</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30108</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30101</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>30102</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>30103</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>302</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30204</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30205</v>
+      </c>
+      <c r="D10" s="3">
+        <v>30206</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30207</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30208</v>
+      </c>
+      <c r="G10" s="3">
+        <v>30209</v>
+      </c>
+      <c r="H10" s="3">
+        <v>30201</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>30202</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>30203</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>303</v>
+      </c>
+      <c r="B11" s="3">
+        <v>30306</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>30304</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30308</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>30302</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>30301</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>30303</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>304</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B12" s="3">
         <v>30402</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>30403</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>30404</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>30401</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
         <v>2</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>1</v>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>305</v>
+      </c>
+      <c r="B13" s="3">
+        <v>30504</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>30505</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>30506</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30501</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>30502</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>30503</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="3">
+        <v>2</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>306</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30602</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30603</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>30604</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>30601</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3610,7 +4143,7 @@
         <v>137</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>138</v>
@@ -3643,7 +4176,7 @@
         <v>147</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>148</v>
@@ -3661,7 +4194,7 @@
         <v>152</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -3669,7 +4202,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
         <v>153</v>
@@ -3699,7 +4232,7 @@
         <v>153</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M2" t="s">
         <v>154</v>
@@ -3750,7 +4283,7 @@
         <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.2">
@@ -3788,7 +4321,7 @@
         <v>165</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>166</v>
@@ -3821,7 +4354,7 @@
         <v>175</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>176</v>
@@ -3839,7 +4372,7 @@
         <v>180</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -3847,7 +4380,7 @@
         <v>20101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C4" s="4">
         <v>23</v>
@@ -3856,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -3880,22 +4413,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
       <c r="X4" s="4">
         <v>0</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="AB4" s="4">
         <v>1</v>
@@ -3915,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -3939,19 +4466,19 @@
         <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="T5" s="4">
-        <v>1</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="V5" s="4">
         <v>1</v>
@@ -3983,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -4010,12 +4537,6 @@
         <v>223</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="P6" s="4">
         <v>1</v>
       </c>
       <c r="X6" s="4">
@@ -4033,7 +4554,7 @@
         <v>20104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="C7" s="4">
         <v>23</v>
@@ -4042,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -4063,25 +4584,19 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
       <c r="X7" s="4">
         <v>1</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="AB7" s="4">
         <v>1</v>
@@ -4092,7 +4607,7 @@
         <v>20105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C8" s="4">
         <v>23</v>
@@ -4101,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -4122,25 +4637,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="P8" s="4">
         <v>1</v>
       </c>
       <c r="X8" s="4">
         <v>2</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="AB8" s="4">
         <v>1</v>
@@ -4148,19 +4657,19 @@
     </row>
     <row r="9" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>10101</v>
+        <v>20201</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C9" s="4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -4181,25 +4690,19 @@
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="N9" s="4">
-        <v>10</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P9" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X9" s="4">
         <v>1</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AB9" s="4">
         <v>1</v>
@@ -4207,19 +4710,19 @@
     </row>
     <row r="10" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>10102</v>
+        <v>20202</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="C10" s="4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -4240,19 +4743,19 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="N10" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X10" s="4">
         <v>1</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AB10" s="4">
         <v>1</v>
@@ -4260,19 +4763,19 @@
     </row>
     <row r="11" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10103</v>
+        <v>20203</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="C11" s="4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -4293,19 +4796,19 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="N11" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X11" s="4">
         <v>1</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AB11" s="4">
         <v>1</v>
@@ -4313,19 +4816,19 @@
     </row>
     <row r="12" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>30101</v>
+        <v>20204</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C12" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -4349,16 +4852,22 @@
         <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
       </c>
+      <c r="O12" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
       <c r="X12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AB12" s="4">
         <v>1</v>
@@ -4366,19 +4875,19 @@
     </row>
     <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>30102</v>
+        <v>20205</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C13" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -4402,16 +4911,22 @@
         <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="N13" s="4">
         <v>1</v>
       </c>
+      <c r="O13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
       <c r="X13" s="4">
         <v>1</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="AB13" s="4">
         <v>1</v>
@@ -4419,19 +4934,19 @@
     </row>
     <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>30103</v>
+        <v>20206</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="C14" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -4455,16 +4970,22 @@
         <v>0</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="N14" s="4">
         <v>1</v>
       </c>
+      <c r="O14" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
       <c r="X14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="AB14" s="4">
         <v>1</v>
@@ -4472,19 +4993,19 @@
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>30104</v>
+        <v>20207</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="C15" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -4508,43 +5029,55 @@
         <v>0</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="N15" s="4">
         <v>1</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P15" s="4">
-        <v>1</v>
+      <c r="S15" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+      <c r="W15" s="4">
+        <v>130300231</v>
       </c>
       <c r="X15" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>4</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="AB15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>30105</v>
+        <v>20301</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="C16" s="4">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>100</v>
       </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>200</v>
-      </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
@@ -4564,39 +5097,33 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="P16" s="4">
-        <v>1</v>
-      </c>
       <c r="X16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="AB16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>30106</v>
+        <v>20302</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="C17" s="4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -4623,45 +5150,39 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P17" s="4">
-        <v>1</v>
-      </c>
       <c r="X17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AB17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>30107</v>
+        <v>20303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="C18" s="4">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -4682,48 +5203,39 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="P18" s="4">
-        <v>1</v>
-      </c>
       <c r="X18" s="4">
         <v>1</v>
       </c>
-      <c r="Y18" s="4">
-        <v>4</v>
-      </c>
       <c r="AA18" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AB18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>30108</v>
+        <v>20304</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C19" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -4747,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="P19" s="4">
         <v>1</v>
@@ -4761,500 +5273,506 @@
       <c r="X19" s="4">
         <v>2</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="AA19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>20305</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="4">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>480</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="X20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20306</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>480</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>20307</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="4">
+        <v>200</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>400</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
+      <c r="W22" s="4">
+        <v>130300231</v>
+      </c>
+      <c r="X22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="4">
         <v>4</v>
       </c>
-      <c r="AA19" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB19" s="4">
+      <c r="AA22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB22" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>30109</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="4">
+    <row r="23" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>20308</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="4">
+        <v>200</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>400</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>130305031</v>
+      </c>
+      <c r="X23" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>20401</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="4">
         <v>100</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>200</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="P20" s="4">
-        <v>1</v>
-      </c>
-      <c r="X20" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>30201</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C21" s="4">
-        <v>70</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>200</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>220</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="X24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P21" s="4">
-        <v>1</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>30202</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="4">
-        <v>85</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>200</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>30203</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C23" s="4">
-        <v>70</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>200</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>20402</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="4">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2350</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>20403</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="4">
+        <v>100</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>220</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="X26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="N23" s="4">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="P23" s="4">
-        <v>1</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>30204</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C24" s="4">
-        <v>55</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>200</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>30205</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="4">
-        <v>85</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>200</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="X25" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="4">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>30206</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="AB26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>20404</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="4">
-        <v>55</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>200</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="C27" s="4">
+        <v>50</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>240</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1</v>
-      </c>
-      <c r="X26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>30207</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" s="4">
-        <v>85</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>200</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="P27" s="4">
         <v>1</v>
       </c>
       <c r="X27" s="4">
         <v>2</v>
       </c>
-      <c r="Y27" s="4">
-        <v>4</v>
-      </c>
       <c r="AA27" s="3" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="AB27" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>30208</v>
+        <v>20405</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C28" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -5278,42 +5796,42 @@
         <v>0</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="N28" s="4">
         <v>1</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="P28" s="4">
         <v>1</v>
       </c>
       <c r="X28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AB28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>30209</v>
+        <v>20406</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="C29" s="4">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -5337,98 +5855,119 @@
         <v>0</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P29" s="4">
         <v>1</v>
       </c>
       <c r="X29" s="4">
         <v>3</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="AA29" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>20407</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="4">
+        <v>100</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>400</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T30" s="4">
+        <v>1</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4">
+        <v>130300231</v>
+      </c>
+      <c r="X30" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="4">
         <v>4</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB29" s="4">
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB30" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>30301</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" s="4">
-        <v>80</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>80</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="P30" s="4">
-        <v>1</v>
-      </c>
-      <c r="X30" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AB30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>30302</v>
+        <v>20408</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="C31" s="4">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -5452,42 +5991,54 @@
         <v>0</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="N31" s="4">
         <v>1</v>
       </c>
-      <c r="O31" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P31" s="4">
-        <v>1</v>
+      <c r="S31" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T31" s="4">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4">
+        <v>130300231</v>
       </c>
       <c r="X31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB31" s="4">
         <v>2</v>
       </c>
-      <c r="AA31" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:29" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>30303</v>
+        <v>20409</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C32" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -5511,42 +6062,54 @@
         <v>0</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="N32" s="4">
         <v>1</v>
       </c>
-      <c r="O32" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1</v>
+      <c r="S32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
+      <c r="W32" s="4">
+        <v>130305031</v>
       </c>
       <c r="X32" s="4">
         <v>3</v>
       </c>
+      <c r="Y32" s="4">
+        <v>4</v>
+      </c>
       <c r="AA32" s="3" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="AB32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>30304</v>
+        <v>10101</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C33" s="4">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -5567,25 +6130,25 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="N33" s="4">
         <v>1</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="P33" s="4">
         <v>1</v>
       </c>
       <c r="X33" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AB33" s="4">
         <v>1</v>
@@ -5593,19 +6156,19 @@
     </row>
     <row r="34" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>30305</v>
+        <v>10102</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C34" s="4">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -5629,45 +6192,36 @@
         <v>0</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="P34" s="4">
-        <v>1</v>
-      </c>
       <c r="X34" s="4">
         <v>1</v>
       </c>
-      <c r="Y34" s="4">
-        <v>4</v>
-      </c>
       <c r="AA34" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AB34" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>30306</v>
+        <v>10103</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C35" s="4">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -5691,22 +6245,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="O35" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="P35" s="4">
-        <v>1</v>
-      </c>
       <c r="X35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="AB35" s="4">
         <v>1</v>
@@ -5714,19 +6262,19 @@
     </row>
     <row r="36" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>30307</v>
+        <v>30101</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="C36" s="4">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -5747,48 +6295,39 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="N36" s="4">
         <v>1</v>
       </c>
-      <c r="O36" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1</v>
-      </c>
       <c r="X36" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AB36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>30308</v>
+        <v>30102</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="C37" s="4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -5809,25 +6348,19 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="N37" s="4">
         <v>1</v>
       </c>
-      <c r="O37" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="P37" s="4">
-        <v>1</v>
-      </c>
       <c r="X37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AB37" s="4">
         <v>1</v>
@@ -5835,19 +6368,19 @@
     </row>
     <row r="38" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>30309</v>
+        <v>30103</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="C38" s="4">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -5868,48 +6401,39 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="N38" s="4">
         <v>1</v>
       </c>
-      <c r="O38" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="P38" s="4">
-        <v>1</v>
-      </c>
       <c r="X38" s="4">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AB38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>30401</v>
+        <v>30104</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C39" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -5933,22 +6457,22 @@
         <v>0</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="N39" s="4">
         <v>1</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="P39" s="4">
         <v>1</v>
       </c>
       <c r="X39" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="AB39" s="4">
         <v>1</v>
@@ -5956,19 +6480,19 @@
     </row>
     <row r="40" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>30402</v>
+        <v>30105</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C40" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -5992,31 +6516,22 @@
         <v>0</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="N40" s="4">
         <v>1</v>
       </c>
-      <c r="S40" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="T40" s="4">
-        <v>1</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="V40" s="4">
+      <c r="O40" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P40" s="4">
         <v>1</v>
       </c>
       <c r="X40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="AB40" s="4">
         <v>1</v>
@@ -6024,19 +6539,19 @@
     </row>
     <row r="41" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>30403</v>
+        <v>30106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="C41" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
@@ -6060,31 +6575,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="N41" s="4">
         <v>1</v>
       </c>
-      <c r="S41" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="T41" s="4">
-        <v>1</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="V41" s="4">
+      <c r="O41" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P41" s="4">
         <v>1</v>
       </c>
       <c r="X41" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="AB41" s="4">
         <v>1</v>
@@ -6092,19 +6598,19 @@
     </row>
     <row r="42" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>30404</v>
+        <v>30107</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C42" s="4">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F42" s="4">
         <v>0</v>
@@ -6128,34 +6634,2115 @@
         <v>0</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="N42" s="4">
         <v>1</v>
       </c>
-      <c r="S42" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="T42" s="4">
-        <v>1</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="V42" s="4">
-        <v>1</v>
+      <c r="O42" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P42" s="4">
+        <v>1</v>
+      </c>
+      <c r="W42" s="4">
+        <v>130301531</v>
       </c>
       <c r="X42" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="4">
         <v>4</v>
       </c>
       <c r="AA42" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>30108</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="4">
+        <v>100</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>400</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="X43" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>30109</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="4">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>400</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="X44" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>30201</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C45" s="4">
+        <v>50</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>360</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>30202</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="4">
+        <v>65</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>360</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N46" s="4">
+        <v>1</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="X46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>30203</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="4">
+        <v>50</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>320</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="P47" s="4">
+        <v>1</v>
+      </c>
+      <c r="X47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>30204</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="4">
+        <v>55</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>400</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="P48" s="4">
+        <v>1</v>
+      </c>
+      <c r="X48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>30205</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="4">
+        <v>85</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>400</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N49" s="4">
+        <v>1</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+      <c r="W49" s="4">
+        <v>130301531</v>
+      </c>
+      <c r="X49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>30206</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="4">
+        <v>55</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>400</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>0</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P50" s="4">
+        <v>1</v>
+      </c>
+      <c r="X50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>30207</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="4">
+        <v>85</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>400</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N51" s="4">
+        <v>1</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T51" s="4">
+        <v>1</v>
+      </c>
+      <c r="W51" s="4">
+        <v>130300231</v>
+      </c>
+      <c r="X51" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>30208</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="4">
+        <v>55</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>400</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N52" s="4">
+        <v>1</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1</v>
+      </c>
+      <c r="X52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>30209</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="4">
+        <v>85</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>400</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1</v>
+      </c>
+      <c r="S53" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T53" s="4">
+        <v>1</v>
+      </c>
+      <c r="W53" s="4">
+        <v>130305031</v>
+      </c>
+      <c r="X53" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>30301</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C54" s="4">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>200</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
+      </c>
+      <c r="X54" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>30302</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="4">
+        <v>15</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>300</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N55" s="4">
+        <v>1</v>
+      </c>
+      <c r="X55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>30303</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="4">
+        <v>30</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>300</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+      <c r="X56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>30304</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="4">
+        <v>55</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>400</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>30305</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="4">
+        <v>85</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>400</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N58" s="4">
+        <v>1</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="P58" s="4">
+        <v>1</v>
+      </c>
+      <c r="X58" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>30306</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" s="4">
+        <v>55</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>400</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="X59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>30307</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" s="4">
+        <v>85</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>400</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N60" s="4">
+        <v>1</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="P60" s="4">
+        <v>1</v>
+      </c>
+      <c r="X60" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>30308</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C61" s="4">
+        <v>55</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>400</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>30309</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="4">
+        <v>85</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>400</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N62" s="4">
+        <v>1</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="P62" s="4">
+        <v>1</v>
+      </c>
+      <c r="X62" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y62" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>30401</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="4">
+        <v>50</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>600</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1</v>
+      </c>
+      <c r="O63" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AB42" s="4">
-        <v>1</v>
+      <c r="P63" s="4">
+        <v>1</v>
+      </c>
+      <c r="X63" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>30402</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" s="4">
+        <v>50</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>400</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N64" s="4">
+        <v>1</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="T64" s="4">
+        <v>1</v>
+      </c>
+      <c r="U64" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="V64" s="4">
+        <v>1</v>
+      </c>
+      <c r="X64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>30403</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="4">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>400</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N65" s="4">
+        <v>1</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="T65" s="4">
+        <v>1</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="V65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>30404</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="4">
+        <v>50</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>400</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="T66" s="4">
+        <v>1</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="V66" s="4">
+        <v>1</v>
+      </c>
+      <c r="X66" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>30501</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="4">
+        <v>50</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>300</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N67" s="4">
+        <v>1</v>
+      </c>
+      <c r="X67" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>30502</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" s="4">
+        <v>50</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>600</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="N68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="P68" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="R68" s="4">
+        <v>1</v>
+      </c>
+      <c r="X68" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>30503</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="4">
+        <v>50</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>600</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N69" s="4">
+        <v>1</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P69" s="4">
+        <v>1</v>
+      </c>
+      <c r="X69" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA69" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>30504</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="4">
+        <v>55</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>600</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="P70" s="4">
+        <v>1</v>
+      </c>
+      <c r="X70" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>30505</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="4">
+        <v>55</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>400</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N71" s="4">
+        <v>1</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P71" s="4">
+        <v>1</v>
+      </c>
+      <c r="X71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>30506</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" s="4">
+        <v>55</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>400</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="N72" s="4">
+        <v>1</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="P72" s="4">
+        <v>1</v>
+      </c>
+      <c r="X72" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>30601</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="4">
+        <v>200</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>200</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="P73" s="4">
+        <v>1</v>
+      </c>
+      <c r="X73" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>30602</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="4">
+        <v>100</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>400</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N74" s="4">
+        <v>1</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="T74" s="4">
+        <v>1</v>
+      </c>
+      <c r="U74" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="V74" s="4">
+        <v>1</v>
+      </c>
+      <c r="X74" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>30603</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="4">
+        <v>100</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>400</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1</v>
+      </c>
+      <c r="S75" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="T75" s="4">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="V75" s="4">
+        <v>1</v>
+      </c>
+      <c r="X75" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA75" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>30604</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" s="4">
+        <v>100</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>400</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1</v>
+      </c>
+      <c r="S76" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="T76" s="4">
+        <v>1</v>
+      </c>
+      <c r="U76" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="V76" s="4">
+        <v>1</v>
+      </c>
+      <c r="W76" s="4">
+        <v>130300231</v>
+      </c>
+      <c r="X76" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y76" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB76" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
